--- a/국가 태그 리스트.xlsx
+++ b/국가 태그 리스트.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Paradox Interactive\Hearts of Iron IV\mod\Megrez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327C409E-1AF9-4E83-A6AF-033FC9CD45A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A571A5-964F-416E-B499-E3090DB0CA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5BB7CF9C-8FCF-4629-9068-6E760912229D}"/>
   </bookViews>
   <sheets>
-    <sheet name="asd" sheetId="2" r:id="rId1"/>
+    <sheet name="국가 태그" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">asd!$A$1:$B$519</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'국가 태그'!$A$1:$B$519</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,325 +84,151 @@
     <t>AMR</t>
   </si>
   <si>
-    <t>Amur</t>
-  </si>
-  <si>
     <t>ANC</t>
   </si>
   <si>
-    <t>African South Africa</t>
-  </si>
-  <si>
     <t>ANG</t>
   </si>
   <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>ANL</t>
-  </si>
-  <si>
-    <t>MPLA</t>
-  </si>
-  <si>
-    <t>ANT</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>APF</t>
-  </si>
-  <si>
-    <t>Aryan Peoples Front</t>
-  </si>
-  <si>
-    <t>ARA</t>
-  </si>
-  <si>
-    <t>Arakan</t>
-  </si>
-  <si>
     <t>ARG</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
     <t>ARL</t>
   </si>
   <si>
-    <t>Aralsk</t>
-  </si>
-  <si>
     <t>ARM</t>
   </si>
   <si>
-    <t>Armenia</t>
-  </si>
-  <si>
     <t>ARP</t>
   </si>
   <si>
-    <t>Argentine Paraguayan Occupation</t>
-  </si>
-  <si>
     <t>AST</t>
   </si>
   <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>AUS</t>
   </si>
   <si>
-    <t>Austria</t>
-  </si>
-  <si>
     <t>AWB</t>
   </si>
   <si>
-    <t>Afrikaner-Weerstandsbeweging</t>
-  </si>
-  <si>
     <t>AYA</t>
   </si>
   <si>
-    <t>Anyanya</t>
-  </si>
-  <si>
     <t>AYR</t>
   </si>
   <si>
-    <t>Kel Ayr</t>
-  </si>
-  <si>
     <t>AZA</t>
   </si>
   <si>
-    <t>Azania</t>
-  </si>
-  <si>
     <t>AZD</t>
   </si>
   <si>
-    <t>Azandeland</t>
-  </si>
-  <si>
     <t>AZH</t>
   </si>
   <si>
-    <t>Azad Hind</t>
-  </si>
-  <si>
     <t>AZR</t>
   </si>
   <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
     <t>AZW</t>
   </si>
   <si>
-    <t>Azawad</t>
-  </si>
-  <si>
     <t>BAH</t>
   </si>
   <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
     <t>BEL</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
     <t>BFR</t>
   </si>
   <si>
-    <t>Biafra</t>
-  </si>
-  <si>
     <t>BGR</t>
   </si>
   <si>
-    <t>Bormanns Germany</t>
-  </si>
-  <si>
     <t>BHU</t>
   </si>
   <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
     <t>BIR</t>
   </si>
   <si>
-    <t>Ba'athist Iraq</t>
-  </si>
-  <si>
     <t>BKB</t>
   </si>
   <si>
-    <t>Bukit Barisan</t>
-  </si>
-  <si>
     <t>BKF</t>
   </si>
   <si>
-    <t>Mossiland</t>
-  </si>
-  <si>
     <t>BKR</t>
   </si>
   <si>
-    <t>Bashkir</t>
-  </si>
-  <si>
     <t>BKU</t>
   </si>
   <si>
-    <t>Mosul and Kerkuk</t>
-  </si>
-  <si>
     <t>BKV</t>
   </si>
   <si>
-    <t>Bakuvu</t>
-  </si>
-  <si>
     <t>BLR</t>
   </si>
   <si>
-    <t>Belarus</t>
-  </si>
-  <si>
     <t>BLZ</t>
   </si>
   <si>
-    <t>Belize</t>
-  </si>
-  <si>
     <t>BMB</t>
   </si>
   <si>
-    <t>Bemba</t>
-  </si>
-  <si>
     <t>BOL</t>
   </si>
   <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
     <t>BOR</t>
   </si>
   <si>
-    <t>Boer South Africa</t>
-  </si>
-  <si>
     <t>BOS</t>
   </si>
   <si>
-    <t>Bosnia</t>
-  </si>
-  <si>
     <t>BOV</t>
   </si>
   <si>
-    <t>BOV Ukraine</t>
-  </si>
-  <si>
     <t>BRA</t>
   </si>
   <si>
-    <t>Brazil</t>
-  </si>
-  <si>
     <t>BRB</t>
   </si>
   <si>
-    <t>Barbados</t>
-  </si>
-  <si>
     <t>BRD</t>
   </si>
   <si>
-    <t>Burundi</t>
-  </si>
-  <si>
     <t>BRG</t>
   </si>
   <si>
-    <t>Burgundy</t>
-  </si>
-  <si>
     <t>BRM</t>
   </si>
   <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
     <t>BRP</t>
   </si>
   <si>
-    <t>Brazilian Paraguayan Occupation</t>
-  </si>
-  <si>
     <t>BRS</t>
   </si>
   <si>
-    <t>Barotseland</t>
-  </si>
-  <si>
     <t>BRT</t>
   </si>
   <si>
-    <t>Brittany</t>
-  </si>
-  <si>
     <t>BRU</t>
   </si>
   <si>
-    <t>Brunei</t>
-  </si>
-  <si>
     <t>BRY</t>
   </si>
   <si>
-    <t>Buryatia</t>
-  </si>
-  <si>
     <t>BSQ</t>
   </si>
   <si>
-    <t>Basque</t>
-  </si>
-  <si>
     <t>BTS</t>
   </si>
   <si>
-    <t>Botswana</t>
-  </si>
-  <si>
     <t>BUL</t>
   </si>
   <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
     <t>BUR</t>
   </si>
   <si>
-    <t>Burma</t>
-  </si>
-  <si>
     <t>BZZ</t>
-  </si>
-  <si>
-    <t>Brazzaville</t>
   </si>
   <si>
     <t>CAF</t>
@@ -3157,6 +2983,238 @@
   </si>
   <si>
     <t>Mongolia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아프리카 국민회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앙골라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앙골라 해방인민운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앤티가 바부다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리아인 국민전선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아라칸 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아르헨티나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악퇴베</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아르메니아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아르헨티나 점령지대 (파라과이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오스트레일리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오스트마르크 산악엽병부대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아프리카너 저항운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이르 술탄국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아자니아 해방전선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아잔데란드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유 인도 정부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아제르바이잔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아자와드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바하마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벨기에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비아프라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보어만의 독일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바트주의 이라크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모실란드 = 부르키나파소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바시코르토스탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모술-키르쿠크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부카부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벨라루스 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벨리즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벰바 왕국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼리비아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보어 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스니아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우크라이나국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인도네시아 군 제 1 지역 사령부 / 부킷 바리산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바베이도스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부룬디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부르군트 SS 기사단국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버뮤다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라질 점령지대(파라과이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로체란트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브르타뉴 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브루나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부랴티아 소비에트 사회주의 자치 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바스크 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보츠와나 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불가리아 차르국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버마 연방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라자빌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3203,11 +3261,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3555,4166 +3610,4166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368E7840-401F-403C-8D0A-776BF9C3D7E0}">
   <dimension ref="A1:B519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="B459" sqref="B459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>977</v>
+      </c>
+      <c r="B16" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>979</v>
+      </c>
+      <c r="B17" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>981</v>
+      </c>
+      <c r="B18" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>983</v>
+      </c>
+      <c r="B19" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
         <v>1016</v>
       </c>
-      <c r="B1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B66" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B67" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B73" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B74" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B75" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B76" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B77" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B78" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B79" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B81" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B82" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B83" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B84" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B85" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>99</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B86" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B87" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B88" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B89" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B90" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B91" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B92" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="B93" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="1" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="B94" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="1" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="B95" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="1" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="B96" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="1" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="B97" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="1" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="B98" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="1" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="B99" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="1" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="B100" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="1" t="s">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="B101" t="s">
         <v>129</v>
       </c>
-      <c r="B72" s="1" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="B102" t="s">
         <v>131</v>
       </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="B103" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="1" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="B104" t="s">
         <v>135</v>
       </c>
-      <c r="B75" s="1" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="B105" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="1" t="s">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="B106" t="s">
         <v>139</v>
       </c>
-      <c r="B77" s="1" t="s">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="B107" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="1" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="B108" t="s">
         <v>143</v>
       </c>
-      <c r="B79" s="1" t="s">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="B109" t="s">
         <v>145</v>
       </c>
-      <c r="B80" s="1" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="B110" t="s">
         <v>147</v>
       </c>
-      <c r="B81" s="1" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="B111" t="s">
         <v>149</v>
       </c>
-      <c r="B82" s="1" t="s">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="B112" t="s">
         <v>151</v>
       </c>
-      <c r="B83" s="1" t="s">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="B113" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="1" t="s">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="B114" t="s">
         <v>155</v>
       </c>
-      <c r="B85" s="1" t="s">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="B115" t="s">
         <v>157</v>
       </c>
-      <c r="B86" s="1" t="s">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="B116" t="s">
         <v>159</v>
       </c>
-      <c r="B87" s="1" t="s">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="B117" t="s">
         <v>161</v>
       </c>
-      <c r="B88" s="1" t="s">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="B118" t="s">
         <v>163</v>
       </c>
-      <c r="B89" s="1" t="s">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="B119" t="s">
         <v>165</v>
       </c>
-      <c r="B90" s="1" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="B120" t="s">
         <v>167</v>
       </c>
-      <c r="B91" s="1" t="s">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="B121" t="s">
         <v>169</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>170</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B122" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>172</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B123" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>174</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B124" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>176</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B125" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>178</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B126" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="B127" t="s">
         <v>180</v>
       </c>
-      <c r="B98" s="1" t="s">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="B128" t="s">
         <v>182</v>
       </c>
-      <c r="B99" s="1" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="B129" t="s">
         <v>184</v>
       </c>
-      <c r="B100" s="1" t="s">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="B130" t="s">
         <v>186</v>
       </c>
-      <c r="B101" s="1" t="s">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="B131" t="s">
         <v>188</v>
       </c>
-      <c r="B102" s="1" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="B132" t="s">
         <v>190</v>
       </c>
-      <c r="B103" s="1" t="s">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="B133" t="s">
         <v>192</v>
       </c>
-      <c r="B104" s="1" t="s">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="B134" t="s">
         <v>194</v>
       </c>
-      <c r="B105" s="1" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="B135" t="s">
         <v>196</v>
       </c>
-      <c r="B106" s="1" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="B136" t="s">
         <v>198</v>
       </c>
-      <c r="B107" s="1" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="B137" t="s">
         <v>200</v>
       </c>
-      <c r="B108" s="1" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="B138" t="s">
         <v>202</v>
       </c>
-      <c r="B109" s="1" t="s">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="B139" t="s">
         <v>204</v>
       </c>
-      <c r="B110" s="1" t="s">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="B140" t="s">
         <v>206</v>
       </c>
-      <c r="B111" s="1" t="s">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="B141" t="s">
         <v>208</v>
       </c>
-      <c r="B112" s="1" t="s">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="B142" t="s">
         <v>210</v>
       </c>
-      <c r="B113" s="1" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="B143" t="s">
         <v>212</v>
       </c>
-      <c r="B114" s="1" t="s">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="B144" t="s">
         <v>214</v>
       </c>
-      <c r="B115" s="1" t="s">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="B145" t="s">
         <v>216</v>
       </c>
-      <c r="B116" s="1" t="s">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="B146" t="s">
         <v>218</v>
       </c>
-      <c r="B117" s="1" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="B147" t="s">
         <v>220</v>
       </c>
-      <c r="B118" s="1" t="s">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="B148" t="s">
         <v>222</v>
       </c>
-      <c r="B119" s="1" t="s">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="B149" t="s">
         <v>224</v>
       </c>
-      <c r="B120" s="1" t="s">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="B150" t="s">
         <v>226</v>
       </c>
-      <c r="B121" s="1" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="B151" t="s">
         <v>228</v>
       </c>
-      <c r="B122" s="1" t="s">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="B152" t="s">
         <v>230</v>
       </c>
-      <c r="B123" s="1" t="s">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="B153" t="s">
         <v>232</v>
       </c>
-      <c r="B124" s="1" t="s">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="B154" t="s">
         <v>234</v>
       </c>
-      <c r="B125" s="1" t="s">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="B155" t="s">
         <v>236</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>237</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B156" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>239</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B157" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>241</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B158" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>243</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B159" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>245</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B160" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>247</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B161" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>249</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B162" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>251</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B163" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>253</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B164" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>255</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B165" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>257</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B166" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>259</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B167" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>261</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B168" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>263</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B169" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>265</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B170" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>267</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B171" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>269</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B172" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>271</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B173" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>273</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B174" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>275</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B175" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>277</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B176" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>279</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B177" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>281</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B178" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>283</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B179" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>285</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B180" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>287</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B181" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>289</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B182" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>291</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B183" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>293</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B184" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>295</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B185" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>297</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B186" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>299</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B187" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>301</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B188" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>303</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B189" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>305</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B190" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>307</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B191" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>309</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B192" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>311</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B193" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>313</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B194" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>315</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B195" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>317</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B196" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>319</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B197" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>321</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B198" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>323</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B199" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>325</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B200" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>327</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B201" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>329</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B202" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>331</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B203" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>333</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B204" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>335</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B205" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>337</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B206" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>339</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B207" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>341</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B208" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>343</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B209" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>345</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B210" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>347</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B211" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>349</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B212" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>351</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B213" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>353</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B214" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>355</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B215" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>357</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B216" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>359</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B217" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>361</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B218" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>363</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B219" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>365</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B220" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>367</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B221" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>369</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B222" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>371</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B223" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>373</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B224" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>375</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B225" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>377</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B226" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>379</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B227" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>381</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B228" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>383</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B229" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>385</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B230" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>387</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B231" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>389</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B232" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>391</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B233" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>393</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B234" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>395</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B235" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>397</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B236" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>399</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B237" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>401</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B238" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>403</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B239" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>405</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B240" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>407</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B241" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>409</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B242" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>411</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B243" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>413</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B244" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>415</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B245" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>417</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B246" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>419</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B247" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>421</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B248" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>423</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B249" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>425</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B250" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>427</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B251" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>429</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B252" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>431</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B253" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>433</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B254" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>435</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B255" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>437</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B256" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>439</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B257" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>441</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B258" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>443</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B259" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>445</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B260" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>447</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B261" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
         <v>449</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B262" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>451</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B263" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>453</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B264" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>455</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B265" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>457</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B266" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>459</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B267" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>461</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B268" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>463</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B269" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>465</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B270" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>467</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B271" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
         <v>469</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B272" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>471</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B273" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>473</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B274" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
         <v>475</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B275" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>477</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B276" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
+      <c r="B277" t="s">
         <v>479</v>
       </c>
-      <c r="B248" s="1" t="s">
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
+      <c r="B278" t="s">
         <v>481</v>
       </c>
-      <c r="B249" s="1" t="s">
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
+      <c r="B279" t="s">
         <v>483</v>
       </c>
-      <c r="B250" s="1" t="s">
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
+      <c r="B280" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>485</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B281" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
         <v>487</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B282" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
         <v>489</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B283" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
         <v>491</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B284" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
         <v>493</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B285" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
         <v>495</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B286" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
         <v>497</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B287" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>499</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B288" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
         <v>501</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B289" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
         <v>503</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B290" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
         <v>505</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B291" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
         <v>507</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B292" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>509</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B293" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
         <v>511</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B294" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
         <v>513</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B295" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
         <v>515</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B296" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="1" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
         <v>517</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B297" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
         <v>519</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B298" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
         <v>521</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B299" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
         <v>523</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B300" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
         <v>525</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B301" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
         <v>527</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="B302" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
         <v>529</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="B303" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
         <v>531</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B304" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
         <v>533</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B305" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
         <v>535</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
+      <c r="B306" t="s">
         <v>536</v>
       </c>
-      <c r="B277" s="1" t="s">
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
+      <c r="B307" t="s">
         <v>538</v>
       </c>
-      <c r="B278" s="1" t="s">
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
+      <c r="B308" t="s">
         <v>540</v>
       </c>
-      <c r="B279" s="1" t="s">
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
+      <c r="B309" t="s">
         <v>542</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
         <v>543</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="B310" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
         <v>545</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B311" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
         <v>547</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="B312" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="1" t="s">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>549</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B313" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="1" t="s">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
         <v>551</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B314" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>553</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="B315" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
         <v>555</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B316" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
         <v>557</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B317" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="1" t="s">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
         <v>559</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B318" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
         <v>561</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B319" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="1" t="s">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
         <v>563</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B320" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="1" t="s">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
         <v>565</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B321" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="1" t="s">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
         <v>567</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="B322" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="1" t="s">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
         <v>569</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="B323" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
         <v>571</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B324" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="1" t="s">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
         <v>573</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B325" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="1" t="s">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
         <v>575</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B326" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
         <v>577</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B327" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
         <v>579</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B328" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
         <v>581</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B329" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="1" t="s">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
         <v>583</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B330" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
         <v>585</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="B331" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="1" t="s">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
         <v>587</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="B332" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="1" t="s">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
         <v>589</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B333" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
         <v>591</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B334" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
         <v>593</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="B335" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="1" t="s">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
         <v>595</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="B336" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="1" t="s">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
         <v>597</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B337" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="1" t="s">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
         <v>599</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="B338" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" s="1" t="s">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
         <v>601</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="B339" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="1" t="s">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
         <v>603</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="B340" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
         <v>605</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="B341" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="1" t="s">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
         <v>607</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="B342" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
         <v>609</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="B343" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="1" t="s">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
         <v>611</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="B344" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
         <v>613</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="B345" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
         <v>615</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B346" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
         <v>617</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="B347" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
         <v>619</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B348" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="1" t="s">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
         <v>621</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="B349" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="1" t="s">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
         <v>623</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="B350" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
         <v>625</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="B351" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
         <v>627</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="B352" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
         <v>629</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="B353" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="1" t="s">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
         <v>631</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="B354" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
         <v>633</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="B355" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="1" t="s">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
         <v>635</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="B356" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
         <v>637</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="B357" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="1" t="s">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
         <v>639</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="B358" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>641</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="B359" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="1" t="s">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
         <v>643</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="B360" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="1" t="s">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
         <v>645</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="B361" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="1" t="s">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
         <v>647</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="B362" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="1" t="s">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
         <v>649</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="B363" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
         <v>651</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="B364" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>967</v>
+      </c>
+      <c r="B365" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
         <v>653</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="B366" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="1" t="s">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
         <v>655</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="B367" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
         <v>657</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="B368" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="1" t="s">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
         <v>659</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="B369" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="1" t="s">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
         <v>661</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="B370" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
         <v>663</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="B371" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
         <v>665</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="B372" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
         <v>667</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="B373" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
         <v>669</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="B374" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="1" t="s">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
         <v>671</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="B375" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
         <v>673</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="B376" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
         <v>675</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="B377" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
         <v>677</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="B378" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
         <v>679</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="B379" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
         <v>681</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="B380" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
         <v>683</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="B381" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="1" t="s">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
         <v>685</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="B382" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="1" t="s">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
         <v>687</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="B383" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
         <v>689</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="B384" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="1" t="s">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
         <v>691</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="B385" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
         <v>693</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="B386" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="1" t="s">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
         <v>695</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="B387" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
         <v>697</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="B388" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="1" t="s">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
         <v>699</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="B389" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
         <v>701</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="B390" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="1" t="s">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
         <v>703</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="B391" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
         <v>705</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="B392" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="1" t="s">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
         <v>707</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="B393" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
         <v>709</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="B394" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="1" t="s">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
         <v>711</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="B395" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="1" t="s">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
         <v>713</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="B396" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="1" t="s">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
         <v>715</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="B397" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="1" t="s">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
         <v>717</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="B398" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
         <v>719</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="B399" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="1" t="s">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
         <v>721</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="B400" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
         <v>723</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="B401" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
         <v>725</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="B402" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
         <v>727</v>
       </c>
-      <c r="B374" s="1" t="s">
+      <c r="B403" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="1" t="s">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
         <v>729</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="B404" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
         <v>731</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="B405" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="1" t="s">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
         <v>733</v>
       </c>
-      <c r="B377" s="1" t="s">
+      <c r="B406" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="1" t="s">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
         <v>735</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="B407" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="1" t="s">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
         <v>737</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="B408" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="1" t="s">
+      <c r="B409" t="s">
         <v>739</v>
       </c>
-      <c r="B380" s="1" t="s">
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="1" t="s">
+      <c r="B410" t="s">
         <v>741</v>
       </c>
-      <c r="B381" s="1" t="s">
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="1" t="s">
+      <c r="B411" t="s">
         <v>743</v>
       </c>
-      <c r="B382" s="1" t="s">
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="1" t="s">
+      <c r="B412" t="s">
         <v>745</v>
       </c>
-      <c r="B383" s="1" t="s">
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="1" t="s">
+      <c r="B413" t="s">
         <v>747</v>
       </c>
-      <c r="B384" s="1" t="s">
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" s="1" t="s">
+      <c r="B414" t="s">
         <v>749</v>
       </c>
-      <c r="B385" s="1" t="s">
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" s="1" t="s">
+      <c r="B415" t="s">
         <v>751</v>
       </c>
-      <c r="B386" s="1" t="s">
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" s="1" t="s">
+      <c r="B416" t="s">
         <v>753</v>
       </c>
-      <c r="B387" s="1" t="s">
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" s="1" t="s">
+      <c r="B417" t="s">
         <v>755</v>
       </c>
-      <c r="B388" s="1" t="s">
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" s="1" t="s">
+      <c r="B418" t="s">
         <v>757</v>
       </c>
-      <c r="B389" s="1" t="s">
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" s="1" t="s">
+      <c r="B419" t="s">
         <v>759</v>
       </c>
-      <c r="B390" s="1" t="s">
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" s="1" t="s">
+      <c r="B420" t="s">
         <v>761</v>
       </c>
-      <c r="B391" s="1" t="s">
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" s="1" t="s">
+      <c r="B421" t="s">
         <v>763</v>
       </c>
-      <c r="B392" s="1" t="s">
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" s="1" t="s">
+      <c r="B422" t="s">
         <v>765</v>
       </c>
-      <c r="B393" s="1" t="s">
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" s="1" t="s">
+      <c r="B423" t="s">
         <v>767</v>
       </c>
-      <c r="B394" s="1" t="s">
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" s="1" t="s">
+      <c r="B424" t="s">
         <v>769</v>
       </c>
-      <c r="B395" s="1" t="s">
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" s="1" t="s">
+      <c r="B425" t="s">
         <v>771</v>
       </c>
-      <c r="B396" s="1" t="s">
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" s="1" t="s">
+      <c r="B426" t="s">
         <v>773</v>
       </c>
-      <c r="B397" s="1" t="s">
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" s="1" t="s">
+      <c r="B427" t="s">
         <v>775</v>
       </c>
-      <c r="B398" s="1" t="s">
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" s="1" t="s">
+      <c r="B428" t="s">
         <v>777</v>
       </c>
-      <c r="B399" s="1" t="s">
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" s="1" t="s">
+      <c r="B429" t="s">
         <v>779</v>
       </c>
-      <c r="B400" s="1" t="s">
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" s="1" t="s">
+      <c r="B430" t="s">
         <v>781</v>
       </c>
-      <c r="B401" s="1" t="s">
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" s="1" t="s">
+      <c r="B431" t="s">
         <v>783</v>
       </c>
-      <c r="B402" s="1" t="s">
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" s="1" t="s">
+      <c r="B432" t="s">
         <v>785</v>
       </c>
-      <c r="B403" s="1" t="s">
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" s="1" t="s">
+      <c r="B433" t="s">
         <v>787</v>
       </c>
-      <c r="B404" s="1" t="s">
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" s="1" t="s">
+      <c r="B434" t="s">
         <v>789</v>
       </c>
-      <c r="B405" s="1" t="s">
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" s="1" t="s">
+      <c r="B435" t="s">
         <v>791</v>
       </c>
-      <c r="B406" s="1" t="s">
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" s="1" t="s">
+      <c r="B436" t="s">
         <v>793</v>
       </c>
-      <c r="B407" s="1" t="s">
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" s="1" t="s">
+      <c r="B437" t="s">
         <v>795</v>
       </c>
-      <c r="B408" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" s="1" t="s">
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
         <v>796</v>
       </c>
-      <c r="B409" s="1" t="s">
+      <c r="B438" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" s="1" t="s">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
         <v>798</v>
       </c>
-      <c r="B410" s="1" t="s">
+      <c r="B439" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" s="1" t="s">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
         <v>800</v>
       </c>
-      <c r="B411" s="1" t="s">
+      <c r="B440" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" s="1" t="s">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
         <v>802</v>
       </c>
-      <c r="B412" s="1" t="s">
+      <c r="B441" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" s="1" t="s">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
         <v>804</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="B442" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" s="1" t="s">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
         <v>806</v>
       </c>
-      <c r="B414" s="1" t="s">
+      <c r="B443" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" s="1" t="s">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
         <v>808</v>
       </c>
-      <c r="B415" s="1" t="s">
+      <c r="B444" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" s="1" t="s">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
         <v>810</v>
       </c>
-      <c r="B416" s="1" t="s">
+      <c r="B445" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" s="1" t="s">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
         <v>812</v>
       </c>
-      <c r="B417" s="1" t="s">
+      <c r="B446" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" s="1" t="s">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
         <v>814</v>
       </c>
-      <c r="B418" s="1" t="s">
+      <c r="B447" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" s="1" t="s">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
         <v>816</v>
       </c>
-      <c r="B419" s="1" t="s">
+      <c r="B448" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" s="1" t="s">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
         <v>818</v>
       </c>
-      <c r="B420" s="1" t="s">
+      <c r="B449" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" s="1" t="s">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
         <v>820</v>
       </c>
-      <c r="B421" s="1" t="s">
+      <c r="B450" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" s="1" t="s">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
         <v>822</v>
       </c>
-      <c r="B422" s="1" t="s">
+      <c r="B451" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" s="1" t="s">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
         <v>824</v>
       </c>
-      <c r="B423" s="1" t="s">
+      <c r="B452" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" s="1" t="s">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
         <v>826</v>
       </c>
-      <c r="B424" s="1" t="s">
+      <c r="B453" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" s="1" t="s">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
         <v>828</v>
       </c>
-      <c r="B425" s="1" t="s">
+      <c r="B454" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" s="1" t="s">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
         <v>830</v>
       </c>
-      <c r="B426" s="1" t="s">
+      <c r="B455" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" s="1" t="s">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
         <v>832</v>
       </c>
-      <c r="B427" s="1" t="s">
+      <c r="B456" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" s="1" t="s">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
         <v>834</v>
       </c>
-      <c r="B428" s="1" t="s">
+      <c r="B457" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" s="1" t="s">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
         <v>836</v>
       </c>
-      <c r="B429" s="1" t="s">
+      <c r="B458" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" s="1" t="s">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
         <v>838</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="B459" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" s="1" t="s">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
         <v>840</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="B460" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" s="1" t="s">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
         <v>842</v>
       </c>
-      <c r="B432" s="1" t="s">
+      <c r="B461" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" s="1" t="s">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
         <v>844</v>
       </c>
-      <c r="B433" s="1" t="s">
+      <c r="B462" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" s="1" t="s">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
         <v>846</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="B463" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" s="1" t="s">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
         <v>848</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="B464" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" s="1" t="s">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
         <v>850</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="B465" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" s="1" t="s">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
         <v>852</v>
       </c>
-      <c r="B437" s="1" t="s">
+      <c r="B466" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" s="1" t="s">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
         <v>854</v>
       </c>
-      <c r="B438" s="1" t="s">
+      <c r="B467" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439" s="1" t="s">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
         <v>856</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="B468" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440" s="1" t="s">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
         <v>858</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="B469" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" s="1" t="s">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
         <v>860</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="B470" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" s="1" t="s">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
         <v>862</v>
       </c>
-      <c r="B442" s="1" t="s">
+      <c r="B471" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" s="1" t="s">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
         <v>864</v>
       </c>
-      <c r="B443" s="1" t="s">
+      <c r="B472" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" s="1" t="s">
+      <c r="B473" t="s">
         <v>866</v>
       </c>
-      <c r="B444" s="1" t="s">
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" s="1" t="s">
+      <c r="B474" t="s">
         <v>868</v>
       </c>
-      <c r="B445" s="1" t="s">
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" s="1" t="s">
+      <c r="B475" t="s">
         <v>870</v>
       </c>
-      <c r="B446" s="1" t="s">
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" s="1" t="s">
+      <c r="B476" t="s">
         <v>872</v>
       </c>
-      <c r="B447" s="1" t="s">
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" s="1" t="s">
+      <c r="B477" t="s">
         <v>874</v>
       </c>
-      <c r="B448" s="1" t="s">
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449" s="1" t="s">
+      <c r="B478" t="s">
         <v>876</v>
       </c>
-      <c r="B449" s="1" t="s">
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450" s="1" t="s">
+      <c r="B479" t="s">
         <v>878</v>
       </c>
-      <c r="B450" s="1" t="s">
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" s="1" t="s">
+      <c r="B480" t="s">
         <v>880</v>
       </c>
-      <c r="B451" s="1" t="s">
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" s="1" t="s">
+      <c r="B481" t="s">
         <v>882</v>
       </c>
-      <c r="B452" s="1" t="s">
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453" s="1" t="s">
+      <c r="B482" t="s">
         <v>884</v>
       </c>
-      <c r="B453" s="1" t="s">
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454" s="1" t="s">
+      <c r="B483" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
         <v>886</v>
       </c>
-      <c r="B454" s="1" t="s">
+      <c r="B484" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455" s="1" t="s">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
         <v>888</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="B485" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456" s="1" t="s">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
         <v>890</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="B486" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457" s="1" t="s">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
         <v>892</v>
       </c>
-      <c r="B457" s="1" t="s">
+      <c r="B487" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458" s="1" t="s">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
         <v>894</v>
       </c>
-      <c r="B458" s="1" t="s">
+      <c r="B488" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459" s="1" t="s">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
         <v>896</v>
       </c>
-      <c r="B459" s="1" t="s">
+      <c r="B489" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460" s="1" t="s">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
         <v>898</v>
       </c>
-      <c r="B460" s="1" t="s">
+      <c r="B490" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461" s="1" t="s">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
         <v>900</v>
       </c>
-      <c r="B461" s="1" t="s">
+      <c r="B491" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462" s="1" t="s">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
         <v>902</v>
       </c>
-      <c r="B462" s="1" t="s">
+      <c r="B492" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463" s="1" t="s">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
         <v>904</v>
       </c>
-      <c r="B463" s="1" t="s">
+      <c r="B493" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464" s="1" t="s">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
         <v>906</v>
       </c>
-      <c r="B464" s="1" t="s">
+      <c r="B494" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465" s="1" t="s">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
         <v>908</v>
       </c>
-      <c r="B465" s="1" t="s">
+      <c r="B495" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" s="1" t="s">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
         <v>910</v>
       </c>
-      <c r="B466" s="1" t="s">
+      <c r="B496" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467" s="1" t="s">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
         <v>912</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="B497" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" s="1" t="s">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
         <v>914</v>
       </c>
-      <c r="B468" s="1" t="s">
+      <c r="B498" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469" s="1" t="s">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
         <v>916</v>
       </c>
-      <c r="B469" s="1" t="s">
+      <c r="B499" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470" s="1" t="s">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
         <v>918</v>
       </c>
-      <c r="B470" s="1" t="s">
+      <c r="B500" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471" s="1" t="s">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
         <v>920</v>
       </c>
-      <c r="B471" s="1" t="s">
+      <c r="B501" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472" s="1" t="s">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
         <v>922</v>
       </c>
-      <c r="B472" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473" s="1" t="s">
+      <c r="B502" t="s">
         <v>923</v>
       </c>
-      <c r="B473" s="1" t="s">
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" s="1" t="s">
+      <c r="B503" t="s">
         <v>925</v>
       </c>
-      <c r="B474" s="1" t="s">
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475" s="1" t="s">
+      <c r="B504" t="s">
         <v>927</v>
       </c>
-      <c r="B475" s="1" t="s">
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476" s="1" t="s">
+      <c r="B505" t="s">
         <v>929</v>
       </c>
-      <c r="B476" s="1" t="s">
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477" s="1" t="s">
+      <c r="B506" t="s">
         <v>931</v>
       </c>
-      <c r="B477" s="1" t="s">
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478" s="1" t="s">
+      <c r="B507" t="s">
         <v>933</v>
       </c>
-      <c r="B478" s="1" t="s">
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479" s="1" t="s">
+      <c r="B508" t="s">
         <v>935</v>
       </c>
-      <c r="B479" s="1" t="s">
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480" s="1" t="s">
+      <c r="B509" t="s">
         <v>937</v>
       </c>
-      <c r="B480" s="1" t="s">
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481" s="1" t="s">
+      <c r="B510" t="s">
         <v>939</v>
       </c>
-      <c r="B481" s="1" t="s">
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482" s="1" t="s">
+      <c r="B511" t="s">
         <v>941</v>
       </c>
-      <c r="B482" s="1" t="s">
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483" s="1" t="s">
+      <c r="B512" t="s">
         <v>943</v>
       </c>
-      <c r="B483" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484" s="1" t="s">
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
         <v>944</v>
       </c>
-      <c r="B484" s="1" t="s">
+      <c r="B513" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485" s="1" t="s">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
         <v>946</v>
       </c>
-      <c r="B485" s="1" t="s">
+      <c r="B514" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486" s="1" t="s">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
         <v>948</v>
       </c>
-      <c r="B486" s="1" t="s">
+      <c r="B515" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487" s="1" t="s">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
         <v>950</v>
       </c>
-      <c r="B487" s="1" t="s">
+      <c r="B516" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488" s="1" t="s">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
         <v>952</v>
       </c>
-      <c r="B488" s="1" t="s">
+      <c r="B517" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489" s="1" t="s">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
         <v>954</v>
       </c>
-      <c r="B489" s="1" t="s">
+      <c r="B518" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490" s="1" t="s">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
         <v>956</v>
       </c>
-      <c r="B490" s="1" t="s">
+      <c r="B519" t="s">
         <v>957</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="B492" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A493" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="B494" s="1" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A498" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A499" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A500" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A501" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A502" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A503" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A504" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A507" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A508" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A509" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="B509" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A510" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A511" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A512" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A513" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A514" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A515" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A516" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A517" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A518" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A519" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -7730,7 +7785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FDB152-8AF0-42E0-8166-641F4D37E2A4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/국가 태그 리스트.xlsx
+++ b/국가 태그 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Paradox Interactive\Hearts of Iron IV\mod\Megrez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A571A5-964F-416E-B499-E3090DB0CA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380A8ECC-D784-4101-9839-928E7AF9F797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5BB7CF9C-8FCF-4629-9068-6E760912229D}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="1034">
   <si>
     <t>ABD</t>
   </si>
@@ -234,513 +234,261 @@
     <t>CAF</t>
   </si>
   <si>
-    <t>Central Afrika</t>
-  </si>
-  <si>
     <t>CAL</t>
   </si>
   <si>
-    <t>Caribbean Legion</t>
-  </si>
-  <si>
     <t>CAM</t>
   </si>
   <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
     <t>CAN</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
     <t>CAO</t>
   </si>
   <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
     <t>CAU</t>
   </si>
   <si>
-    <t>Caucasia</t>
-  </si>
-  <si>
     <t>CBR</t>
   </si>
   <si>
-    <t>Communist Burma</t>
-  </si>
-  <si>
     <t>CDL</t>
   </si>
   <si>
-    <t>CarnarvonDefenseLeague</t>
-  </si>
-  <si>
     <t>CFS</t>
   </si>
   <si>
-    <t>CongoFreeState</t>
-  </si>
-  <si>
     <t>CHD</t>
   </si>
   <si>
-    <t>Saraland</t>
-  </si>
-  <si>
     <t>CHF</t>
   </si>
   <si>
-    <t>Saraland Rebels</t>
-  </si>
-  <si>
     <t>CHI</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
     <t>CHL</t>
   </si>
   <si>
-    <t>Chile</t>
-  </si>
-  <si>
     <t>CHN</t>
   </si>
   <si>
-    <t>Chin</t>
-  </si>
-  <si>
     <t>CHT</t>
   </si>
   <si>
-    <t>Chita</t>
-  </si>
-  <si>
     <t>CLC</t>
   </si>
   <si>
-    <t>Colombian Conservatives</t>
-  </si>
-  <si>
     <t>CLD</t>
   </si>
   <si>
-    <t>Second Patriotic Army</t>
-  </si>
-  <si>
     <t>CLL</t>
   </si>
   <si>
-    <t>Colombian Liberals</t>
-  </si>
-  <si>
     <t>CME</t>
   </si>
   <si>
-    <t>COMECON</t>
-  </si>
-  <si>
     <t>CMR</t>
   </si>
   <si>
-    <t>Comoros</t>
-  </si>
-  <si>
     <t>CNT</t>
   </si>
   <si>
-    <t>Revolutionary Catalonia</t>
-  </si>
-  <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo</t>
-  </si>
-  <si>
     <t>COL</t>
   </si>
   <si>
-    <t>Colombia</t>
-  </si>
-  <si>
     <t>COR</t>
   </si>
   <si>
-    <t>Correntia</t>
-  </si>
-  <si>
     <t>COS</t>
   </si>
   <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
     <t>CPP</t>
   </si>
   <si>
     <t>CPR</t>
   </si>
   <si>
-    <t>CongoPopularRepublic</t>
-  </si>
-  <si>
     <t>CRI</t>
   </si>
   <si>
-    <t>Crimea</t>
-  </si>
-  <si>
     <t>CRN</t>
   </si>
   <si>
-    <t>Cornwall</t>
-  </si>
-  <si>
     <t>CRO</t>
   </si>
   <si>
-    <t>Croatia</t>
-  </si>
-  <si>
     <t>CTL</t>
   </si>
   <si>
-    <t>Catalonia</t>
-  </si>
-  <si>
     <t>CUB</t>
   </si>
   <si>
-    <t>Cuba</t>
-  </si>
-  <si>
     <t>CUR</t>
   </si>
   <si>
-    <t>Curacao</t>
-  </si>
-  <si>
     <t>CYL</t>
   </si>
   <si>
-    <t>Ceylon</t>
-  </si>
-  <si>
     <t>CZE</t>
   </si>
   <si>
-    <t>Czechoslovakia</t>
-  </si>
-  <si>
     <t>DAG</t>
   </si>
   <si>
-    <t>Dagestan</t>
-  </si>
-  <si>
     <t>DEN</t>
   </si>
   <si>
-    <t>Denmark</t>
-  </si>
-  <si>
     <t>DER</t>
   </si>
   <si>
-    <t>Derzhavinsk</t>
-  </si>
-  <si>
     <t>DFK</t>
   </si>
   <si>
-    <t>Deutsches Freikorps</t>
-  </si>
-  <si>
     <t>DJI</t>
   </si>
   <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
     <t>DMI</t>
   </si>
   <si>
-    <t>Dominica</t>
-  </si>
-  <si>
     <t>DMP</t>
   </si>
   <si>
-    <t>Dewan Militer PRIM</t>
-  </si>
-  <si>
     <t>DMS</t>
   </si>
   <si>
-    <t>Dewan Militer Siliwangi</t>
-  </si>
-  <si>
     <t>DOM</t>
   </si>
   <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
     <t>DRL</t>
   </si>
   <si>
-    <t>Dirlewanger Brigade</t>
-  </si>
-  <si>
     <t>DSG</t>
   </si>
   <si>
-    <t>Donitz</t>
-  </si>
-  <si>
     <t>DSH</t>
   </si>
   <si>
-    <t>Das Schwarzer Haufen</t>
-  </si>
-  <si>
     <t>DST</t>
   </si>
   <si>
-    <t>Drechslers Ostland</t>
-  </si>
-  <si>
     <t>ECU</t>
   </si>
   <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
     <t>EGB</t>
   </si>
   <si>
-    <t>Baathist Egypt</t>
-  </si>
-  <si>
     <t>EGQ</t>
   </si>
   <si>
-    <t>Qutb Egypt</t>
-  </si>
-  <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
-  </si>
-  <si>
     <t>ELS</t>
   </si>
   <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
     <t>ENG</t>
   </si>
   <si>
-    <t>England</t>
-  </si>
-  <si>
     <t>EQG</t>
   </si>
   <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
     <t>ERT</t>
   </si>
   <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
     <t>ESM</t>
   </si>
   <si>
-    <t>East Somalia</t>
-  </si>
-  <si>
     <t>EST</t>
   </si>
   <si>
-    <t>Estonia</t>
-  </si>
-  <si>
     <t>ETB</t>
   </si>
   <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
     <t>ETH</t>
   </si>
   <si>
     <t>ETR</t>
   </si>
   <si>
-    <t>East Turkestan</t>
-  </si>
-  <si>
     <t>EWE</t>
   </si>
   <si>
-    <t>Ghana</t>
-  </si>
-  <si>
     <t>FAV</t>
   </si>
   <si>
-    <t>Free Aviators</t>
-  </si>
-  <si>
     <t>FEN</t>
   </si>
   <si>
-    <t>Free England</t>
-  </si>
-  <si>
     <t>FFR</t>
   </si>
   <si>
-    <t>Free France</t>
-  </si>
-  <si>
     <t>FGB</t>
   </si>
   <si>
-    <t>Firipin Gunseibu</t>
-  </si>
-  <si>
     <t>FGR</t>
   </si>
   <si>
-    <t>Germany Aligned France</t>
-  </si>
-  <si>
     <t>FHH</t>
   </si>
   <si>
-    <t>Deutsches Reich</t>
-  </si>
-  <si>
     <t>FIN</t>
   </si>
   <si>
-    <t>Finland</t>
-  </si>
-  <si>
     <t>FIT</t>
   </si>
   <si>
-    <t>Italy aligned france</t>
-  </si>
-  <si>
     <t>FLR</t>
   </si>
   <si>
-    <t>Flanders</t>
-  </si>
-  <si>
     <t>FMF</t>
   </si>
   <si>
-    <t>Freedom Military Force</t>
-  </si>
-  <si>
     <t>FML</t>
   </si>
   <si>
-    <t>Iberian Admiralty</t>
-  </si>
-  <si>
     <t>FMM</t>
   </si>
   <si>
-    <t>French Milice</t>
-  </si>
-  <si>
     <t>FPG</t>
   </si>
   <si>
-    <t>Freikorp PGD.1</t>
-  </si>
-  <si>
     <t>FRD</t>
   </si>
   <si>
-    <t>French Resistance</t>
-  </si>
-  <si>
     <t>FRI</t>
   </si>
   <si>
-    <t>Free Indonesia</t>
-  </si>
-  <si>
     <t>FRM</t>
   </si>
   <si>
-    <t>French Militias</t>
-  </si>
-  <si>
     <t>FRS</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>FRV</t>
   </si>
   <si>
-    <t>French Revolutionaires</t>
-  </si>
-  <si>
     <t>FSP</t>
   </si>
   <si>
-    <t>Freistaat Preuseen</t>
-  </si>
-  <si>
     <t>FSR</t>
   </si>
   <si>
-    <t>National Redemption Front</t>
-  </si>
-  <si>
     <t>FTF</t>
   </si>
   <si>
-    <t>Fuuta Fulbe</t>
-  </si>
-  <si>
     <t>FUK</t>
   </si>
   <si>
-    <t>Free Ukraine</t>
-  </si>
-  <si>
     <t>FZL</t>
   </si>
   <si>
-    <t>Frente Azul</t>
-  </si>
-  <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Orungu</t>
-  </si>
-  <si>
     <t>GAL</t>
   </si>
   <si>
@@ -3158,10 +2906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인도네시아 군 제 1 지역 사령부 / 부킷 바리산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>바베이도스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3215,6 +2959,354 @@
   </si>
   <si>
     <t>브라자빌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙아프리카 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카리브 군단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캄푸치아 왕국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메룬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카우카지엔 국가판무관부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버마 인민공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카나번 방위 동맹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩고 자유국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라란드 전선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중화민국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누에바그라나다 (콜롬비아 보수당)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제2애국군 (콜롬비아)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜롬비아 혁명연합 (콜롬비아 자유당)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코메콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코모로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카탈루냐 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩고 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜롬비아 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스타리카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코렌티아 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협의회인민당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩고 인민공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크림 정부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브리티시 인젤른 군정청 (콘월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크로아티아 왕국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혁명 카탈루냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀴라소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제19군구 (체코슬로바키아)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 1 군구 사령부 / 부킷 바리산 (인도네시아)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아바리아(다게스탄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덴마크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스타나이 이슬람 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독일 자유군단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지부티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도미니카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인도네시아 공화국 자유정부 군사위원회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실왕기 군사위원회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도미니카 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디를레방어 여단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독일비상정부 (되니츠)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑색군단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레틀란트 총괄판무관부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에콰도르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이집트 혁명평의회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슬림 형제단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이집트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘살바도르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잉글랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적도 기니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에리트레아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동소말리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스토니아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에티오피아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동튀르키스탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유 비행단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저항군의 잉글랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유 프랑스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필리핀 군정부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독일국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀란드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스국 (친독파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스국 (친이탈리아파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플란데런 국민국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이베리아 해군정부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베아제아커 자유군단 PGD.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스 레지스탕스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인도네시 공화국 자유정부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육군 비밀조직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스 밀리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스 인민공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로이센 자유국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구국전선 (카스티야-레온)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸타 풀베</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우크라이나 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청색전선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오룽구 국민국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3261,15 +3353,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3291,21 +3389,23 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{6C93434E-DB2D-4677-89A8-4D09BCC0FCEF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="3">
-    <queryTableFields count="2">
+  <queryTableRefresh nextId="4" unboundColumnsRight="1">
+    <queryTableFields count="3">
       <queryTableField id="1" name="Column1.1" tableColumnId="1"/>
       <queryTableField id="2" name="Column1.2" tableColumnId="2"/>
+      <queryTableField id="3" dataBound="0" tableColumnId="3"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88EACFA0-4CCF-4E77-8FA8-DD3C4EBB111E}" name="asd" displayName="asd" ref="A1:B519" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B519" xr:uid="{88EACFA0-4CCF-4E77-8FA8-DD3C4EBB111E}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{92A16AB3-A802-4E8F-A40D-85409951C4EF}" uniqueName="1" name="국가태그" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{F5989B7D-5E1C-41A7-8237-E942747AAB4E}" uniqueName="2" name="국가명" queryTableFieldId="2" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88EACFA0-4CCF-4E77-8FA8-DD3C4EBB111E}" name="asd" displayName="asd" ref="A1:C519" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C519" xr:uid="{88EACFA0-4CCF-4E77-8FA8-DD3C4EBB111E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{92A16AB3-A802-4E8F-A40D-85409951C4EF}" uniqueName="1" name="국가태그" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F5989B7D-5E1C-41A7-8237-E942747AAB4E}" uniqueName="2" name="국가명" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{BF5EF6D5-061B-406A-8F3A-19D9179F521D}" uniqueName="3" name="설명" queryTableFieldId="3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3608,4169 +3708,4691 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368E7840-401F-403C-8D0A-776BF9C3D7E0}">
-  <dimension ref="A1:B519"/>
+  <dimension ref="A1:C519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="B459" sqref="B459"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>958</v>
+        <v>874</v>
       </c>
       <c r="B1" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>875</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>885</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>888</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>886</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>877</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>887</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>878</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>879</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>880</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>881</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>882</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>891</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>892</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>977</v>
+        <v>893</v>
       </c>
       <c r="B16" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>894</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>979</v>
+        <v>895</v>
       </c>
       <c r="B17" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>896</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>981</v>
+        <v>897</v>
       </c>
       <c r="B18" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>983</v>
+        <v>899</v>
       </c>
       <c r="B19" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>901</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>902</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>903</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>904</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>905</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>909</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>914</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>915</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>916</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>917</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>918</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>919</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>982</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>921</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>922</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>923</v>
+      </c>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>924</v>
+      </c>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>925</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>926</v>
+      </c>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>927</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>928</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>929</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>930</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>931</v>
+      </c>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>932</v>
+      </c>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>933</v>
+      </c>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>934</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+        <v>935</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>936</v>
+      </c>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>937</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>938</v>
+      </c>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>939</v>
+      </c>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>940</v>
+      </c>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+        <v>941</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+        <v>942</v>
+      </c>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+        <v>943</v>
+      </c>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>944</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>945</v>
+      </c>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>946</v>
+      </c>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>61</v>
       </c>
       <c r="B67" t="s">
+        <v>947</v>
+      </c>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>948</v>
+      </c>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>63</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
+        <v>949</v>
+      </c>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="B70" t="s">
+        <v>950</v>
+      </c>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>65</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
+        <v>951</v>
+      </c>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B72" t="s">
+        <v>952</v>
+      </c>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>67</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B73" t="s">
+        <v>953</v>
+      </c>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B74" t="s">
+        <v>954</v>
+      </c>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B75" t="s">
+        <v>955</v>
+      </c>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B76" t="s">
+        <v>956</v>
+      </c>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B77" t="s">
+        <v>957</v>
+      </c>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B78" t="s">
+        <v>958</v>
+      </c>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>73</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B79" t="s">
+        <v>959</v>
+      </c>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B80" t="s">
+        <v>960</v>
+      </c>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>75</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B81" t="s">
+        <v>961</v>
+      </c>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="B82" t="s">
+        <v>962</v>
+      </c>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>77</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B83" t="s">
+        <v>963</v>
+      </c>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="B84" t="s">
+        <v>964</v>
+      </c>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>79</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B85" t="s">
+        <v>965</v>
+      </c>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="B86" t="s">
+        <v>966</v>
+      </c>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>81</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B87" t="s">
+        <v>977</v>
+      </c>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="B88" t="s">
+        <v>968</v>
+      </c>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>83</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B89" t="s">
+        <v>969</v>
+      </c>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="B90" t="s">
+        <v>971</v>
+      </c>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>85</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B91" t="s">
+        <v>970</v>
+      </c>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="B92" t="s">
+        <v>972</v>
+      </c>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>87</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B93" t="s">
+        <v>973</v>
+      </c>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="B94" t="s">
+        <v>974</v>
+      </c>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>89</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B95" t="s">
+        <v>975</v>
+      </c>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="B96" t="s">
+        <v>976</v>
+      </c>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>91</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B97" t="s">
+        <v>967</v>
+      </c>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="B98" t="s">
+        <v>978</v>
+      </c>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>93</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B99" t="s">
+        <v>979</v>
+      </c>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="B100" t="s">
+        <v>980</v>
+      </c>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>95</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B101" t="s">
+        <v>981</v>
+      </c>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B102" t="s">
+        <v>983</v>
+      </c>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>97</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B103" t="s">
+        <v>984</v>
+      </c>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="B104" t="s">
+        <v>985</v>
+      </c>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>99</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B105" t="s">
+        <v>986</v>
+      </c>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="B106" t="s">
+        <v>987</v>
+      </c>
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>101</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B107" t="s">
+        <v>988</v>
+      </c>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="B108" t="s">
+        <v>989</v>
+      </c>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>103</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B109" t="s">
+        <v>990</v>
+      </c>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B110" t="s">
+        <v>991</v>
+      </c>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>105</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B111" t="s">
+        <v>992</v>
+      </c>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B112" t="s">
+        <v>993</v>
+      </c>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>107</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B113" t="s">
+        <v>994</v>
+      </c>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="B114" t="s">
+        <v>995</v>
+      </c>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>109</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B115" t="s">
+        <v>996</v>
+      </c>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B116" t="s">
+        <v>997</v>
+      </c>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>111</v>
       </c>
-      <c r="B92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="B117" t="s">
+        <v>998</v>
+      </c>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>112</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B118" t="s">
+        <v>999</v>
+      </c>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="B119" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>114</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B120" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="B121" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>116</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B122" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="B123" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>118</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B124" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="B125" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>120</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B126" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="B127" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>122</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B128" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="B129" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>124</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B130" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="B131" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>126</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B132" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="B133" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>128</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B134" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="B135" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>130</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B136" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="B137" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>132</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B138" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="B139" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>134</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B140" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="B141" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>136</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B142" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="B143" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>138</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B144" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="B145" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>140</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B146" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="B147" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>142</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B148" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="B149" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>144</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B150" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="B151" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>146</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B152" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="B153" t="s">
         <v>148</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="B154" t="s">
         <v>150</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="B155" t="s">
         <v>152</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="B156" t="s">
         <v>154</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="B157" t="s">
         <v>156</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="B158" t="s">
         <v>158</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="B159" t="s">
         <v>160</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="B160" t="s">
         <v>162</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="B161" t="s">
         <v>164</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="B162" t="s">
         <v>166</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="B163" t="s">
         <v>168</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="B164" t="s">
         <v>170</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="B165" t="s">
         <v>172</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="B166" t="s">
         <v>174</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B167" t="s">
         <v>176</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="B168" t="s">
         <v>178</v>
       </c>
-      <c r="B126" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>179</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B169" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>181</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B170" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>183</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B171" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>185</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B172" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>187</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B173" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>189</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B174" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>191</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B175" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>193</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B176" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>195</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B177" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>197</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B178" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>199</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B179" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>201</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B180" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>203</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B181" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>205</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B182" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>207</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B183" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>209</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B184" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>211</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B185" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>213</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B186" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>215</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B187" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>217</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B188" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>219</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B189" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>221</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B190" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>223</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B191" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>225</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B192" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>227</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B193" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>229</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B194" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>231</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B195" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>233</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B196" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>235</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B197" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>237</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B198" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>239</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B199" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>241</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B200" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>243</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B201" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>245</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B202" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>247</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B203" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>249</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B204" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>251</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B205" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>253</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B206" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>255</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B207" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>257</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B208" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>259</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B209" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>261</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B210" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>263</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B211" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>265</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B212" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>267</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B213" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>269</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B214" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>271</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B215" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>273</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B216" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>275</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B217" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+      <c r="C217" s="1"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>277</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B218" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>279</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B219" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>281</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B220" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>283</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B221" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>285</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B222" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>287</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B223" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+      <c r="C223" s="1"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>289</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B224" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+      <c r="C224" s="1"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>291</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B225" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>293</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B226" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+      <c r="C226" s="1"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>295</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B227" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+      <c r="C227" s="1"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>297</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B228" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>299</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B229" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+      <c r="C229" s="1"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>301</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B230" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>303</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B231" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>305</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B232" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>307</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B233" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+      <c r="C233" s="1"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>309</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B234" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+      <c r="C234" s="1"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>311</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B235" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+      <c r="C235" s="1"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>313</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B236" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+      <c r="C236" s="1"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>315</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B237" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+      <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>317</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B238" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+      <c r="C238" s="1"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>319</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B239" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+      <c r="C239" s="1"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>321</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B240" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+      <c r="C240" s="1"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>323</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B241" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+      <c r="C241" s="1"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>325</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B242" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+      <c r="C242" s="1"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>327</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B243" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+      <c r="C243" s="1"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>329</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B244" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+      <c r="C244" s="1"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>331</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B245" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+      <c r="C245" s="1"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>333</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B246" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+      <c r="C246" s="1"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>335</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B247" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+      <c r="C247" s="1"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>337</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B248" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+      <c r="C248" s="1"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>339</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B249" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+      <c r="C249" s="1"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>341</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B250" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+      <c r="C250" s="1"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>343</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B251" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+      <c r="C251" s="1"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>345</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B252" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+      <c r="C252" s="1"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>347</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B253" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+      <c r="C253" s="1"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>349</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B254" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+      <c r="C254" s="1"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>351</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B255" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="C255" s="1"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>353</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B256" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+      <c r="C256" s="1"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>355</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B257" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+      <c r="C257" s="1"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>357</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B258" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+      <c r="C258" s="1"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>359</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B259" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+      <c r="C259" s="1"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>361</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B260" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+      <c r="C260" s="1"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>363</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B261" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+      <c r="C261" s="1"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
         <v>365</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B262" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+      <c r="C262" s="1"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>367</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B263" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+      <c r="C263" s="1"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>369</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B264" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+      <c r="C264" s="1"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>371</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B265" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+      <c r="C265" s="1"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>373</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B266" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+      <c r="C266" s="1"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>375</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B267" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+      <c r="C267" s="1"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>377</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B268" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+      <c r="C268" s="1"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>379</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B269" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+      <c r="C269" s="1"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>381</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B270" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+      <c r="C270" s="1"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>383</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B271" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+      <c r="C271" s="1"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
         <v>385</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B272" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+      <c r="C272" s="1"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>387</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B273" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+      <c r="C273" s="1"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>389</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B274" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+      <c r="C274" s="1"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
         <v>391</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B275" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+      <c r="C275" s="1"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>393</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B276" t="s">
+        <v>368</v>
+      </c>
+      <c r="C276" s="1"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+      <c r="B277" t="s">
         <v>395</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C277" s="1"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+      <c r="B278" t="s">
         <v>397</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C278" s="1"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+      <c r="B279" t="s">
         <v>399</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C279" s="1"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+      <c r="B280" t="s">
+        <v>889</v>
+      </c>
+      <c r="C280" s="1"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>401</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B281" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+      <c r="C281" s="1"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
         <v>403</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B282" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+      <c r="C282" s="1"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
         <v>405</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B283" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+      <c r="C283" s="1"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
         <v>407</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B284" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+      <c r="C284" s="1"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
         <v>409</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B285" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+      <c r="C285" s="1"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
         <v>411</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B286" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+      <c r="C286" s="1"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
         <v>413</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B287" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+      <c r="C287" s="1"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>415</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B288" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+      <c r="C288" s="1"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
         <v>417</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B289" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+      <c r="C289" s="1"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
         <v>419</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B290" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+      <c r="C290" s="1"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
         <v>421</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B291" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+      <c r="C291" s="1"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
         <v>423</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B292" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+      <c r="C292" s="1"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>425</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B293" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+      <c r="C293" s="1"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
         <v>427</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B294" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+      <c r="C294" s="1"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
         <v>429</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B295" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+      <c r="C295" s="1"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
         <v>431</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B296" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+      <c r="C296" s="1"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
         <v>433</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B297" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+      <c r="C297" s="1"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
         <v>435</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B298" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+      <c r="C298" s="1"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
         <v>437</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B299" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+      <c r="C299" s="1"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
         <v>439</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B300" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+      <c r="C300" s="1"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
         <v>441</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B301" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+      <c r="C301" s="1"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
         <v>443</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B302" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+      <c r="C302" s="1"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
         <v>445</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B303" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+      <c r="C303" s="1"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
         <v>447</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B304" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+      <c r="C304" s="1"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
         <v>449</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B305" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+      <c r="C305" s="1"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
         <v>451</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B306" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+      <c r="C306" s="1"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
         <v>453</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B307" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+      <c r="C307" s="1"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
         <v>455</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B308" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+      <c r="C308" s="1"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
         <v>457</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B309" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+      <c r="C309" s="1"/>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
         <v>459</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B310" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+      <c r="C310" s="1"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
         <v>461</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B311" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+      <c r="C311" s="1"/>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
         <v>463</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B312" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+      <c r="C312" s="1"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>465</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B313" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+      <c r="C313" s="1"/>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
         <v>467</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B314" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+      <c r="C314" s="1"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>469</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B315" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+      <c r="C315" s="1"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
         <v>471</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B316" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+      <c r="C316" s="1"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
         <v>473</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B317" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
+      <c r="C317" s="1"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
         <v>475</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B318" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+      <c r="C318" s="1"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
         <v>477</v>
       </c>
-      <c r="B276" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+      <c r="B319" t="s">
         <v>478</v>
       </c>
-      <c r="B277" t="s">
+      <c r="C319" s="1"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+      <c r="B320" t="s">
         <v>480</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C320" s="1"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
+      <c r="B321" t="s">
         <v>482</v>
       </c>
-      <c r="B279" t="s">
+      <c r="C321" s="1"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+      <c r="B322" t="s">
         <v>484</v>
       </c>
-      <c r="B280" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
+      <c r="C322" s="1"/>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
         <v>485</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B323" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+      <c r="C323" s="1"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
         <v>487</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B324" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+      <c r="C324" s="1"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
         <v>489</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B325" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+      <c r="C325" s="1"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
         <v>491</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B326" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+      <c r="C326" s="1"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
         <v>493</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B327" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+      <c r="C327" s="1"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
         <v>495</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B328" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+      <c r="C328" s="1"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
         <v>497</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B329" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+      <c r="C329" s="1"/>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
         <v>499</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B330" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+      <c r="C330" s="1"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
         <v>501</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B331" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+      <c r="C331" s="1"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
         <v>503</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B332" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+      <c r="C332" s="1"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
         <v>505</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B333" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+      <c r="C333" s="1"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
         <v>507</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B334" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+      <c r="C334" s="1"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
         <v>509</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B335" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+      <c r="C335" s="1"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
         <v>511</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B336" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+      <c r="C336" s="1"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
         <v>513</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B337" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+      <c r="C337" s="1"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
         <v>515</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B338" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
+      <c r="C338" s="1"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
         <v>517</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B339" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+      <c r="C339" s="1"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
         <v>519</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B340" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+      <c r="C340" s="1"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
         <v>521</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B341" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+      <c r="C341" s="1"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
         <v>523</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B342" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+      <c r="C342" s="1"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
         <v>525</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B343" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
+      <c r="C343" s="1"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
         <v>527</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B344" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
+      <c r="C344" s="1"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
         <v>529</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B345" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+      <c r="C345" s="1"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
         <v>531</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B346" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+      <c r="C346" s="1"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
         <v>533</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B347" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+      <c r="C347" s="1"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
         <v>535</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B348" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+      <c r="C348" s="1"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
         <v>537</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B349" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+      <c r="C349" s="1"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
         <v>539</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B350" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+      <c r="C350" s="1"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
         <v>541</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B351" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+      <c r="C351" s="1"/>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
         <v>543</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B352" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+      <c r="C352" s="1"/>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
         <v>545</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B353" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+      <c r="C353" s="1"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
         <v>547</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B354" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+      <c r="C354" s="1"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
         <v>549</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B355" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+      <c r="C355" s="1"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
         <v>551</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B356" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+      <c r="C356" s="1"/>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
         <v>553</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B357" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+      <c r="C357" s="1"/>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
         <v>555</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B358" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+      <c r="C358" s="1"/>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>557</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B359" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+      <c r="C359" s="1"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
         <v>559</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B360" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
+      <c r="C360" s="1"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
         <v>561</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B361" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
+      <c r="C361" s="1"/>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
         <v>563</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B362" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
+      <c r="C362" s="1"/>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
         <v>565</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B363" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+      <c r="C363" s="1"/>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
         <v>567</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B364" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+      <c r="C364" s="1"/>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>883</v>
+      </c>
+      <c r="B365" t="s">
+        <v>884</v>
+      </c>
+      <c r="C365" s="1"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
         <v>569</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B366" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+      <c r="C366" s="1"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
         <v>571</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B367" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+      <c r="C367" s="1"/>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
         <v>573</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B368" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+      <c r="C368" s="1"/>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
         <v>575</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B369" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+      <c r="C369" s="1"/>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
         <v>577</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B370" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+      <c r="C370" s="1"/>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
         <v>579</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B371" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
+      <c r="C371" s="1"/>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
         <v>581</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B372" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
+      <c r="C372" s="1"/>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
         <v>583</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B373" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
+      <c r="C373" s="1"/>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
         <v>585</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B374" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
+      <c r="C374" s="1"/>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
         <v>587</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B375" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
+      <c r="C375" s="1"/>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
         <v>589</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B376" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
+      <c r="C376" s="1"/>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
         <v>591</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B377" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+      <c r="C377" s="1"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
         <v>593</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B378" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
+      <c r="C378" s="1"/>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
         <v>595</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B379" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+      <c r="C379" s="1"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
         <v>597</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B380" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
+      <c r="C380" s="1"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
         <v>599</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B381" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
+      <c r="C381" s="1"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
         <v>601</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B382" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
+      <c r="C382" s="1"/>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
         <v>603</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B383" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
+      <c r="C383" s="1"/>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
         <v>605</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B384" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
+      <c r="C384" s="1"/>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
         <v>607</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B385" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
+      <c r="C385" s="1"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
         <v>609</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B386" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+      <c r="C386" s="1"/>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
         <v>611</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B387" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
+      <c r="C387" s="1"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
         <v>613</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B388" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
+      <c r="C388" s="1"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
         <v>615</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B389" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
+      <c r="C389" s="1"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
         <v>617</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B390" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
+      <c r="C390" s="1"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
         <v>619</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B391" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
+      <c r="C391" s="1"/>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
         <v>621</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B392" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
+      <c r="C392" s="1"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
         <v>623</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B393" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
+      <c r="C393" s="1"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
         <v>625</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B394" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
+      <c r="C394" s="1"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
         <v>627</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B395" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
+      <c r="C395" s="1"/>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
         <v>629</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B396" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
+      <c r="C396" s="1"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
         <v>631</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B397" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
+      <c r="C397" s="1"/>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
         <v>633</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B398" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
+      <c r="C398" s="1"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
         <v>635</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B399" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
+      <c r="C399" s="1"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
         <v>637</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B400" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
+      <c r="C400" s="1"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
         <v>639</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B401" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
+      <c r="C401" s="1"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
         <v>641</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B402" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
+      <c r="C402" s="1"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
         <v>643</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B403" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
+      <c r="C403" s="1"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
         <v>645</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B404" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
+      <c r="C404" s="1"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
         <v>647</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B405" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
+      <c r="C405" s="1"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
         <v>649</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B406" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
+      <c r="C406" s="1"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
         <v>651</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B407" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
-        <v>967</v>
-      </c>
-      <c r="B365" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
+      <c r="C407" s="1"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
         <v>653</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B408" t="s">
+        <v>650</v>
+      </c>
+      <c r="C408" s="1"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
+      <c r="B409" t="s">
         <v>655</v>
       </c>
-      <c r="B367" t="s">
+      <c r="C409" s="1"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
+      <c r="B410" t="s">
         <v>657</v>
       </c>
-      <c r="B368" t="s">
+      <c r="C410" s="1"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
+      <c r="B411" t="s">
         <v>659</v>
       </c>
-      <c r="B369" t="s">
+      <c r="C411" s="1"/>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
+      <c r="B412" t="s">
         <v>661</v>
       </c>
-      <c r="B370" t="s">
+      <c r="C412" s="1"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
+      <c r="B413" t="s">
         <v>663</v>
       </c>
-      <c r="B371" t="s">
+      <c r="C413" s="1"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
+      <c r="B414" t="s">
         <v>665</v>
       </c>
-      <c r="B372" t="s">
+      <c r="C414" s="1"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
+      <c r="B415" t="s">
         <v>667</v>
       </c>
-      <c r="B373" t="s">
+      <c r="C415" s="1"/>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
+      <c r="B416" t="s">
         <v>669</v>
       </c>
-      <c r="B374" t="s">
+      <c r="C416" s="1"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
+      <c r="B417" t="s">
         <v>671</v>
       </c>
-      <c r="B375" t="s">
+      <c r="C417" s="1"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
+      <c r="B418" t="s">
         <v>673</v>
       </c>
-      <c r="B376" t="s">
+      <c r="C418" s="1"/>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
+      <c r="B419" t="s">
         <v>675</v>
       </c>
-      <c r="B377" t="s">
+      <c r="C419" s="1"/>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
+      <c r="B420" t="s">
         <v>677</v>
       </c>
-      <c r="B378" t="s">
+      <c r="C420" s="1"/>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
+      <c r="B421" t="s">
         <v>679</v>
       </c>
-      <c r="B379" t="s">
+      <c r="C421" s="1"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
+      <c r="B422" t="s">
         <v>681</v>
       </c>
-      <c r="B380" t="s">
+      <c r="C422" s="1"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
+      <c r="B423" t="s">
         <v>683</v>
       </c>
-      <c r="B381" t="s">
+      <c r="C423" s="1"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
+      <c r="B424" t="s">
         <v>685</v>
       </c>
-      <c r="B382" t="s">
+      <c r="C424" s="1"/>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
+      <c r="B425" t="s">
         <v>687</v>
       </c>
-      <c r="B383" t="s">
+      <c r="C425" s="1"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
+      <c r="B426" t="s">
         <v>689</v>
       </c>
-      <c r="B384" t="s">
+      <c r="C426" s="1"/>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
+      <c r="B427" t="s">
         <v>691</v>
       </c>
-      <c r="B385" t="s">
+      <c r="C427" s="1"/>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
+      <c r="B428" t="s">
         <v>693</v>
       </c>
-      <c r="B386" t="s">
+      <c r="C428" s="1"/>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
+      <c r="B429" t="s">
         <v>695</v>
       </c>
-      <c r="B387" t="s">
+      <c r="C429" s="1"/>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
+      <c r="B430" t="s">
         <v>697</v>
       </c>
-      <c r="B388" t="s">
+      <c r="C430" s="1"/>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
+      <c r="B431" t="s">
         <v>699</v>
       </c>
-      <c r="B389" t="s">
+      <c r="C431" s="1"/>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
+      <c r="B432" t="s">
         <v>701</v>
       </c>
-      <c r="B390" t="s">
+      <c r="C432" s="1"/>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
+      <c r="B433" t="s">
         <v>703</v>
       </c>
-      <c r="B391" t="s">
+      <c r="C433" s="1"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
+      <c r="B434" t="s">
         <v>705</v>
       </c>
-      <c r="B392" t="s">
+      <c r="C434" s="1"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
+      <c r="B435" t="s">
         <v>707</v>
       </c>
-      <c r="B393" t="s">
+      <c r="C435" s="1"/>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
+      <c r="B436" t="s">
         <v>709</v>
       </c>
-      <c r="B394" t="s">
+      <c r="C436" s="1"/>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
+      <c r="B437" t="s">
         <v>711</v>
       </c>
-      <c r="B395" t="s">
+      <c r="C437" s="1"/>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
+      <c r="B438" t="s">
         <v>713</v>
       </c>
-      <c r="B396" t="s">
+      <c r="C438" s="1"/>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
+      <c r="B439" t="s">
         <v>715</v>
       </c>
-      <c r="B397" t="s">
+      <c r="C439" s="1"/>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
+      <c r="B440" t="s">
         <v>717</v>
       </c>
-      <c r="B398" t="s">
+      <c r="C440" s="1"/>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
+      <c r="B441" t="s">
         <v>719</v>
       </c>
-      <c r="B399" t="s">
+      <c r="C441" s="1"/>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
+      <c r="B442" t="s">
         <v>721</v>
       </c>
-      <c r="B400" t="s">
+      <c r="C442" s="1"/>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
+      <c r="B443" t="s">
         <v>723</v>
       </c>
-      <c r="B401" t="s">
+      <c r="C443" s="1"/>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
+      <c r="B444" t="s">
         <v>725</v>
       </c>
-      <c r="B402" t="s">
+      <c r="C444" s="1"/>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
+      <c r="B445" t="s">
         <v>727</v>
       </c>
-      <c r="B403" t="s">
+      <c r="C445" s="1"/>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" t="s">
+      <c r="B446" t="s">
         <v>729</v>
       </c>
-      <c r="B404" t="s">
+      <c r="C446" s="1"/>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
+      <c r="B447" t="s">
         <v>731</v>
       </c>
-      <c r="B405" t="s">
+      <c r="C447" s="1"/>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
+      <c r="B448" t="s">
         <v>733</v>
       </c>
-      <c r="B406" t="s">
+      <c r="C448" s="1"/>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" t="s">
+      <c r="B449" t="s">
         <v>735</v>
       </c>
-      <c r="B407" t="s">
+      <c r="C449" s="1"/>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" t="s">
+      <c r="B450" t="s">
         <v>737</v>
       </c>
-      <c r="B408" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
+      <c r="C450" s="1"/>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
         <v>738</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B451" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" t="s">
+      <c r="C451" s="1"/>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
         <v>740</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B452" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
+      <c r="C452" s="1"/>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
         <v>742</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B453" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" t="s">
+      <c r="C453" s="1"/>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
         <v>744</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B454" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
+      <c r="C454" s="1"/>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
         <v>746</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B455" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
+      <c r="C455" s="1"/>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
         <v>748</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B456" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
+      <c r="C456" s="1"/>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
         <v>750</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B457" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" t="s">
+      <c r="C457" s="1"/>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
         <v>752</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B458" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
+      <c r="C458" s="1"/>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
         <v>754</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B459" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" t="s">
+      <c r="C459" s="1"/>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
         <v>756</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B460" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" t="s">
+      <c r="C460" s="1"/>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
         <v>758</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B461" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
+      <c r="C461" s="1"/>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
         <v>760</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B462" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
+      <c r="C462" s="1"/>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
         <v>762</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B463" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
+      <c r="C463" s="1"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
         <v>764</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B464" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
+      <c r="C464" s="1"/>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
         <v>766</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B465" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
+      <c r="C465" s="1"/>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
         <v>768</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B466" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
+      <c r="C466" s="1"/>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
         <v>770</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B467" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" t="s">
+      <c r="C467" s="1"/>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
         <v>772</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B468" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" t="s">
+      <c r="C468" s="1"/>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
         <v>774</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B469" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" t="s">
+      <c r="C469" s="1"/>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
         <v>776</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B470" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" t="s">
+      <c r="C470" s="1"/>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
         <v>778</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B471" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" t="s">
+      <c r="C471" s="1"/>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
         <v>780</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B472" t="s">
+        <v>780</v>
+      </c>
+      <c r="C472" s="1"/>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" t="s">
+      <c r="B473" t="s">
         <v>782</v>
       </c>
-      <c r="B431" t="s">
+      <c r="C473" s="1"/>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" t="s">
+      <c r="B474" t="s">
         <v>784</v>
       </c>
-      <c r="B432" t="s">
+      <c r="C474" s="1"/>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" t="s">
+      <c r="B475" t="s">
         <v>786</v>
       </c>
-      <c r="B433" t="s">
+      <c r="C475" s="1"/>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" t="s">
+      <c r="B476" t="s">
         <v>788</v>
       </c>
-      <c r="B434" t="s">
+      <c r="C476" s="1"/>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" t="s">
+      <c r="B477" t="s">
         <v>790</v>
       </c>
-      <c r="B435" t="s">
+      <c r="C477" s="1"/>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" t="s">
+      <c r="B478" t="s">
         <v>792</v>
       </c>
-      <c r="B436" t="s">
+      <c r="C478" s="1"/>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" t="s">
+      <c r="B479" t="s">
         <v>794</v>
       </c>
-      <c r="B437" t="s">
+      <c r="C479" s="1"/>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" t="s">
+      <c r="B480" t="s">
         <v>796</v>
       </c>
-      <c r="B438" t="s">
+      <c r="C480" s="1"/>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439" t="s">
+      <c r="B481" t="s">
         <v>798</v>
       </c>
-      <c r="B439" t="s">
+      <c r="C481" s="1"/>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440" t="s">
+      <c r="B482" t="s">
         <v>800</v>
       </c>
-      <c r="B440" t="s">
+      <c r="C482" s="1"/>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" t="s">
+      <c r="B483" t="s">
+        <v>801</v>
+      </c>
+      <c r="C483" s="1"/>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
         <v>802</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B484" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
+      <c r="C484" s="1"/>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
         <v>804</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B485" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" t="s">
+      <c r="C485" s="1"/>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
         <v>806</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B486" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" t="s">
+      <c r="C486" s="1"/>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
         <v>808</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B487" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" t="s">
+      <c r="C487" s="1"/>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
         <v>810</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B488" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" t="s">
+      <c r="C488" s="1"/>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
         <v>812</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B489" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
+      <c r="C489" s="1"/>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
         <v>814</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B490" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
+      <c r="C490" s="1"/>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
         <v>816</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B491" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
+      <c r="C491" s="1"/>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
         <v>818</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B492" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450" t="s">
+      <c r="C492" s="1"/>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
         <v>820</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B493" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" t="s">
+      <c r="C493" s="1"/>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
         <v>822</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B494" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" t="s">
+      <c r="C494" s="1"/>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
         <v>824</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B495" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453" t="s">
+      <c r="C495" s="1"/>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
         <v>826</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B496" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454" t="s">
+      <c r="C496" s="1"/>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
         <v>828</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B497" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455" t="s">
+      <c r="C497" s="1"/>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
         <v>830</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B498" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456" t="s">
+      <c r="C498" s="1"/>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
         <v>832</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B499" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457" t="s">
+      <c r="C499" s="1"/>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
         <v>834</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B500" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458" t="s">
+      <c r="C500" s="1"/>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
         <v>836</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B501" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459" t="s">
+      <c r="C501" s="1"/>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
         <v>838</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B502" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460" t="s">
+      <c r="C502" s="1"/>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
         <v>840</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B503" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461" t="s">
+      <c r="C503" s="1"/>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
         <v>842</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B504" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462" t="s">
+      <c r="C504" s="1"/>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
         <v>844</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B505" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463" t="s">
+      <c r="C505" s="1"/>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
         <v>846</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B506" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464" t="s">
+      <c r="C506" s="1"/>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
         <v>848</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B507" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465" t="s">
+      <c r="C507" s="1"/>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
         <v>850</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B508" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" t="s">
+      <c r="C508" s="1"/>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
         <v>852</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B509" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467" t="s">
+      <c r="C509" s="1"/>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
         <v>854</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B510" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" t="s">
+      <c r="C510" s="1"/>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
         <v>856</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B511" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469" t="s">
+      <c r="C511" s="1"/>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
         <v>858</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B512" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470" t="s">
+      <c r="C512" s="1"/>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
         <v>860</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B513" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471" t="s">
+      <c r="C513" s="1"/>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
         <v>862</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B514" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472" t="s">
+      <c r="C514" s="1"/>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
         <v>864</v>
       </c>
-      <c r="B472" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473" t="s">
+      <c r="B515" t="s">
         <v>865</v>
       </c>
-      <c r="B473" t="s">
+      <c r="C515" s="1"/>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" t="s">
+      <c r="B516" t="s">
         <v>867</v>
       </c>
-      <c r="B474" t="s">
+      <c r="C516" s="1"/>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475" t="s">
+      <c r="B517" t="s">
         <v>869</v>
       </c>
-      <c r="B475" t="s">
+      <c r="C517" s="1"/>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476" t="s">
+      <c r="B518" t="s">
         <v>871</v>
       </c>
-      <c r="B476" t="s">
+      <c r="C518" s="1"/>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
+      <c r="B519" t="s">
         <v>873</v>
       </c>
-      <c r="B477" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
-        <v>875</v>
-      </c>
-      <c r="B478" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479" t="s">
-        <v>877</v>
-      </c>
-      <c r="B479" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480" t="s">
-        <v>879</v>
-      </c>
-      <c r="B480" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
-        <v>881</v>
-      </c>
-      <c r="B481" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482" t="s">
-        <v>883</v>
-      </c>
-      <c r="B482" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483" t="s">
-        <v>885</v>
-      </c>
-      <c r="B483" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484" t="s">
-        <v>886</v>
-      </c>
-      <c r="B484" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
-        <v>888</v>
-      </c>
-      <c r="B485" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486" t="s">
-        <v>890</v>
-      </c>
-      <c r="B486" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
-        <v>892</v>
-      </c>
-      <c r="B487" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488" t="s">
-        <v>894</v>
-      </c>
-      <c r="B488" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
-        <v>896</v>
-      </c>
-      <c r="B489" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
-        <v>898</v>
-      </c>
-      <c r="B490" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
-        <v>900</v>
-      </c>
-      <c r="B491" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492" t="s">
-        <v>902</v>
-      </c>
-      <c r="B492" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A493" t="s">
-        <v>904</v>
-      </c>
-      <c r="B493" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494" t="s">
-        <v>906</v>
-      </c>
-      <c r="B494" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495" t="s">
-        <v>908</v>
-      </c>
-      <c r="B495" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496" t="s">
-        <v>910</v>
-      </c>
-      <c r="B496" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497" t="s">
-        <v>912</v>
-      </c>
-      <c r="B497" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A498" t="s">
-        <v>914</v>
-      </c>
-      <c r="B498" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
-        <v>916</v>
-      </c>
-      <c r="B499" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A500" t="s">
-        <v>918</v>
-      </c>
-      <c r="B500" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A501" t="s">
-        <v>920</v>
-      </c>
-      <c r="B501" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A502" t="s">
-        <v>922</v>
-      </c>
-      <c r="B502" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A503" t="s">
-        <v>924</v>
-      </c>
-      <c r="B503" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A504" t="s">
-        <v>926</v>
-      </c>
-      <c r="B504" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
-        <v>928</v>
-      </c>
-      <c r="B505" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506" t="s">
-        <v>930</v>
-      </c>
-      <c r="B506" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A507" t="s">
-        <v>932</v>
-      </c>
-      <c r="B507" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A508" t="s">
-        <v>934</v>
-      </c>
-      <c r="B508" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A509" t="s">
-        <v>936</v>
-      </c>
-      <c r="B509" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A510" t="s">
-        <v>938</v>
-      </c>
-      <c r="B510" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A511" t="s">
-        <v>940</v>
-      </c>
-      <c r="B511" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A512" t="s">
-        <v>942</v>
-      </c>
-      <c r="B512" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A513" t="s">
-        <v>944</v>
-      </c>
-      <c r="B513" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A514" t="s">
-        <v>946</v>
-      </c>
-      <c r="B514" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A515" t="s">
-        <v>948</v>
-      </c>
-      <c r="B515" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A516" t="s">
-        <v>950</v>
-      </c>
-      <c r="B516" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A517" t="s">
-        <v>952</v>
-      </c>
-      <c r="B517" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A518" t="s">
-        <v>954</v>
-      </c>
-      <c r="B518" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A519" t="s">
-        <v>956</v>
-      </c>
-      <c r="B519" t="s">
-        <v>957</v>
-      </c>
+      <c r="C519" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/국가 태그 리스트.xlsx
+++ b/국가 태그 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Paradox Interactive\Hearts of Iron IV\mod\Megrez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380A8ECC-D784-4101-9839-928E7AF9F797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01721252-6DC1-435A-A489-2D9B0B1027C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5BB7CF9C-8FCF-4629-9068-6E760912229D}"/>
   </bookViews>
@@ -492,945 +492,477 @@
     <t>GAL</t>
   </si>
   <si>
-    <t>Galicia</t>
-  </si>
-  <si>
     <t>GAN</t>
   </si>
   <si>
-    <t>Gansu</t>
-  </si>
-  <si>
     <t>GAX</t>
   </si>
   <si>
-    <t>Galapagos</t>
-  </si>
-  <si>
     <t>GAY</t>
   </si>
   <si>
-    <t>Gayny</t>
-  </si>
-  <si>
     <t>GAZ</t>
   </si>
   <si>
-    <t>Gazaland</t>
-  </si>
-  <si>
     <t>GBE</t>
   </si>
   <si>
-    <t>Gbeland</t>
-  </si>
-  <si>
     <t>GEO</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>GER</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>GGN</t>
   </si>
   <si>
-    <t>General Gouvernment</t>
-  </si>
-  <si>
     <t>GGR</t>
   </si>
   <si>
-    <t>Gorings Germany</t>
-  </si>
-  <si>
     <t>GIB</t>
   </si>
   <si>
-    <t>Gibraltar Protectorate</t>
-  </si>
-  <si>
     <t>GLC</t>
   </si>
   <si>
-    <t>Paktkommission Frankreich</t>
-  </si>
-  <si>
     <t>GMS</t>
   </si>
   <si>
-    <t>German Serbia</t>
-  </si>
-  <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea Bissau</t>
-  </si>
-  <si>
     <t>GND</t>
   </si>
   <si>
-    <t>Grenada</t>
-  </si>
-  <si>
     <t>GNG</t>
   </si>
   <si>
-    <t>Guangdong</t>
-  </si>
-  <si>
     <t>GNS</t>
   </si>
   <si>
-    <t>National Salvation Government</t>
-  </si>
-  <si>
     <t>GOR</t>
   </si>
   <si>
-    <t>Gorky</t>
-  </si>
-  <si>
     <t>GOT</t>
   </si>
   <si>
-    <t>Gotenland</t>
-  </si>
-  <si>
     <t>GRE</t>
   </si>
   <si>
-    <t>Greece</t>
-  </si>
-  <si>
     <t>GRN</t>
   </si>
   <si>
-    <t>Greenland</t>
-  </si>
-  <si>
     <t>GRO</t>
   </si>
   <si>
-    <t>Ostafrika</t>
-  </si>
-  <si>
     <t>GTL</t>
   </si>
   <si>
-    <t>Gotland</t>
-  </si>
-  <si>
     <t>GUA</t>
   </si>
   <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
     <t>GUC</t>
   </si>
   <si>
-    <t>Guiana-Cayenne</t>
-  </si>
-  <si>
     <t>GUD</t>
   </si>
   <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
     <t>GUL</t>
   </si>
   <si>
-    <t>Gulf Governate</t>
-  </si>
-  <si>
     <t>GUX</t>
   </si>
   <si>
-    <t>Guangxi</t>
-  </si>
-  <si>
     <t>GUY</t>
   </si>
   <si>
-    <t>Guyana</t>
-  </si>
-  <si>
     <t>GUZ</t>
   </si>
   <si>
-    <t>Guizhou</t>
-  </si>
-  <si>
     <t>GZO</t>
   </si>
   <si>
-    <t>Gazaland Opposition</t>
-  </si>
-  <si>
     <t>GZS</t>
   </si>
   <si>
-    <t>Gazaland Simango</t>
-  </si>
-  <si>
     <t>HAI</t>
   </si>
   <si>
-    <t>Haiti</t>
-  </si>
-  <si>
     <t>HAU</t>
   </si>
   <si>
-    <t>Sokoto</t>
-  </si>
-  <si>
     <t>HEE</t>
   </si>
   <si>
-    <t>Heerema</t>
-  </si>
-  <si>
     <t>HGR</t>
   </si>
   <si>
-    <t>Heydrichs Germany</t>
-  </si>
-  <si>
     <t>HIS</t>
   </si>
   <si>
-    <t>Hispaniola</t>
-  </si>
-  <si>
     <t>HOL</t>
   </si>
   <si>
-    <t>Holland</t>
-  </si>
-  <si>
     <t>HON</t>
   </si>
   <si>
-    <t>Honduras</t>
-  </si>
-  <si>
     <t>HRR</t>
   </si>
   <si>
-    <t>Hereroland</t>
-  </si>
-  <si>
     <t>HUN</t>
   </si>
   <si>
-    <t>Hungary</t>
-  </si>
-  <si>
     <t>HUU</t>
   </si>
   <si>
-    <t>Huunan</t>
-  </si>
-  <si>
     <t>IBR</t>
   </si>
   <si>
-    <t>Iberia</t>
-  </si>
-  <si>
     <t>ICE</t>
   </si>
   <si>
-    <t>Iceland</t>
-  </si>
-  <si>
     <t>IEA</t>
   </si>
   <si>
-    <t>Italian East Africa</t>
-  </si>
-  <si>
     <t>ILG</t>
   </si>
   <si>
-    <t>Italian Algeria</t>
-  </si>
-  <si>
     <t>IME</t>
   </si>
   <si>
-    <t>Italian Middle East</t>
-  </si>
-  <si>
     <t>IND</t>
   </si>
   <si>
-    <t>Republic of India</t>
-  </si>
-  <si>
     <t>INS</t>
   </si>
   <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
     <t>IRA</t>
   </si>
   <si>
-    <t>Iranian Azeri</t>
-  </si>
-  <si>
     <t>IRB</t>
   </si>
   <si>
-    <t>Iranian Baluchi</t>
-  </si>
-  <si>
     <t>IRC</t>
   </si>
   <si>
-    <t>Kingdom of Iran</t>
-  </si>
-  <si>
     <t>IRE</t>
   </si>
   <si>
-    <t>Republic of Ireland</t>
-  </si>
-  <si>
     <t>IRI</t>
   </si>
   <si>
-    <t>Islamic Republic of Iran</t>
-  </si>
-  <si>
     <t>IRK</t>
   </si>
   <si>
-    <t>Irkutsk</t>
-  </si>
-  <si>
     <t>IRL</t>
   </si>
   <si>
-    <t>Democratic Republic of Iran</t>
-  </si>
-  <si>
     <t>IRP</t>
   </si>
   <si>
-    <t>Iraqi Republic</t>
-  </si>
-  <si>
     <t>IRQ</t>
   </si>
   <si>
-    <t>Iraq</t>
-  </si>
-  <si>
     <t>ISR</t>
   </si>
   <si>
-    <t>Israel</t>
-  </si>
-  <si>
     <t>ISS</t>
   </si>
   <si>
-    <t>Industrial Staat</t>
-  </si>
-  <si>
     <t>ITA</t>
   </si>
   <si>
-    <t>Italy</t>
-  </si>
-  <si>
     <t>IVO</t>
   </si>
   <si>
-    <t>Ivory Coast</t>
-  </si>
-  <si>
     <t>JAM</t>
   </si>
   <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
     <t>JAP</t>
   </si>
   <si>
-    <t>Japan</t>
-  </si>
-  <si>
     <t>JER</t>
   </si>
   <si>
-    <t>Jerusalem</t>
-  </si>
-  <si>
     <t>JHR</t>
   </si>
   <si>
-    <t>Johor</t>
-  </si>
-  <si>
     <t>JJK</t>
   </si>
   <si>
-    <t>Jogjakarta</t>
-  </si>
-  <si>
     <t>JOL</t>
   </si>
   <si>
-    <t>Jola</t>
-  </si>
-  <si>
     <t>JOR</t>
   </si>
   <si>
-    <t>Jordan</t>
-  </si>
-  <si>
     <t>JST</t>
   </si>
   <si>
-    <t>Jeckelns Ostland</t>
-  </si>
-  <si>
     <t>KAC</t>
   </si>
   <si>
-    <t>Kachin</t>
-  </si>
-  <si>
     <t>KAL</t>
   </si>
   <si>
-    <t>Kalachinsk</t>
-  </si>
-  <si>
     <t>KAR</t>
   </si>
   <si>
-    <t>Karen</t>
-  </si>
-  <si>
     <t>KAY</t>
   </si>
   <si>
-    <t>Kayes</t>
-  </si>
-  <si>
     <t>KAZ</t>
   </si>
   <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
     <t>KBA</t>
   </si>
   <si>
-    <t>KapaBokone</t>
-  </si>
-  <si>
     <t>KBY</t>
   </si>
   <si>
-    <t>Kabylia</t>
-  </si>
-  <si>
     <t>KEM</t>
   </si>
   <si>
-    <t>Kemerovo</t>
-  </si>
-  <si>
     <t>KEN</t>
   </si>
   <si>
-    <t>Kenya</t>
-  </si>
-  <si>
     <t>KHP</t>
   </si>
   <si>
-    <t>Kampfgruppe Heilige Pflicht</t>
-  </si>
-  <si>
     <t>KLB</t>
   </si>
   <si>
-    <t>Klaus Barbie Danzig</t>
-  </si>
-  <si>
     <t>KLT</t>
   </si>
   <si>
-    <t>Kalat and Makran</t>
-  </si>
-  <si>
     <t>KMC</t>
   </si>
   <si>
-    <t>Kamchatka</t>
-  </si>
-  <si>
     <t>KNM</t>
   </si>
   <si>
-    <t>Kanem</t>
-  </si>
-  <si>
     <t>KOK</t>
   </si>
   <si>
-    <t>Kokshetau</t>
-  </si>
-  <si>
     <t>KOM</t>
   </si>
   <si>
-    <t>Komi</t>
-  </si>
-  <si>
     <t>KOR</t>
   </si>
   <si>
-    <t>Korea</t>
-  </si>
-  <si>
     <t>KRK</t>
   </si>
   <si>
-    <t>Karakalpakstan</t>
-  </si>
-  <si>
     <t>KRL</t>
   </si>
   <si>
-    <t>Karelian Autonomy</t>
-  </si>
-  <si>
     <t>KRS</t>
   </si>
   <si>
-    <t>Krasnoyarsk</t>
-  </si>
-  <si>
     <t>KSI</t>
   </si>
   <si>
-    <t>Kasai</t>
-  </si>
-  <si>
     <t>KSS</t>
   </si>
   <si>
-    <t>Kommandostaat Waffen SS</t>
-  </si>
-  <si>
     <t>KTG</t>
   </si>
   <si>
-    <t>Katanga</t>
-  </si>
-  <si>
     <t>KUR</t>
   </si>
   <si>
-    <t>Kurdistan</t>
-  </si>
-  <si>
     <t>KUW</t>
   </si>
   <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
     <t>KYK</t>
   </si>
   <si>
-    <t>Kikuyuland</t>
-  </si>
-  <si>
     <t>KYR</t>
   </si>
   <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
     <t>LAO</t>
   </si>
   <si>
-    <t>Laos</t>
-  </si>
-  <si>
     <t>LAT</t>
   </si>
   <si>
-    <t>Latvia</t>
-  </si>
-  <si>
     <t>LBA</t>
   </si>
   <si>
-    <t>Libya</t>
-  </si>
-  <si>
     <t>LEB</t>
   </si>
   <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
     <t>LHH</t>
   </si>
   <si>
-    <t>Leibstandarte Heinrich Himmler</t>
-  </si>
-  <si>
     <t>LIB</t>
   </si>
   <si>
-    <t>Liberia</t>
-  </si>
-  <si>
     <t>LIT</t>
   </si>
   <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
     <t>LTH</t>
   </si>
   <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
     <t>LUF</t>
   </si>
   <si>
-    <t>Luftflotte 1945</t>
-  </si>
-  <si>
     <t>LUO</t>
   </si>
   <si>
-    <t>Luoland</t>
-  </si>
-  <si>
     <t>MAC</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>MAD</t>
   </si>
   <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
     <t>MAG</t>
   </si>
   <si>
-    <t>Magadan</t>
-  </si>
-  <si>
     <t>MAL</t>
   </si>
   <si>
-    <t>Malaya</t>
-  </si>
-  <si>
     <t>MAN</t>
   </si>
   <si>
-    <t>Manchukuo</t>
-  </si>
-  <si>
     <t>MAU</t>
   </si>
   <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
     <t>MCW</t>
   </si>
   <si>
-    <t>Moskowien</t>
-  </si>
-  <si>
     <t>MDG</t>
   </si>
   <si>
-    <t>Madagascar German Garrisons</t>
-  </si>
-  <si>
     <t>MDI</t>
   </si>
   <si>
-    <t>Mendi</t>
-  </si>
-  <si>
     <t>MDM</t>
   </si>
   <si>
-    <t>Madagascar Malagasy Rebels</t>
-  </si>
-  <si>
     <t>MEN</t>
   </si>
   <si>
-    <t>Mengjiang</t>
-  </si>
-  <si>
     <t>MEX</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
     <t>MFP</t>
   </si>
   <si>
-    <t>Frontier Provinces Military Administration</t>
-  </si>
-  <si>
     <t>MGN</t>
   </si>
   <si>
-    <t>Magnitogorsk</t>
-  </si>
-  <si>
     <t>MKS</t>
   </si>
   <si>
-    <t>Makassar</t>
-  </si>
-  <si>
     <t>MLI</t>
   </si>
   <si>
-    <t>Mali</t>
-  </si>
-  <si>
     <t>MLY</t>
   </si>
   <si>
     <t>MNT</t>
   </si>
   <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
     <t>MOC</t>
   </si>
   <si>
-    <t>Monaco</t>
-  </si>
-  <si>
     <t>MOM</t>
   </si>
   <si>
-    <t>Mombasa</t>
-  </si>
-  <si>
     <t>MON</t>
   </si>
   <si>
     <t>MOR</t>
   </si>
   <si>
-    <t>Morocco</t>
-  </si>
-  <si>
     <t>MPR</t>
   </si>
   <si>
-    <t>Murmansk</t>
-  </si>
-  <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Martinique</t>
-  </si>
-  <si>
     <t>MST</t>
   </si>
   <si>
-    <t>Meyer-Landrut Ostland</t>
-  </si>
-  <si>
     <t>MZB</t>
   </si>
   <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
-  </si>
-  <si>
     <t>NCC</t>
   </si>
   <si>
-    <t>North China Political Council</t>
-  </si>
-  <si>
     <t>NEP</t>
   </si>
   <si>
-    <t>Nepal</t>
-  </si>
-  <si>
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
     <t>NGR</t>
   </si>
   <si>
-    <t>Niger</t>
-  </si>
-  <si>
     <t>NIC</t>
   </si>
   <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
     <t>NII</t>
   </si>
   <si>
-    <t>Negara Islam Indonesia</t>
-  </si>
-  <si>
     <t>NNG</t>
   </si>
   <si>
-    <t>Northern Nigeria</t>
-  </si>
-  <si>
     <t>NOR</t>
   </si>
   <si>
-    <t>Norway</t>
-  </si>
-  <si>
     <t>NOV</t>
   </si>
   <si>
-    <t>Novosibirsk</t>
-  </si>
-  <si>
     <t>NPL</t>
   </si>
   <si>
-    <t>Nowa Polska</t>
-  </si>
-  <si>
     <t>NRB</t>
   </si>
   <si>
-    <t>North Borneo</t>
-  </si>
-  <si>
     <t>NRL</t>
   </si>
   <si>
-    <t>Norlisk</t>
-  </si>
-  <si>
     <t>NTA</t>
   </si>
   <si>
-    <t>Notfallverwaltung Tambow</t>
-  </si>
-  <si>
     <t>NTG</t>
   </si>
   <si>
-    <t>Nizhny Tagil</t>
-  </si>
-  <si>
     <t>NTI</t>
   </si>
   <si>
-    <t>Notfallverwaltung Tichwin</t>
-  </si>
-  <si>
     <t>NYM</t>
   </si>
   <si>
-    <t>Northern Yemen</t>
-  </si>
-  <si>
     <t>NZL</t>
   </si>
   <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
     <t>OER</t>
   </si>
   <si>
-    <t>Militarists</t>
-  </si>
-  <si>
     <t>OFN</t>
   </si>
   <si>
-    <t>Organization of Free Nations</t>
-  </si>
-  <si>
     <t>OKB</t>
   </si>
   <si>
-    <t>Moskowien_OKB</t>
-  </si>
-  <si>
     <t>OKL</t>
   </si>
   <si>
-    <t>Oberkommando der Luftwaffe</t>
-  </si>
-  <si>
     <t>OMA</t>
   </si>
   <si>
-    <t>Oman</t>
-  </si>
-  <si>
     <t>OMB</t>
   </si>
   <si>
-    <t>Panarab Oman</t>
-  </si>
-  <si>
     <t>OMI</t>
   </si>
   <si>
-    <t>Imate Oman</t>
-  </si>
-  <si>
     <t>OMO</t>
   </si>
   <si>
@@ -2730,10 +2262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mongolia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아무르</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3226,10 +2754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>독일국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>핀란드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3307,6 +2831,638 @@
   </si>
   <si>
     <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈리시아 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서북방면군 (간쑤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈라파고스 망명정부 (에콰도르)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성 게오르기 기사단 (가이니)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모잠비크 인민공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그벨란드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조지아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대게르만국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독일 제국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총독부 (폴란드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴링의 독일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지브롤터 보호령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈리엔 국가판무관부 (프랑스 국가판무관부)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세르비아 군정청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기니비사우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그레나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광동국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르투갈 구국정부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고리키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고텐란트 관할구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬라스국 (그리스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린란드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오스트아프리카 국가판무관부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고틀란드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과테말라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기아나-카옌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과들루프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이탈리아령 아라비아 총독부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광서성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이아나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀주성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모잠비크 해방전선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모잠비크 (시망고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소코토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우크라이네 국민정부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이드리히의 독일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히스파니올라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네덜란드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온두라스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤레로란드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헝가리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후난 (화중정무위원회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이베리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이슬란드 주둔 미군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이탈리아령 동아프리카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알제리 군사구역 (이탈리아)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레반트 총독부 (이탈리아령 중동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인도공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인도네시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이란 사회주의 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발루치 해방 전선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이란 샤국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아일랜드 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이란 이슬람 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이르쿠츠크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이란 민주 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이라크 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이스라엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슐레지엔 산업연합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이탈리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코트디부아르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자메이카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대일본제국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예루살렘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조호르 술탄국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용야카르타 특별 지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요르단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS상급지구 오스트란트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카친 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시베리아 노동자 연방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카툴레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카자흐스탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카파보코네 아프리카국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카빌리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케메로보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대의를 위한 전투단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS국가지도자 보안국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼라트 칸국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캄차카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카넴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콕셰타우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카라칼팍스탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카렐리아 자치령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크라스노야르스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카사이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무장친위대 최고사령부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카탕가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠르디스탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠웨이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키쿠유란드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키르기스스탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라오스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라트비아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리비아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레바논</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하인리히 힘러 친위경호대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이베리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리투아니아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레소토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항공편대 1945</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루오랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마케도니아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마다가스카르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마가단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말라야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대만주제국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모리타니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모스코비엔 국가판무관부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마다가스카르 군사정부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마다가스카르 (말라가시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽강국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멕시코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마그니로고르스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마카사르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말라야 연방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬테네그로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모나코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸바사 술탄국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽골</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모로코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무르만스크 인민공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마르티니크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통일동방연맹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모잠비크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나미비아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화북정무위원회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네팔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이지리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니제르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니카라과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인도네시아 이름람국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북나이지리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노르웨이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노보시비르스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노바 폴스카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남방군정총감(북보르네오 37군사령부)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노릴스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐보프 비상대책정부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니즈니타길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티흐빈 비상대책정부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예멘 아랍 민주공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴질랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가군사특별법정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유국가기구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장크트페테르스부르크 최고사령부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공군 최고사령부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도파르 반란군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오남 이맘국</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3353,11 +3509,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3710,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368E7840-401F-403C-8D0A-776BF9C3D7E0}">
   <dimension ref="A1:C519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3723,13 +3876,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>874</v>
+        <v>718</v>
       </c>
       <c r="B1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C1" t="s">
         <v>875</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3737,4662 +3890,4144 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>885</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>729</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>876</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>720</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>888</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>732</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>886</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>730</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>877</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>721</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>887</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>731</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>878</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>722</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>879</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>723</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>880</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>724</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>881</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>725</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>882</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>726</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>890</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>733</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>891</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>734</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>892</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>735</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>893</v>
+        <v>736</v>
       </c>
       <c r="B16" t="s">
-        <v>894</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>895</v>
+        <v>738</v>
       </c>
       <c r="B17" t="s">
-        <v>896</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>897</v>
+        <v>740</v>
       </c>
       <c r="B18" t="s">
-        <v>898</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>899</v>
+        <v>742</v>
       </c>
       <c r="B19" t="s">
-        <v>900</v>
-      </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>901</v>
-      </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>902</v>
-      </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>903</v>
-      </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>904</v>
-      </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>905</v>
-      </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>906</v>
-      </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>907</v>
-      </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>908</v>
-      </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>909</v>
-      </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>910</v>
-      </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>911</v>
-      </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>912</v>
-      </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>913</v>
-      </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>914</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>915</v>
-      </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>916</v>
-      </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>917</v>
-      </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>918</v>
-      </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>919</v>
-      </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>920</v>
-      </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>982</v>
-      </c>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>921</v>
-      </c>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>922</v>
-      </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>923</v>
-      </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>924</v>
-      </c>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>925</v>
-      </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>926</v>
-      </c>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>927</v>
-      </c>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>928</v>
-      </c>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>929</v>
-      </c>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>930</v>
-      </c>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>931</v>
-      </c>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>932</v>
-      </c>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>933</v>
-      </c>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>934</v>
-      </c>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>935</v>
-      </c>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>936</v>
-      </c>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>937</v>
-      </c>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>938</v>
-      </c>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>939</v>
-      </c>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>940</v>
-      </c>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>941</v>
-      </c>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>942</v>
-      </c>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>943</v>
-      </c>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>944</v>
-      </c>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>945</v>
-      </c>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>946</v>
-      </c>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>947</v>
-      </c>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>948</v>
-      </c>
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>949</v>
-      </c>
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>950</v>
-      </c>
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>951</v>
-      </c>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>952</v>
-      </c>
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>953</v>
-      </c>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>954</v>
-      </c>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>955</v>
-      </c>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>956</v>
-      </c>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>957</v>
-      </c>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>72</v>
       </c>
       <c r="B78" t="s">
-        <v>958</v>
-      </c>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>73</v>
       </c>
       <c r="B79" t="s">
-        <v>959</v>
-      </c>
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>74</v>
       </c>
       <c r="B80" t="s">
-        <v>960</v>
-      </c>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>75</v>
       </c>
       <c r="B81" t="s">
-        <v>961</v>
-      </c>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>76</v>
       </c>
       <c r="B82" t="s">
-        <v>962</v>
-      </c>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>77</v>
       </c>
       <c r="B83" t="s">
-        <v>963</v>
-      </c>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>78</v>
       </c>
       <c r="B84" t="s">
-        <v>964</v>
-      </c>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>965</v>
-      </c>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>966</v>
-      </c>
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>977</v>
-      </c>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>968</v>
-      </c>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>969</v>
-      </c>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>971</v>
-      </c>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>970</v>
-      </c>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>972</v>
-      </c>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>87</v>
       </c>
       <c r="B93" t="s">
-        <v>973</v>
-      </c>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>88</v>
       </c>
       <c r="B94" t="s">
-        <v>974</v>
-      </c>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>89</v>
       </c>
       <c r="B95" t="s">
-        <v>975</v>
-      </c>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>90</v>
       </c>
       <c r="B96" t="s">
-        <v>976</v>
-      </c>
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>91</v>
       </c>
       <c r="B97" t="s">
-        <v>967</v>
-      </c>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>978</v>
-      </c>
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>979</v>
-      </c>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>94</v>
       </c>
       <c r="B100" t="s">
-        <v>980</v>
-      </c>
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>95</v>
       </c>
       <c r="B101" t="s">
-        <v>981</v>
-      </c>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>96</v>
       </c>
       <c r="B102" t="s">
-        <v>983</v>
-      </c>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>97</v>
       </c>
       <c r="B103" t="s">
-        <v>984</v>
-      </c>
-      <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>98</v>
       </c>
       <c r="B104" t="s">
-        <v>985</v>
-      </c>
-      <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>99</v>
       </c>
       <c r="B105" t="s">
-        <v>986</v>
-      </c>
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>100</v>
       </c>
       <c r="B106" t="s">
-        <v>987</v>
-      </c>
-      <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>101</v>
       </c>
       <c r="B107" t="s">
-        <v>988</v>
-      </c>
-      <c r="C107" s="1"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>102</v>
       </c>
       <c r="B108" t="s">
-        <v>989</v>
-      </c>
-      <c r="C108" s="1"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>103</v>
       </c>
       <c r="B109" t="s">
-        <v>990</v>
-      </c>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>104</v>
       </c>
       <c r="B110" t="s">
-        <v>991</v>
-      </c>
-      <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>105</v>
       </c>
       <c r="B111" t="s">
-        <v>992</v>
-      </c>
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>106</v>
       </c>
       <c r="B112" t="s">
-        <v>993</v>
-      </c>
-      <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>107</v>
       </c>
       <c r="B113" t="s">
-        <v>994</v>
-      </c>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>995</v>
-      </c>
-      <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>996</v>
-      </c>
-      <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>110</v>
       </c>
       <c r="B116" t="s">
-        <v>997</v>
-      </c>
-      <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>111</v>
       </c>
       <c r="B117" t="s">
-        <v>998</v>
-      </c>
-      <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>112</v>
       </c>
       <c r="B118" t="s">
-        <v>999</v>
-      </c>
-      <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>113</v>
       </c>
       <c r="B119" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>114</v>
       </c>
       <c r="B120" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C120" s="1"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>115</v>
       </c>
       <c r="B121" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>116</v>
       </c>
       <c r="B122" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>117</v>
       </c>
       <c r="B123" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C123" s="1"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>118</v>
       </c>
       <c r="B124" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C124" s="1"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>119</v>
       </c>
       <c r="B125" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>120</v>
       </c>
       <c r="B126" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C126" s="1"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>121</v>
       </c>
       <c r="B127" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>122</v>
       </c>
       <c r="B128" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>123</v>
       </c>
       <c r="B129" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>124</v>
       </c>
       <c r="B130" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C130" s="1"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>125</v>
       </c>
       <c r="B131" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>126</v>
       </c>
       <c r="B132" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>127</v>
       </c>
       <c r="B133" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>128</v>
       </c>
       <c r="B134" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>129</v>
       </c>
       <c r="B135" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>130</v>
       </c>
       <c r="B136" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>131</v>
       </c>
       <c r="B137" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>132</v>
       </c>
       <c r="B138" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>133</v>
       </c>
       <c r="B139" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>134</v>
       </c>
       <c r="B140" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>135</v>
       </c>
       <c r="B141" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>136</v>
       </c>
       <c r="B142" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>137</v>
       </c>
       <c r="B143" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>138</v>
       </c>
       <c r="B144" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>139</v>
       </c>
       <c r="B145" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>140</v>
       </c>
       <c r="B146" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>141</v>
       </c>
       <c r="B147" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>142</v>
       </c>
       <c r="B148" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>143</v>
       </c>
       <c r="B149" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>144</v>
       </c>
       <c r="B150" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>145</v>
       </c>
       <c r="B151" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>146</v>
       </c>
       <c r="B152" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C152" s="1"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>147</v>
       </c>
       <c r="B153" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>148</v>
       </c>
-      <c r="C153" s="1"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="B154" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>149</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>150</v>
       </c>
-      <c r="C154" s="1"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="B156" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>151</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B157" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>152</v>
       </c>
-      <c r="C155" s="1"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="B158" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>153</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B159" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>154</v>
       </c>
-      <c r="C156" s="1"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+      <c r="B160" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B161" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>156</v>
       </c>
-      <c r="C157" s="1"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="B162" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>157</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B163" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="1"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="B164" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>159</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B165" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>160</v>
       </c>
-      <c r="C159" s="1"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="B166" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>161</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B167" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>162</v>
       </c>
-      <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="B168" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>163</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B169" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>164</v>
       </c>
-      <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+      <c r="B170" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>165</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B171" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>166</v>
       </c>
-      <c r="C162" s="1"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+      <c r="B172" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>167</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B173" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>168</v>
       </c>
-      <c r="C163" s="1"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+      <c r="B174" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>169</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B175" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>170</v>
       </c>
-      <c r="C164" s="1"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="B176" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>171</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B177" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>172</v>
       </c>
-      <c r="C165" s="1"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="B178" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>173</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B179" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>174</v>
       </c>
-      <c r="C166" s="1"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="B180" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>175</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B181" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>176</v>
       </c>
-      <c r="C167" s="1"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+      <c r="B182" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>177</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B183" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>178</v>
       </c>
-      <c r="C168" s="1"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="B184" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>179</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B185" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>180</v>
       </c>
-      <c r="C169" s="1"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+      <c r="B186" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>181</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B187" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>182</v>
       </c>
-      <c r="C170" s="1"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+      <c r="B188" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>183</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B189" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>184</v>
       </c>
-      <c r="C171" s="1"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+      <c r="B190" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>185</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B191" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>186</v>
       </c>
-      <c r="C172" s="1"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+      <c r="B192" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>187</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B193" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>188</v>
       </c>
-      <c r="C173" s="1"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+      <c r="B194" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>189</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B195" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>190</v>
       </c>
-      <c r="C174" s="1"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+      <c r="B196" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>191</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B197" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>192</v>
       </c>
-      <c r="C175" s="1"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+      <c r="B198" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>193</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B199" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>194</v>
       </c>
-      <c r="C176" s="1"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+      <c r="B200" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>195</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B201" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>196</v>
       </c>
-      <c r="C177" s="1"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+      <c r="B202" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>197</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B203" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>198</v>
       </c>
-      <c r="C178" s="1"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+      <c r="B204" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>199</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B205" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>200</v>
       </c>
-      <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+      <c r="B206" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>201</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B207" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>202</v>
       </c>
-      <c r="C180" s="1"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+      <c r="B208" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>203</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B209" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>204</v>
       </c>
-      <c r="C181" s="1"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+      <c r="B210" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>205</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B211" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>206</v>
       </c>
-      <c r="C182" s="1"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+      <c r="B212" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>207</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B213" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>208</v>
       </c>
-      <c r="C183" s="1"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+      <c r="B214" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>209</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B215" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>210</v>
       </c>
-      <c r="C184" s="1"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+      <c r="B216" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>211</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B217" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>212</v>
       </c>
-      <c r="C185" s="1"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+      <c r="B218" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>213</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B219" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>214</v>
       </c>
-      <c r="C186" s="1"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+      <c r="B220" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>215</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B221" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>216</v>
       </c>
-      <c r="C187" s="1"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+      <c r="B222" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>217</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B223" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>218</v>
       </c>
-      <c r="C188" s="1"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+      <c r="B224" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>219</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B225" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>220</v>
       </c>
-      <c r="C189" s="1"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+      <c r="B226" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>221</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B227" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>222</v>
       </c>
-      <c r="C190" s="1"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+      <c r="B228" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>223</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B229" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>224</v>
       </c>
-      <c r="C191" s="1"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+      <c r="B230" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>225</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B231" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>226</v>
       </c>
-      <c r="C192" s="1"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+      <c r="B232" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>227</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B233" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>228</v>
       </c>
-      <c r="C193" s="1"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+      <c r="B234" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>229</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B235" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>230</v>
       </c>
-      <c r="C194" s="1"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+      <c r="B236" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>231</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B237" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>232</v>
       </c>
-      <c r="C195" s="1"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+      <c r="B238" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>233</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B239" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>234</v>
       </c>
-      <c r="C196" s="1"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+      <c r="B240" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>235</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B241" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>236</v>
       </c>
-      <c r="C197" s="1"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+      <c r="B242" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>237</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B243" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>238</v>
       </c>
-      <c r="C198" s="1"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+      <c r="B244" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>239</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B245" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>240</v>
       </c>
-      <c r="C199" s="1"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+      <c r="B246" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>241</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B247" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>242</v>
       </c>
-      <c r="C200" s="1"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+      <c r="B248" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>243</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B249" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>244</v>
       </c>
-      <c r="C201" s="1"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+      <c r="B250" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>245</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B251" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>246</v>
       </c>
-      <c r="C202" s="1"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+      <c r="B252" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>247</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B253" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>248</v>
       </c>
-      <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+      <c r="B254" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>249</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B255" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>250</v>
       </c>
-      <c r="C204" s="1"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+      <c r="B256" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>251</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B257" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>252</v>
       </c>
-      <c r="C205" s="1"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+      <c r="B258" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>253</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B259" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>254</v>
       </c>
-      <c r="C206" s="1"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+      <c r="B260" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>255</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B261" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
         <v>256</v>
       </c>
-      <c r="C207" s="1"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+      <c r="B262" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>257</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B263" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>258</v>
       </c>
-      <c r="C208" s="1"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+      <c r="B264" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>259</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B265" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>260</v>
       </c>
-      <c r="C209" s="1"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+      <c r="B266" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>261</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B267" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>262</v>
       </c>
-      <c r="C210" s="1"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+      <c r="B268" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>263</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B269" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>264</v>
       </c>
-      <c r="C211" s="1"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+      <c r="B270" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>265</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B271" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
         <v>266</v>
       </c>
-      <c r="C212" s="1"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+      <c r="B272" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>267</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B273" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>268</v>
       </c>
-      <c r="C213" s="1"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="B274" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
         <v>269</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B275" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>270</v>
       </c>
-      <c r="C214" s="1"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+      <c r="B276" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>271</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B277" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
         <v>272</v>
       </c>
-      <c r="C215" s="1"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+      <c r="B278" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>273</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B279" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
         <v>274</v>
       </c>
-      <c r="C216" s="1"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+      <c r="B280" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>275</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B281" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
         <v>276</v>
       </c>
-      <c r="C217" s="1"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+      <c r="B282" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
         <v>277</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B283" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
         <v>278</v>
       </c>
-      <c r="C218" s="1"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+      <c r="B284" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
         <v>279</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B285" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
         <v>280</v>
       </c>
-      <c r="C219" s="1"/>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+      <c r="B286" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
         <v>281</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B287" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>282</v>
       </c>
-      <c r="C220" s="1"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+      <c r="B288" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
         <v>283</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B289" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
         <v>284</v>
       </c>
-      <c r="C221" s="1"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+      <c r="B290" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
         <v>285</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B291" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
         <v>286</v>
       </c>
-      <c r="C222" s="1"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+      <c r="B292" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>287</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B293" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
         <v>288</v>
       </c>
-      <c r="C223" s="1"/>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+      <c r="B294" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
         <v>289</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B295" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
         <v>290</v>
       </c>
-      <c r="C224" s="1"/>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+      <c r="B296" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
         <v>291</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B297" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
         <v>292</v>
       </c>
-      <c r="C225" s="1"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+      <c r="B298" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
         <v>293</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B299" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
         <v>294</v>
       </c>
-      <c r="C226" s="1"/>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+      <c r="B300" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
         <v>295</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B301" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
         <v>296</v>
       </c>
-      <c r="C227" s="1"/>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+      <c r="B302" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
         <v>297</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B303" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
         <v>298</v>
       </c>
-      <c r="C228" s="1"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+      <c r="B304" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
         <v>299</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B305" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
         <v>300</v>
       </c>
-      <c r="C229" s="1"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+      <c r="B306" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
         <v>301</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B307" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
         <v>302</v>
       </c>
-      <c r="C230" s="1"/>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+      <c r="B308" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
         <v>303</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B309" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
         <v>304</v>
       </c>
-      <c r="C231" s="1"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+      <c r="B310" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
         <v>305</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B311" t="s">
         <v>306</v>
       </c>
-      <c r="C232" s="1"/>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
         <v>307</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B312" t="s">
         <v>308</v>
       </c>
-      <c r="C233" s="1"/>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>309</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B313" t="s">
         <v>310</v>
       </c>
-      <c r="C234" s="1"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
         <v>311</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B314" t="s">
         <v>312</v>
       </c>
-      <c r="C235" s="1"/>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>313</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B315" t="s">
         <v>314</v>
       </c>
-      <c r="C236" s="1"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
         <v>315</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B316" t="s">
         <v>316</v>
       </c>
-      <c r="C237" s="1"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
         <v>317</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B317" t="s">
         <v>318</v>
       </c>
-      <c r="C238" s="1"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
         <v>319</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B318" t="s">
         <v>320</v>
       </c>
-      <c r="C239" s="1"/>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
         <v>321</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B319" t="s">
         <v>322</v>
       </c>
-      <c r="C240" s="1"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
         <v>323</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B320" t="s">
         <v>324</v>
       </c>
-      <c r="C241" s="1"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
         <v>325</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B321" t="s">
         <v>326</v>
       </c>
-      <c r="C242" s="1"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
         <v>327</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B322" t="s">
         <v>328</v>
       </c>
-      <c r="C243" s="1"/>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
         <v>329</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B323" t="s">
         <v>330</v>
       </c>
-      <c r="C244" s="1"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
         <v>331</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B324" t="s">
         <v>332</v>
       </c>
-      <c r="C245" s="1"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
         <v>333</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B325" t="s">
         <v>334</v>
       </c>
-      <c r="C246" s="1"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
         <v>335</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B326" t="s">
         <v>336</v>
       </c>
-      <c r="C247" s="1"/>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
         <v>337</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B327" t="s">
         <v>338</v>
       </c>
-      <c r="C248" s="1"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
         <v>339</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B328" t="s">
         <v>340</v>
       </c>
-      <c r="C249" s="1"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
         <v>341</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B329" t="s">
         <v>342</v>
       </c>
-      <c r="C250" s="1"/>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
         <v>343</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B330" t="s">
         <v>344</v>
       </c>
-      <c r="C251" s="1"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
         <v>345</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B331" t="s">
         <v>346</v>
       </c>
-      <c r="C252" s="1"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
         <v>347</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B332" t="s">
         <v>348</v>
       </c>
-      <c r="C253" s="1"/>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
         <v>349</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B333" t="s">
         <v>350</v>
       </c>
-      <c r="C254" s="1"/>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
         <v>351</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B334" t="s">
         <v>352</v>
       </c>
-      <c r="C255" s="1"/>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
         <v>353</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B335" t="s">
         <v>354</v>
       </c>
-      <c r="C256" s="1"/>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
         <v>355</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B336" t="s">
         <v>356</v>
       </c>
-      <c r="C257" s="1"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
         <v>357</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B337" t="s">
         <v>358</v>
       </c>
-      <c r="C258" s="1"/>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
         <v>359</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B338" t="s">
         <v>360</v>
       </c>
-      <c r="C259" s="1"/>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
         <v>361</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B339" t="s">
         <v>362</v>
       </c>
-      <c r="C260" s="1"/>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
         <v>363</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B340" t="s">
         <v>364</v>
       </c>
-      <c r="C261" s="1"/>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
         <v>365</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B341" t="s">
         <v>366</v>
       </c>
-      <c r="C262" s="1"/>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
         <v>367</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B342" t="s">
         <v>368</v>
       </c>
-      <c r="C263" s="1"/>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
         <v>369</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B343" t="s">
         <v>370</v>
       </c>
-      <c r="C264" s="1"/>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
         <v>371</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B344" t="s">
         <v>372</v>
       </c>
-      <c r="C265" s="1"/>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
         <v>373</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B345" t="s">
         <v>374</v>
       </c>
-      <c r="C266" s="1"/>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
         <v>375</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B346" t="s">
         <v>376</v>
       </c>
-      <c r="C267" s="1"/>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
         <v>377</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B347" t="s">
         <v>378</v>
       </c>
-      <c r="C268" s="1"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
         <v>379</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B348" t="s">
         <v>380</v>
       </c>
-      <c r="C269" s="1"/>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
         <v>381</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B349" t="s">
         <v>382</v>
       </c>
-      <c r="C270" s="1"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
         <v>383</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B350" t="s">
         <v>384</v>
       </c>
-      <c r="C271" s="1"/>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
         <v>385</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B351" t="s">
         <v>386</v>
       </c>
-      <c r="C272" s="1"/>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
         <v>387</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B352" t="s">
         <v>388</v>
       </c>
-      <c r="C273" s="1"/>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
         <v>389</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B353" t="s">
         <v>390</v>
       </c>
-      <c r="C274" s="1"/>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
         <v>391</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B354" t="s">
         <v>392</v>
       </c>
-      <c r="C275" s="1"/>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
         <v>393</v>
       </c>
-      <c r="B276" t="s">
-        <v>368</v>
-      </c>
-      <c r="C276" s="1"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+      <c r="B355" t="s">
         <v>394</v>
       </c>
-      <c r="B277" t="s">
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
         <v>395</v>
       </c>
-      <c r="C277" s="1"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+      <c r="B356" t="s">
         <v>396</v>
       </c>
-      <c r="B278" t="s">
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
         <v>397</v>
       </c>
-      <c r="C278" s="1"/>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
+      <c r="B357" t="s">
         <v>398</v>
       </c>
-      <c r="B279" t="s">
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
         <v>399</v>
       </c>
-      <c r="C279" s="1"/>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+      <c r="B358" t="s">
         <v>400</v>
       </c>
-      <c r="B280" t="s">
-        <v>889</v>
-      </c>
-      <c r="C280" s="1"/>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>401</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B359" t="s">
         <v>402</v>
       </c>
-      <c r="C281" s="1"/>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
         <v>403</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B360" t="s">
         <v>404</v>
       </c>
-      <c r="C282" s="1"/>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
         <v>405</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B361" t="s">
         <v>406</v>
       </c>
-      <c r="C283" s="1"/>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
         <v>407</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B362" t="s">
         <v>408</v>
       </c>
-      <c r="C284" s="1"/>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
         <v>409</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B363" t="s">
         <v>410</v>
       </c>
-      <c r="C285" s="1"/>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
         <v>411</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B364" t="s">
         <v>412</v>
       </c>
-      <c r="C286" s="1"/>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>727</v>
+      </c>
+      <c r="B365" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
         <v>413</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B366" t="s">
         <v>414</v>
       </c>
-      <c r="C287" s="1"/>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
         <v>415</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B367" t="s">
         <v>416</v>
       </c>
-      <c r="C288" s="1"/>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
         <v>417</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B368" t="s">
         <v>418</v>
       </c>
-      <c r="C289" s="1"/>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
         <v>419</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B369" t="s">
         <v>420</v>
       </c>
-      <c r="C290" s="1"/>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
         <v>421</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B370" t="s">
         <v>422</v>
       </c>
-      <c r="C291" s="1"/>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
         <v>423</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B371" t="s">
         <v>424</v>
       </c>
-      <c r="C292" s="1"/>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
         <v>425</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B372" t="s">
         <v>426</v>
       </c>
-      <c r="C293" s="1"/>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
         <v>427</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B373" t="s">
         <v>428</v>
       </c>
-      <c r="C294" s="1"/>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
         <v>429</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B374" t="s">
         <v>430</v>
       </c>
-      <c r="C295" s="1"/>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
         <v>431</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B375" t="s">
         <v>432</v>
       </c>
-      <c r="C296" s="1"/>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
         <v>433</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B376" t="s">
         <v>434</v>
       </c>
-      <c r="C297" s="1"/>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
         <v>435</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B377" t="s">
         <v>436</v>
       </c>
-      <c r="C298" s="1"/>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
         <v>437</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B378" t="s">
         <v>438</v>
       </c>
-      <c r="C299" s="1"/>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
         <v>439</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B379" t="s">
         <v>440</v>
       </c>
-      <c r="C300" s="1"/>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
         <v>441</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B380" t="s">
         <v>442</v>
       </c>
-      <c r="C301" s="1"/>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
         <v>443</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B381" t="s">
         <v>444</v>
       </c>
-      <c r="C302" s="1"/>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
         <v>445</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B382" t="s">
         <v>446</v>
       </c>
-      <c r="C303" s="1"/>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
         <v>447</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B383" t="s">
         <v>448</v>
       </c>
-      <c r="C304" s="1"/>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
         <v>449</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B384" t="s">
         <v>450</v>
       </c>
-      <c r="C305" s="1"/>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
         <v>451</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B385" t="s">
         <v>452</v>
       </c>
-      <c r="C306" s="1"/>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
         <v>453</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B386" t="s">
         <v>454</v>
       </c>
-      <c r="C307" s="1"/>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
         <v>455</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B387" t="s">
         <v>456</v>
       </c>
-      <c r="C308" s="1"/>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
         <v>457</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B388" t="s">
         <v>458</v>
       </c>
-      <c r="C309" s="1"/>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
         <v>459</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B389" t="s">
         <v>460</v>
       </c>
-      <c r="C310" s="1"/>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
         <v>461</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B390" t="s">
         <v>462</v>
       </c>
-      <c r="C311" s="1"/>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
         <v>463</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B391" t="s">
         <v>464</v>
       </c>
-      <c r="C312" s="1"/>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
         <v>465</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B392" t="s">
         <v>466</v>
       </c>
-      <c r="C313" s="1"/>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
         <v>467</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B393" t="s">
         <v>468</v>
       </c>
-      <c r="C314" s="1"/>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
         <v>469</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B394" t="s">
         <v>470</v>
       </c>
-      <c r="C315" s="1"/>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
         <v>471</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B395" t="s">
         <v>472</v>
       </c>
-      <c r="C316" s="1"/>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
         <v>473</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B396" t="s">
         <v>474</v>
       </c>
-      <c r="C317" s="1"/>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
         <v>475</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B397" t="s">
         <v>476</v>
       </c>
-      <c r="C318" s="1"/>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
         <v>477</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B398" t="s">
         <v>478</v>
       </c>
-      <c r="C319" s="1"/>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
         <v>479</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B399" t="s">
         <v>480</v>
       </c>
-      <c r="C320" s="1"/>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
         <v>481</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B400" t="s">
         <v>482</v>
       </c>
-      <c r="C321" s="1"/>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
         <v>483</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B401" t="s">
         <v>484</v>
       </c>
-      <c r="C322" s="1"/>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
         <v>485</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B402" t="s">
         <v>486</v>
       </c>
-      <c r="C323" s="1"/>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
         <v>487</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B403" t="s">
         <v>488</v>
       </c>
-      <c r="C324" s="1"/>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
         <v>489</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B404" t="s">
         <v>490</v>
       </c>
-      <c r="C325" s="1"/>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
         <v>491</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B405" t="s">
         <v>492</v>
       </c>
-      <c r="C326" s="1"/>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
         <v>493</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B406" t="s">
         <v>494</v>
       </c>
-      <c r="C327" s="1"/>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
         <v>495</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B407" t="s">
         <v>496</v>
       </c>
-      <c r="C328" s="1"/>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
         <v>497</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B408" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
         <v>498</v>
       </c>
-      <c r="C329" s="1"/>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
+      <c r="B409" t="s">
         <v>499</v>
       </c>
-      <c r="B330" t="s">
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
         <v>500</v>
       </c>
-      <c r="C330" s="1"/>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
+      <c r="B410" t="s">
         <v>501</v>
       </c>
-      <c r="B331" t="s">
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
         <v>502</v>
       </c>
-      <c r="C331" s="1"/>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
+      <c r="B411" t="s">
         <v>503</v>
       </c>
-      <c r="B332" t="s">
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
         <v>504</v>
       </c>
-      <c r="C332" s="1"/>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
+      <c r="B412" t="s">
         <v>505</v>
       </c>
-      <c r="B333" t="s">
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
         <v>506</v>
       </c>
-      <c r="C333" s="1"/>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
+      <c r="B413" t="s">
         <v>507</v>
       </c>
-      <c r="B334" t="s">
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
         <v>508</v>
       </c>
-      <c r="C334" s="1"/>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+      <c r="B414" t="s">
         <v>509</v>
       </c>
-      <c r="B335" t="s">
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
         <v>510</v>
       </c>
-      <c r="C335" s="1"/>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
+      <c r="B415" t="s">
         <v>511</v>
       </c>
-      <c r="B336" t="s">
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
         <v>512</v>
       </c>
-      <c r="C336" s="1"/>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+      <c r="B416" t="s">
         <v>513</v>
       </c>
-      <c r="B337" t="s">
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
         <v>514</v>
       </c>
-      <c r="C337" s="1"/>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
+      <c r="B417" t="s">
         <v>515</v>
       </c>
-      <c r="B338" t="s">
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
         <v>516</v>
       </c>
-      <c r="C338" s="1"/>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
+      <c r="B418" t="s">
         <v>517</v>
       </c>
-      <c r="B339" t="s">
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
         <v>518</v>
       </c>
-      <c r="C339" s="1"/>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
+      <c r="B419" t="s">
         <v>519</v>
       </c>
-      <c r="B340" t="s">
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
         <v>520</v>
       </c>
-      <c r="C340" s="1"/>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
+      <c r="B420" t="s">
         <v>521</v>
       </c>
-      <c r="B341" t="s">
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
         <v>522</v>
       </c>
-      <c r="C341" s="1"/>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
+      <c r="B421" t="s">
         <v>523</v>
       </c>
-      <c r="B342" t="s">
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
         <v>524</v>
       </c>
-      <c r="C342" s="1"/>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
+      <c r="B422" t="s">
         <v>525</v>
       </c>
-      <c r="B343" t="s">
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
         <v>526</v>
       </c>
-      <c r="C343" s="1"/>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+      <c r="B423" t="s">
         <v>527</v>
       </c>
-      <c r="B344" t="s">
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
         <v>528</v>
       </c>
-      <c r="C344" s="1"/>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
+      <c r="B424" t="s">
         <v>529</v>
       </c>
-      <c r="B345" t="s">
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
         <v>530</v>
       </c>
-      <c r="C345" s="1"/>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
+      <c r="B425" t="s">
         <v>531</v>
       </c>
-      <c r="B346" t="s">
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
         <v>532</v>
       </c>
-      <c r="C346" s="1"/>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
+      <c r="B426" t="s">
         <v>533</v>
       </c>
-      <c r="B347" t="s">
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
         <v>534</v>
       </c>
-      <c r="C347" s="1"/>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
+      <c r="B427" t="s">
         <v>535</v>
       </c>
-      <c r="B348" t="s">
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
         <v>536</v>
       </c>
-      <c r="C348" s="1"/>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
+      <c r="B428" t="s">
         <v>537</v>
       </c>
-      <c r="B349" t="s">
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
         <v>538</v>
       </c>
-      <c r="C349" s="1"/>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
+      <c r="B429" t="s">
         <v>539</v>
       </c>
-      <c r="B350" t="s">
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
         <v>540</v>
       </c>
-      <c r="C350" s="1"/>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
+      <c r="B430" t="s">
         <v>541</v>
       </c>
-      <c r="B351" t="s">
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
         <v>542</v>
       </c>
-      <c r="C351" s="1"/>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
+      <c r="B431" t="s">
         <v>543</v>
       </c>
-      <c r="B352" t="s">
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
         <v>544</v>
       </c>
-      <c r="C352" s="1"/>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
+      <c r="B432" t="s">
         <v>545</v>
       </c>
-      <c r="B353" t="s">
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
         <v>546</v>
       </c>
-      <c r="C353" s="1"/>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
+      <c r="B433" t="s">
         <v>547</v>
       </c>
-      <c r="B354" t="s">
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
         <v>548</v>
       </c>
-      <c r="C354" s="1"/>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
+      <c r="B434" t="s">
         <v>549</v>
       </c>
-      <c r="B355" t="s">
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
         <v>550</v>
       </c>
-      <c r="C355" s="1"/>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
+      <c r="B435" t="s">
         <v>551</v>
       </c>
-      <c r="B356" t="s">
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
         <v>552</v>
       </c>
-      <c r="C356" s="1"/>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
+      <c r="B436" t="s">
         <v>553</v>
       </c>
-      <c r="B357" t="s">
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
         <v>554</v>
       </c>
-      <c r="C357" s="1"/>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
+      <c r="B437" t="s">
         <v>555</v>
       </c>
-      <c r="B358" t="s">
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
         <v>556</v>
       </c>
-      <c r="C358" s="1"/>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
+      <c r="B438" t="s">
         <v>557</v>
       </c>
-      <c r="B359" t="s">
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
         <v>558</v>
       </c>
-      <c r="C359" s="1"/>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
+      <c r="B439" t="s">
         <v>559</v>
       </c>
-      <c r="B360" t="s">
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
         <v>560</v>
       </c>
-      <c r="C360" s="1"/>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
+      <c r="B440" t="s">
         <v>561</v>
       </c>
-      <c r="B361" t="s">
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
         <v>562</v>
       </c>
-      <c r="C361" s="1"/>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
+      <c r="B441" t="s">
         <v>563</v>
       </c>
-      <c r="B362" t="s">
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
         <v>564</v>
       </c>
-      <c r="C362" s="1"/>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
+      <c r="B442" t="s">
         <v>565</v>
       </c>
-      <c r="B363" t="s">
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
         <v>566</v>
       </c>
-      <c r="C363" s="1"/>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
+      <c r="B443" t="s">
         <v>567</v>
       </c>
-      <c r="B364" t="s">
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
         <v>568</v>
       </c>
-      <c r="C364" s="1"/>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
-        <v>883</v>
-      </c>
-      <c r="B365" t="s">
-        <v>884</v>
-      </c>
-      <c r="C365" s="1"/>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
+      <c r="B444" t="s">
         <v>569</v>
       </c>
-      <c r="B366" t="s">
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
         <v>570</v>
       </c>
-      <c r="C366" s="1"/>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
+      <c r="B445" t="s">
         <v>571</v>
       </c>
-      <c r="B367" t="s">
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
         <v>572</v>
       </c>
-      <c r="C367" s="1"/>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
+      <c r="B446" t="s">
         <v>573</v>
       </c>
-      <c r="B368" t="s">
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
         <v>574</v>
       </c>
-      <c r="C368" s="1"/>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
+      <c r="B447" t="s">
         <v>575</v>
       </c>
-      <c r="B369" t="s">
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
         <v>576</v>
       </c>
-      <c r="C369" s="1"/>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
+      <c r="B448" t="s">
         <v>577</v>
       </c>
-      <c r="B370" t="s">
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
         <v>578</v>
       </c>
-      <c r="C370" s="1"/>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
+      <c r="B449" t="s">
         <v>579</v>
       </c>
-      <c r="B371" t="s">
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
         <v>580</v>
       </c>
-      <c r="C371" s="1"/>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
+      <c r="B450" t="s">
         <v>581</v>
       </c>
-      <c r="B372" t="s">
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
         <v>582</v>
       </c>
-      <c r="C372" s="1"/>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
+      <c r="B451" t="s">
         <v>583</v>
       </c>
-      <c r="B373" t="s">
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
         <v>584</v>
       </c>
-      <c r="C373" s="1"/>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
+      <c r="B452" t="s">
         <v>585</v>
       </c>
-      <c r="B374" t="s">
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
         <v>586</v>
       </c>
-      <c r="C374" s="1"/>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
+      <c r="B453" t="s">
         <v>587</v>
       </c>
-      <c r="B375" t="s">
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
         <v>588</v>
       </c>
-      <c r="C375" s="1"/>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
+      <c r="B454" t="s">
         <v>589</v>
       </c>
-      <c r="B376" t="s">
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
         <v>590</v>
       </c>
-      <c r="C376" s="1"/>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
+      <c r="B455" t="s">
         <v>591</v>
       </c>
-      <c r="B377" t="s">
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
         <v>592</v>
       </c>
-      <c r="C377" s="1"/>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
+      <c r="B456" t="s">
         <v>593</v>
       </c>
-      <c r="B378" t="s">
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
         <v>594</v>
       </c>
-      <c r="C378" s="1"/>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
+      <c r="B457" t="s">
         <v>595</v>
       </c>
-      <c r="B379" t="s">
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
         <v>596</v>
       </c>
-      <c r="C379" s="1"/>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
+      <c r="B458" t="s">
         <v>597</v>
       </c>
-      <c r="B380" t="s">
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
         <v>598</v>
       </c>
-      <c r="C380" s="1"/>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
+      <c r="B459" t="s">
         <v>599</v>
       </c>
-      <c r="B381" t="s">
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
         <v>600</v>
       </c>
-      <c r="C381" s="1"/>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
+      <c r="B460" t="s">
         <v>601</v>
       </c>
-      <c r="B382" t="s">
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
         <v>602</v>
       </c>
-      <c r="C382" s="1"/>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
+      <c r="B461" t="s">
         <v>603</v>
       </c>
-      <c r="B383" t="s">
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
         <v>604</v>
       </c>
-      <c r="C383" s="1"/>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
+      <c r="B462" t="s">
         <v>605</v>
       </c>
-      <c r="B384" t="s">
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
         <v>606</v>
       </c>
-      <c r="C384" s="1"/>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
+      <c r="B463" t="s">
         <v>607</v>
       </c>
-      <c r="B385" t="s">
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
         <v>608</v>
       </c>
-      <c r="C385" s="1"/>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
+      <c r="B464" t="s">
         <v>609</v>
       </c>
-      <c r="B386" t="s">
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
         <v>610</v>
       </c>
-      <c r="C386" s="1"/>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
+      <c r="B465" t="s">
         <v>611</v>
       </c>
-      <c r="B387" t="s">
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
         <v>612</v>
       </c>
-      <c r="C387" s="1"/>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
+      <c r="B466" t="s">
         <v>613</v>
       </c>
-      <c r="B388" t="s">
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
         <v>614</v>
       </c>
-      <c r="C388" s="1"/>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
+      <c r="B467" t="s">
         <v>615</v>
       </c>
-      <c r="B389" t="s">
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
         <v>616</v>
       </c>
-      <c r="C389" s="1"/>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
+      <c r="B468" t="s">
         <v>617</v>
       </c>
-      <c r="B390" t="s">
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
         <v>618</v>
       </c>
-      <c r="C390" s="1"/>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
+      <c r="B469" t="s">
         <v>619</v>
       </c>
-      <c r="B391" t="s">
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
         <v>620</v>
       </c>
-      <c r="C391" s="1"/>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
+      <c r="B470" t="s">
         <v>621</v>
       </c>
-      <c r="B392" t="s">
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
         <v>622</v>
       </c>
-      <c r="C392" s="1"/>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
+      <c r="B471" t="s">
         <v>623</v>
       </c>
-      <c r="B393" t="s">
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
         <v>624</v>
       </c>
-      <c r="C393" s="1"/>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
+      <c r="B472" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
         <v>625</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B473" t="s">
         <v>626</v>
       </c>
-      <c r="C394" s="1"/>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
         <v>627</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B474" t="s">
         <v>628</v>
       </c>
-      <c r="C395" s="1"/>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
         <v>629</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B475" t="s">
         <v>630</v>
       </c>
-      <c r="C396" s="1"/>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
         <v>631</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B476" t="s">
         <v>632</v>
       </c>
-      <c r="C397" s="1"/>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
         <v>633</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B477" t="s">
         <v>634</v>
       </c>
-      <c r="C398" s="1"/>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
         <v>635</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B478" t="s">
         <v>636</v>
       </c>
-      <c r="C399" s="1"/>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
         <v>637</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B479" t="s">
         <v>638</v>
       </c>
-      <c r="C400" s="1"/>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
         <v>639</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B480" t="s">
         <v>640</v>
       </c>
-      <c r="C401" s="1"/>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
         <v>641</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B481" t="s">
         <v>642</v>
       </c>
-      <c r="C402" s="1"/>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
         <v>643</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B482" t="s">
         <v>644</v>
       </c>
-      <c r="C403" s="1"/>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404" t="s">
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
         <v>645</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B483" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
         <v>646</v>
       </c>
-      <c r="C404" s="1"/>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
+      <c r="B484" t="s">
         <v>647</v>
       </c>
-      <c r="B405" t="s">
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
         <v>648</v>
       </c>
-      <c r="C405" s="1"/>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
+      <c r="B485" t="s">
         <v>649</v>
       </c>
-      <c r="B406" t="s">
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
         <v>650</v>
       </c>
-      <c r="C406" s="1"/>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" t="s">
+      <c r="B486" t="s">
         <v>651</v>
       </c>
-      <c r="B407" t="s">
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
         <v>652</v>
       </c>
-      <c r="C407" s="1"/>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" t="s">
+      <c r="B487" t="s">
         <v>653</v>
       </c>
-      <c r="B408" t="s">
-        <v>650</v>
-      </c>
-      <c r="C408" s="1"/>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
         <v>654</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B488" t="s">
         <v>655</v>
       </c>
-      <c r="C409" s="1"/>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" t="s">
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
         <v>656</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B489" t="s">
         <v>657</v>
       </c>
-      <c r="C410" s="1"/>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
         <v>658</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B490" t="s">
         <v>659</v>
       </c>
-      <c r="C411" s="1"/>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" t="s">
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
         <v>660</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B491" t="s">
         <v>661</v>
       </c>
-      <c r="C412" s="1"/>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
         <v>662</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B492" t="s">
         <v>663</v>
       </c>
-      <c r="C413" s="1"/>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
         <v>664</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B493" t="s">
         <v>665</v>
       </c>
-      <c r="C414" s="1"/>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
         <v>666</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B494" t="s">
         <v>667</v>
       </c>
-      <c r="C415" s="1"/>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" t="s">
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
         <v>668</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B495" t="s">
         <v>669</v>
       </c>
-      <c r="C416" s="1"/>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
         <v>670</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B496" t="s">
         <v>671</v>
       </c>
-      <c r="C417" s="1"/>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" t="s">
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
         <v>672</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B497" t="s">
         <v>673</v>
       </c>
-      <c r="C418" s="1"/>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419" t="s">
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
         <v>674</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B498" t="s">
         <v>675</v>
       </c>
-      <c r="C419" s="1"/>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
         <v>676</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B499" t="s">
         <v>677</v>
       </c>
-      <c r="C420" s="1"/>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
         <v>678</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B500" t="s">
         <v>679</v>
       </c>
-      <c r="C421" s="1"/>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
         <v>680</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B501" t="s">
         <v>681</v>
       </c>
-      <c r="C422" s="1"/>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
         <v>682</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B502" t="s">
         <v>683</v>
       </c>
-      <c r="C423" s="1"/>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
         <v>684</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B503" t="s">
         <v>685</v>
       </c>
-      <c r="C424" s="1"/>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
         <v>686</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B504" t="s">
         <v>687</v>
       </c>
-      <c r="C425" s="1"/>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426" t="s">
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
         <v>688</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B505" t="s">
         <v>689</v>
       </c>
-      <c r="C426" s="1"/>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427" t="s">
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
         <v>690</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B506" t="s">
         <v>691</v>
       </c>
-      <c r="C427" s="1"/>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A428" t="s">
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
         <v>692</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B507" t="s">
         <v>693</v>
       </c>
-      <c r="C428" s="1"/>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" t="s">
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
         <v>694</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B508" t="s">
         <v>695</v>
       </c>
-      <c r="C429" s="1"/>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430" t="s">
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
         <v>696</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B509" t="s">
         <v>697</v>
       </c>
-      <c r="C430" s="1"/>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431" t="s">
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
         <v>698</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B510" t="s">
         <v>699</v>
       </c>
-      <c r="C431" s="1"/>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432" t="s">
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
         <v>700</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B511" t="s">
         <v>701</v>
       </c>
-      <c r="C432" s="1"/>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A433" t="s">
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
         <v>702</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B512" t="s">
         <v>703</v>
       </c>
-      <c r="C433" s="1"/>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A434" t="s">
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
         <v>704</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B513" t="s">
         <v>705</v>
       </c>
-      <c r="C434" s="1"/>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" t="s">
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
         <v>706</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B514" t="s">
         <v>707</v>
       </c>
-      <c r="C435" s="1"/>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436" t="s">
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
         <v>708</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B515" t="s">
         <v>709</v>
       </c>
-      <c r="C436" s="1"/>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A437" t="s">
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
         <v>710</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B516" t="s">
         <v>711</v>
       </c>
-      <c r="C437" s="1"/>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A438" t="s">
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
         <v>712</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B517" t="s">
         <v>713</v>
       </c>
-      <c r="C438" s="1"/>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439" t="s">
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
         <v>714</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B518" t="s">
         <v>715</v>
       </c>
-      <c r="C439" s="1"/>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A440" t="s">
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
         <v>716</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B519" t="s">
         <v>717</v>
       </c>
-      <c r="C440" s="1"/>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A441" t="s">
-        <v>718</v>
-      </c>
-      <c r="B441" t="s">
-        <v>719</v>
-      </c>
-      <c r="C441" s="1"/>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
-        <v>720</v>
-      </c>
-      <c r="B442" t="s">
-        <v>721</v>
-      </c>
-      <c r="C442" s="1"/>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A443" t="s">
-        <v>722</v>
-      </c>
-      <c r="B443" t="s">
-        <v>723</v>
-      </c>
-      <c r="C443" s="1"/>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444" t="s">
-        <v>724</v>
-      </c>
-      <c r="B444" t="s">
-        <v>725</v>
-      </c>
-      <c r="C444" s="1"/>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A445" t="s">
-        <v>726</v>
-      </c>
-      <c r="B445" t="s">
-        <v>727</v>
-      </c>
-      <c r="C445" s="1"/>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" t="s">
-        <v>728</v>
-      </c>
-      <c r="B446" t="s">
-        <v>729</v>
-      </c>
-      <c r="C446" s="1"/>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
-        <v>730</v>
-      </c>
-      <c r="B447" t="s">
-        <v>731</v>
-      </c>
-      <c r="C447" s="1"/>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
-        <v>732</v>
-      </c>
-      <c r="B448" t="s">
-        <v>733</v>
-      </c>
-      <c r="C448" s="1"/>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
-        <v>734</v>
-      </c>
-      <c r="B449" t="s">
-        <v>735</v>
-      </c>
-      <c r="C449" s="1"/>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A450" t="s">
-        <v>736</v>
-      </c>
-      <c r="B450" t="s">
-        <v>737</v>
-      </c>
-      <c r="C450" s="1"/>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A451" t="s">
-        <v>738</v>
-      </c>
-      <c r="B451" t="s">
-        <v>739</v>
-      </c>
-      <c r="C451" s="1"/>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A452" t="s">
-        <v>740</v>
-      </c>
-      <c r="B452" t="s">
-        <v>741</v>
-      </c>
-      <c r="C452" s="1"/>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A453" t="s">
-        <v>742</v>
-      </c>
-      <c r="B453" t="s">
-        <v>743</v>
-      </c>
-      <c r="C453" s="1"/>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" t="s">
-        <v>744</v>
-      </c>
-      <c r="B454" t="s">
-        <v>745</v>
-      </c>
-      <c r="C454" s="1"/>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A455" t="s">
-        <v>746</v>
-      </c>
-      <c r="B455" t="s">
-        <v>747</v>
-      </c>
-      <c r="C455" s="1"/>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A456" t="s">
-        <v>748</v>
-      </c>
-      <c r="B456" t="s">
-        <v>749</v>
-      </c>
-      <c r="C456" s="1"/>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A457" t="s">
-        <v>750</v>
-      </c>
-      <c r="B457" t="s">
-        <v>751</v>
-      </c>
-      <c r="C457" s="1"/>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" t="s">
-        <v>752</v>
-      </c>
-      <c r="B458" t="s">
-        <v>753</v>
-      </c>
-      <c r="C458" s="1"/>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A459" t="s">
-        <v>754</v>
-      </c>
-      <c r="B459" t="s">
-        <v>755</v>
-      </c>
-      <c r="C459" s="1"/>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A460" t="s">
-        <v>756</v>
-      </c>
-      <c r="B460" t="s">
-        <v>757</v>
-      </c>
-      <c r="C460" s="1"/>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A461" t="s">
-        <v>758</v>
-      </c>
-      <c r="B461" t="s">
-        <v>759</v>
-      </c>
-      <c r="C461" s="1"/>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462" t="s">
-        <v>760</v>
-      </c>
-      <c r="B462" t="s">
-        <v>761</v>
-      </c>
-      <c r="C462" s="1"/>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A463" t="s">
-        <v>762</v>
-      </c>
-      <c r="B463" t="s">
-        <v>763</v>
-      </c>
-      <c r="C463" s="1"/>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A464" t="s">
-        <v>764</v>
-      </c>
-      <c r="B464" t="s">
-        <v>765</v>
-      </c>
-      <c r="C464" s="1"/>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A465" t="s">
-        <v>766</v>
-      </c>
-      <c r="B465" t="s">
-        <v>767</v>
-      </c>
-      <c r="C465" s="1"/>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" t="s">
-        <v>768</v>
-      </c>
-      <c r="B466" t="s">
-        <v>769</v>
-      </c>
-      <c r="C466" s="1"/>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A467" t="s">
-        <v>770</v>
-      </c>
-      <c r="B467" t="s">
-        <v>771</v>
-      </c>
-      <c r="C467" s="1"/>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468" t="s">
-        <v>772</v>
-      </c>
-      <c r="B468" t="s">
-        <v>773</v>
-      </c>
-      <c r="C468" s="1"/>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A469" t="s">
-        <v>774</v>
-      </c>
-      <c r="B469" t="s">
-        <v>775</v>
-      </c>
-      <c r="C469" s="1"/>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A470" t="s">
-        <v>776</v>
-      </c>
-      <c r="B470" t="s">
-        <v>777</v>
-      </c>
-      <c r="C470" s="1"/>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A471" t="s">
-        <v>778</v>
-      </c>
-      <c r="B471" t="s">
-        <v>779</v>
-      </c>
-      <c r="C471" s="1"/>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A472" t="s">
-        <v>780</v>
-      </c>
-      <c r="B472" t="s">
-        <v>780</v>
-      </c>
-      <c r="C472" s="1"/>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A473" t="s">
-        <v>781</v>
-      </c>
-      <c r="B473" t="s">
-        <v>782</v>
-      </c>
-      <c r="C473" s="1"/>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A474" t="s">
-        <v>783</v>
-      </c>
-      <c r="B474" t="s">
-        <v>784</v>
-      </c>
-      <c r="C474" s="1"/>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A475" t="s">
-        <v>785</v>
-      </c>
-      <c r="B475" t="s">
-        <v>786</v>
-      </c>
-      <c r="C475" s="1"/>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A476" t="s">
-        <v>787</v>
-      </c>
-      <c r="B476" t="s">
-        <v>788</v>
-      </c>
-      <c r="C476" s="1"/>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
-        <v>789</v>
-      </c>
-      <c r="B477" t="s">
-        <v>790</v>
-      </c>
-      <c r="C477" s="1"/>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
-        <v>791</v>
-      </c>
-      <c r="B478" t="s">
-        <v>792</v>
-      </c>
-      <c r="C478" s="1"/>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A479" t="s">
-        <v>793</v>
-      </c>
-      <c r="B479" t="s">
-        <v>794</v>
-      </c>
-      <c r="C479" s="1"/>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480" t="s">
-        <v>795</v>
-      </c>
-      <c r="B480" t="s">
-        <v>796</v>
-      </c>
-      <c r="C480" s="1"/>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
-        <v>797</v>
-      </c>
-      <c r="B481" t="s">
-        <v>798</v>
-      </c>
-      <c r="C481" s="1"/>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A482" t="s">
-        <v>799</v>
-      </c>
-      <c r="B482" t="s">
-        <v>800</v>
-      </c>
-      <c r="C482" s="1"/>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A483" t="s">
-        <v>801</v>
-      </c>
-      <c r="B483" t="s">
-        <v>801</v>
-      </c>
-      <c r="C483" s="1"/>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A484" t="s">
-        <v>802</v>
-      </c>
-      <c r="B484" t="s">
-        <v>803</v>
-      </c>
-      <c r="C484" s="1"/>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
-        <v>804</v>
-      </c>
-      <c r="B485" t="s">
-        <v>805</v>
-      </c>
-      <c r="C485" s="1"/>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A486" t="s">
-        <v>806</v>
-      </c>
-      <c r="B486" t="s">
-        <v>807</v>
-      </c>
-      <c r="C486" s="1"/>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
-        <v>808</v>
-      </c>
-      <c r="B487" t="s">
-        <v>809</v>
-      </c>
-      <c r="C487" s="1"/>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488" t="s">
-        <v>810</v>
-      </c>
-      <c r="B488" t="s">
-        <v>811</v>
-      </c>
-      <c r="C488" s="1"/>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
-        <v>812</v>
-      </c>
-      <c r="B489" t="s">
-        <v>813</v>
-      </c>
-      <c r="C489" s="1"/>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
-        <v>814</v>
-      </c>
-      <c r="B490" t="s">
-        <v>815</v>
-      </c>
-      <c r="C490" s="1"/>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
-        <v>816</v>
-      </c>
-      <c r="B491" t="s">
-        <v>817</v>
-      </c>
-      <c r="C491" s="1"/>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A492" t="s">
-        <v>818</v>
-      </c>
-      <c r="B492" t="s">
-        <v>819</v>
-      </c>
-      <c r="C492" s="1"/>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A493" t="s">
-        <v>820</v>
-      </c>
-      <c r="B493" t="s">
-        <v>821</v>
-      </c>
-      <c r="C493" s="1"/>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A494" t="s">
-        <v>822</v>
-      </c>
-      <c r="B494" t="s">
-        <v>823</v>
-      </c>
-      <c r="C494" s="1"/>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A495" t="s">
-        <v>824</v>
-      </c>
-      <c r="B495" t="s">
-        <v>825</v>
-      </c>
-      <c r="C495" s="1"/>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A496" t="s">
-        <v>826</v>
-      </c>
-      <c r="B496" t="s">
-        <v>827</v>
-      </c>
-      <c r="C496" s="1"/>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A497" t="s">
-        <v>828</v>
-      </c>
-      <c r="B497" t="s">
-        <v>829</v>
-      </c>
-      <c r="C497" s="1"/>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A498" t="s">
-        <v>830</v>
-      </c>
-      <c r="B498" t="s">
-        <v>831</v>
-      </c>
-      <c r="C498" s="1"/>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
-        <v>832</v>
-      </c>
-      <c r="B499" t="s">
-        <v>833</v>
-      </c>
-      <c r="C499" s="1"/>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A500" t="s">
-        <v>834</v>
-      </c>
-      <c r="B500" t="s">
-        <v>835</v>
-      </c>
-      <c r="C500" s="1"/>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A501" t="s">
-        <v>836</v>
-      </c>
-      <c r="B501" t="s">
-        <v>837</v>
-      </c>
-      <c r="C501" s="1"/>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A502" t="s">
-        <v>838</v>
-      </c>
-      <c r="B502" t="s">
-        <v>839</v>
-      </c>
-      <c r="C502" s="1"/>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A503" t="s">
-        <v>840</v>
-      </c>
-      <c r="B503" t="s">
-        <v>841</v>
-      </c>
-      <c r="C503" s="1"/>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504" t="s">
-        <v>842</v>
-      </c>
-      <c r="B504" t="s">
-        <v>843</v>
-      </c>
-      <c r="C504" s="1"/>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
-        <v>844</v>
-      </c>
-      <c r="B505" t="s">
-        <v>845</v>
-      </c>
-      <c r="C505" s="1"/>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A506" t="s">
-        <v>846</v>
-      </c>
-      <c r="B506" t="s">
-        <v>847</v>
-      </c>
-      <c r="C506" s="1"/>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A507" t="s">
-        <v>848</v>
-      </c>
-      <c r="B507" t="s">
-        <v>849</v>
-      </c>
-      <c r="C507" s="1"/>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A508" t="s">
-        <v>850</v>
-      </c>
-      <c r="B508" t="s">
-        <v>851</v>
-      </c>
-      <c r="C508" s="1"/>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A509" t="s">
-        <v>852</v>
-      </c>
-      <c r="B509" t="s">
-        <v>853</v>
-      </c>
-      <c r="C509" s="1"/>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A510" t="s">
-        <v>854</v>
-      </c>
-      <c r="B510" t="s">
-        <v>855</v>
-      </c>
-      <c r="C510" s="1"/>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A511" t="s">
-        <v>856</v>
-      </c>
-      <c r="B511" t="s">
-        <v>857</v>
-      </c>
-      <c r="C511" s="1"/>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A512" t="s">
-        <v>858</v>
-      </c>
-      <c r="B512" t="s">
-        <v>859</v>
-      </c>
-      <c r="C512" s="1"/>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A513" t="s">
-        <v>860</v>
-      </c>
-      <c r="B513" t="s">
-        <v>861</v>
-      </c>
-      <c r="C513" s="1"/>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A514" t="s">
-        <v>862</v>
-      </c>
-      <c r="B514" t="s">
-        <v>863</v>
-      </c>
-      <c r="C514" s="1"/>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A515" t="s">
-        <v>864</v>
-      </c>
-      <c r="B515" t="s">
-        <v>865</v>
-      </c>
-      <c r="C515" s="1"/>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A516" t="s">
-        <v>866</v>
-      </c>
-      <c r="B516" t="s">
-        <v>867</v>
-      </c>
-      <c r="C516" s="1"/>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A517" t="s">
-        <v>868</v>
-      </c>
-      <c r="B517" t="s">
-        <v>869</v>
-      </c>
-      <c r="C517" s="1"/>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A518" t="s">
-        <v>870</v>
-      </c>
-      <c r="B518" t="s">
-        <v>871</v>
-      </c>
-      <c r="C518" s="1"/>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A519" t="s">
-        <v>872</v>
-      </c>
-      <c r="B519" t="s">
-        <v>873</v>
-      </c>
-      <c r="C519" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/국가 태그 리스트.xlsx
+++ b/국가 태그 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Paradox Interactive\Hearts of Iron IV\mod\Megrez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F912C3-B635-4CA6-B4FD-BCCC1FCF94A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D79147E-5B01-4983-90BF-C8A3A942C285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5BB7CF9C-8FCF-4629-9068-6E760912229D}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="1037">
   <si>
     <t>ABD</t>
   </si>
@@ -2805,10 +2805,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>노릴스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>탐보프 비상대책정부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3670,6 +3666,18 @@
   </si>
   <si>
     <t>무정부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노릴스크 무정부지대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오몰론 무정부지대 -&gt; 신성 러시아 제국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌류이 무정부 지대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4070,8 +4078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368E7840-401F-403C-8D0A-776BF9C3D7E0}">
   <dimension ref="A1:C519"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="C497" sqref="C497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5281,7 +5289,7 @@
         <v>144</v>
       </c>
       <c r="B150" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -6388,7 +6396,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>283</v>
       </c>
@@ -6396,7 +6404,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>284</v>
       </c>
@@ -6404,7 +6412,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>285</v>
       </c>
@@ -6412,7 +6420,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>286</v>
       </c>
@@ -6420,7 +6428,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>287</v>
       </c>
@@ -6428,7 +6436,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>288</v>
       </c>
@@ -6436,7 +6444,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>289</v>
       </c>
@@ -6444,7 +6452,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>290</v>
       </c>
@@ -6452,7 +6460,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>291</v>
       </c>
@@ -6460,185 +6468,188 @@
         <v>817</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>292</v>
       </c>
-      <c r="B298" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C298" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>293</v>
       </c>
       <c r="B299" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>294</v>
       </c>
       <c r="B300" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>295</v>
       </c>
       <c r="B301" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>296</v>
       </c>
       <c r="B302" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>297</v>
       </c>
       <c r="B303" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>298</v>
       </c>
       <c r="B304" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>299</v>
       </c>
       <c r="B305" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>300</v>
       </c>
       <c r="B306" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>301</v>
       </c>
       <c r="B307" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>302</v>
       </c>
       <c r="B308" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>303</v>
       </c>
       <c r="B309" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>304</v>
       </c>
       <c r="B310" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C311" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>306</v>
       </c>
       <c r="B312" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>307</v>
       </c>
       <c r="B313" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>308</v>
       </c>
       <c r="B314" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>309</v>
       </c>
       <c r="B315" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>310</v>
       </c>
       <c r="B316" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>311</v>
       </c>
       <c r="B317" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>312</v>
       </c>
       <c r="B318" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>313</v>
       </c>
       <c r="B319" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>314</v>
       </c>
       <c r="B320" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -6646,7 +6657,7 @@
         <v>315</v>
       </c>
       <c r="B321" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -6654,7 +6665,7 @@
         <v>316</v>
       </c>
       <c r="B322" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -6662,7 +6673,7 @@
         <v>317</v>
       </c>
       <c r="B323" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -6670,7 +6681,7 @@
         <v>318</v>
       </c>
       <c r="B324" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -6678,7 +6689,7 @@
         <v>319</v>
       </c>
       <c r="B325" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -6686,7 +6697,7 @@
         <v>320</v>
       </c>
       <c r="B326" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -6694,7 +6705,7 @@
         <v>321</v>
       </c>
       <c r="B327" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -6702,7 +6713,7 @@
         <v>322</v>
       </c>
       <c r="B328" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -6710,7 +6721,7 @@
         <v>323</v>
       </c>
       <c r="B329" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -6718,7 +6729,7 @@
         <v>324</v>
       </c>
       <c r="B330" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -6726,7 +6737,7 @@
         <v>325</v>
       </c>
       <c r="B331" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -6734,7 +6745,7 @@
         <v>326</v>
       </c>
       <c r="B332" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -6742,7 +6753,7 @@
         <v>327</v>
       </c>
       <c r="B333" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -6750,7 +6761,7 @@
         <v>328</v>
       </c>
       <c r="B334" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -6758,7 +6769,7 @@
         <v>329</v>
       </c>
       <c r="B335" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -6766,7 +6777,7 @@
         <v>330</v>
       </c>
       <c r="B336" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -6774,7 +6785,7 @@
         <v>331</v>
       </c>
       <c r="B337" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -6782,7 +6793,7 @@
         <v>332</v>
       </c>
       <c r="B338" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -6790,7 +6801,7 @@
         <v>333</v>
       </c>
       <c r="B339" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -6798,7 +6809,7 @@
         <v>334</v>
       </c>
       <c r="B340" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -6806,7 +6817,7 @@
         <v>335</v>
       </c>
       <c r="B341" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -6814,7 +6825,7 @@
         <v>336</v>
       </c>
       <c r="B342" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -6822,7 +6833,7 @@
         <v>337</v>
       </c>
       <c r="B343" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -6830,7 +6841,7 @@
         <v>338</v>
       </c>
       <c r="B344" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -6838,7 +6849,7 @@
         <v>339</v>
       </c>
       <c r="B345" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -6846,7 +6857,7 @@
         <v>340</v>
       </c>
       <c r="B346" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -6854,7 +6865,7 @@
         <v>341</v>
       </c>
       <c r="B347" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -6862,7 +6873,7 @@
         <v>342</v>
       </c>
       <c r="B348" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -6870,7 +6881,7 @@
         <v>343</v>
       </c>
       <c r="B349" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -6878,7 +6889,7 @@
         <v>344</v>
       </c>
       <c r="B350" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -6886,7 +6897,7 @@
         <v>345</v>
       </c>
       <c r="B351" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -6894,7 +6905,7 @@
         <v>346</v>
       </c>
       <c r="B352" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -6902,7 +6913,7 @@
         <v>347</v>
       </c>
       <c r="B353" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -6910,7 +6921,7 @@
         <v>348</v>
       </c>
       <c r="B354" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -6918,7 +6929,7 @@
         <v>349</v>
       </c>
       <c r="B355" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -6926,7 +6937,7 @@
         <v>350</v>
       </c>
       <c r="B356" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -6934,7 +6945,7 @@
         <v>351</v>
       </c>
       <c r="B357" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -6942,7 +6953,7 @@
         <v>352</v>
       </c>
       <c r="B358" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -6950,7 +6961,7 @@
         <v>353</v>
       </c>
       <c r="B359" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -6958,7 +6969,7 @@
         <v>354</v>
       </c>
       <c r="B360" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -6966,7 +6977,7 @@
         <v>355</v>
       </c>
       <c r="B361" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -6974,7 +6985,7 @@
         <v>356</v>
       </c>
       <c r="B362" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -6982,7 +6993,7 @@
         <v>357</v>
       </c>
       <c r="B363" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -6990,7 +7001,7 @@
         <v>358</v>
       </c>
       <c r="B364" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -7006,7 +7017,7 @@
         <v>359</v>
       </c>
       <c r="B366" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -7014,7 +7025,7 @@
         <v>360</v>
       </c>
       <c r="B367" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -7022,7 +7033,7 @@
         <v>361</v>
       </c>
       <c r="B368" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -7030,7 +7041,7 @@
         <v>362</v>
       </c>
       <c r="B369" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -7038,7 +7049,7 @@
         <v>363</v>
       </c>
       <c r="B370" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -7046,7 +7057,7 @@
         <v>364</v>
       </c>
       <c r="B371" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -7054,7 +7065,7 @@
         <v>365</v>
       </c>
       <c r="B372" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -7078,7 +7089,7 @@
         <v>370</v>
       </c>
       <c r="B375" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -7086,7 +7097,7 @@
         <v>371</v>
       </c>
       <c r="B376" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -7094,7 +7105,7 @@
         <v>372</v>
       </c>
       <c r="B377" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -7102,7 +7113,7 @@
         <v>373</v>
       </c>
       <c r="B378" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -7110,7 +7121,7 @@
         <v>374</v>
       </c>
       <c r="B379" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -7118,7 +7129,7 @@
         <v>375</v>
       </c>
       <c r="B380" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -7126,7 +7137,7 @@
         <v>376</v>
       </c>
       <c r="B381" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -7134,7 +7145,7 @@
         <v>377</v>
       </c>
       <c r="B382" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -7142,7 +7153,7 @@
         <v>378</v>
       </c>
       <c r="B383" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -7150,7 +7161,7 @@
         <v>379</v>
       </c>
       <c r="B384" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -7158,7 +7169,7 @@
         <v>380</v>
       </c>
       <c r="B385" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -7166,7 +7177,7 @@
         <v>381</v>
       </c>
       <c r="B386" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -7174,7 +7185,7 @@
         <v>382</v>
       </c>
       <c r="B387" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -7182,7 +7193,7 @@
         <v>383</v>
       </c>
       <c r="B388" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -7190,7 +7201,7 @@
         <v>384</v>
       </c>
       <c r="B389" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -7198,7 +7209,7 @@
         <v>385</v>
       </c>
       <c r="B390" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -7206,7 +7217,7 @@
         <v>386</v>
       </c>
       <c r="B391" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -7214,7 +7225,7 @@
         <v>387</v>
       </c>
       <c r="B392" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -7222,7 +7233,7 @@
         <v>388</v>
       </c>
       <c r="B393" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -7230,7 +7241,7 @@
         <v>389</v>
       </c>
       <c r="B394" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -7238,7 +7249,7 @@
         <v>390</v>
       </c>
       <c r="B395" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -7246,7 +7257,7 @@
         <v>391</v>
       </c>
       <c r="B396" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -7254,7 +7265,7 @@
         <v>392</v>
       </c>
       <c r="B397" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -7262,7 +7273,7 @@
         <v>393</v>
       </c>
       <c r="B398" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -7270,7 +7281,7 @@
         <v>394</v>
       </c>
       <c r="B399" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -7278,7 +7289,7 @@
         <v>395</v>
       </c>
       <c r="B400" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -7286,7 +7297,7 @@
         <v>396</v>
       </c>
       <c r="B401" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -7294,7 +7305,7 @@
         <v>397</v>
       </c>
       <c r="B402" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -7302,7 +7313,7 @@
         <v>398</v>
       </c>
       <c r="B403" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -7310,7 +7321,7 @@
         <v>399</v>
       </c>
       <c r="B404" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -7318,7 +7329,7 @@
         <v>400</v>
       </c>
       <c r="B405" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -7326,7 +7337,7 @@
         <v>401</v>
       </c>
       <c r="B406" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -7334,7 +7345,7 @@
         <v>402</v>
       </c>
       <c r="B407" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -7342,7 +7353,7 @@
         <v>403</v>
       </c>
       <c r="B408" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -7350,7 +7361,7 @@
         <v>404</v>
       </c>
       <c r="B409" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -7358,7 +7369,7 @@
         <v>405</v>
       </c>
       <c r="B410" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -7366,7 +7377,7 @@
         <v>406</v>
       </c>
       <c r="B411" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -7374,7 +7385,7 @@
         <v>407</v>
       </c>
       <c r="B412" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -7382,7 +7393,7 @@
         <v>408</v>
       </c>
       <c r="B413" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -7390,7 +7401,7 @@
         <v>409</v>
       </c>
       <c r="B414" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -7398,7 +7409,7 @@
         <v>410</v>
       </c>
       <c r="B415" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -7406,7 +7417,7 @@
         <v>411</v>
       </c>
       <c r="B416" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -7414,7 +7425,7 @@
         <v>412</v>
       </c>
       <c r="B417" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -7422,7 +7433,7 @@
         <v>413</v>
       </c>
       <c r="B418" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -7430,7 +7441,7 @@
         <v>414</v>
       </c>
       <c r="B419" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -7438,7 +7449,7 @@
         <v>415</v>
       </c>
       <c r="B420" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -7446,7 +7457,7 @@
         <v>416</v>
       </c>
       <c r="B421" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -7454,7 +7465,7 @@
         <v>417</v>
       </c>
       <c r="B422" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -7462,7 +7473,7 @@
         <v>418</v>
       </c>
       <c r="B423" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -7470,7 +7481,7 @@
         <v>419</v>
       </c>
       <c r="B424" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -7478,7 +7489,7 @@
         <v>420</v>
       </c>
       <c r="B425" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -7486,7 +7497,7 @@
         <v>421</v>
       </c>
       <c r="B426" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -7494,7 +7505,7 @@
         <v>422</v>
       </c>
       <c r="B427" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -7502,7 +7513,7 @@
         <v>423</v>
       </c>
       <c r="B428" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -7510,7 +7521,7 @@
         <v>424</v>
       </c>
       <c r="B429" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -7518,7 +7529,7 @@
         <v>425</v>
       </c>
       <c r="B430" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -7526,7 +7537,7 @@
         <v>426</v>
       </c>
       <c r="B431" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -7534,7 +7545,7 @@
         <v>427</v>
       </c>
       <c r="B432" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
@@ -7542,7 +7553,7 @@
         <v>428</v>
       </c>
       <c r="B433" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
@@ -7550,7 +7561,7 @@
         <v>429</v>
       </c>
       <c r="B434" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
@@ -7558,10 +7569,10 @@
         <v>430</v>
       </c>
       <c r="B435" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C435" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
@@ -7569,10 +7580,10 @@
         <v>431</v>
       </c>
       <c r="B436" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C436" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
@@ -7580,10 +7591,10 @@
         <v>432</v>
       </c>
       <c r="B437" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C437" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
@@ -7591,10 +7602,10 @@
         <v>433</v>
       </c>
       <c r="B438" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C438" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
@@ -7602,10 +7613,10 @@
         <v>434</v>
       </c>
       <c r="B439" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C439" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
@@ -7613,10 +7624,10 @@
         <v>435</v>
       </c>
       <c r="B440" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C440" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -7624,10 +7635,10 @@
         <v>436</v>
       </c>
       <c r="B441" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C441" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -7635,10 +7646,10 @@
         <v>437</v>
       </c>
       <c r="B442" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C442" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -7646,10 +7657,10 @@
         <v>438</v>
       </c>
       <c r="B443" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C443" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
@@ -7657,10 +7668,10 @@
         <v>439</v>
       </c>
       <c r="B444" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C444" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
@@ -7668,10 +7679,10 @@
         <v>440</v>
       </c>
       <c r="B445" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C445" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -7679,10 +7690,10 @@
         <v>441</v>
       </c>
       <c r="B446" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C446" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -7690,10 +7701,10 @@
         <v>442</v>
       </c>
       <c r="B447" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C447" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -7701,10 +7712,10 @@
         <v>443</v>
       </c>
       <c r="B448" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C448" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -7712,10 +7723,10 @@
         <v>444</v>
       </c>
       <c r="B449" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C449" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -7723,10 +7734,10 @@
         <v>445</v>
       </c>
       <c r="B450" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C450" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -7734,10 +7745,10 @@
         <v>446</v>
       </c>
       <c r="B451" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C451" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
@@ -7745,10 +7756,10 @@
         <v>447</v>
       </c>
       <c r="B452" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C452" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -7756,10 +7767,10 @@
         <v>448</v>
       </c>
       <c r="B453" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C453" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
@@ -7767,10 +7778,10 @@
         <v>449</v>
       </c>
       <c r="B454" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C454" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
@@ -7778,10 +7789,10 @@
         <v>450</v>
       </c>
       <c r="B455" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C455" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
@@ -7789,10 +7800,10 @@
         <v>451</v>
       </c>
       <c r="B456" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C456" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
@@ -7800,10 +7811,10 @@
         <v>452</v>
       </c>
       <c r="B457" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C457" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
@@ -7811,10 +7822,10 @@
         <v>453</v>
       </c>
       <c r="B458" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C458" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -7822,10 +7833,10 @@
         <v>454</v>
       </c>
       <c r="B459" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C459" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
@@ -7833,7 +7844,7 @@
         <v>455</v>
       </c>
       <c r="B460" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
@@ -7841,7 +7852,7 @@
         <v>456</v>
       </c>
       <c r="B461" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
@@ -7849,7 +7860,7 @@
         <v>457</v>
       </c>
       <c r="B462" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -7857,7 +7868,7 @@
         <v>458</v>
       </c>
       <c r="B463" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
@@ -7865,7 +7876,7 @@
         <v>459</v>
       </c>
       <c r="B464" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -7873,7 +7884,7 @@
         <v>460</v>
       </c>
       <c r="B465" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -7881,7 +7892,7 @@
         <v>461</v>
       </c>
       <c r="B466" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -7889,7 +7900,7 @@
         <v>462</v>
       </c>
       <c r="B467" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -7897,7 +7908,7 @@
         <v>463</v>
       </c>
       <c r="B468" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -7905,7 +7916,7 @@
         <v>464</v>
       </c>
       <c r="B469" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -7913,7 +7924,7 @@
         <v>465</v>
       </c>
       <c r="B470" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
@@ -7921,7 +7932,7 @@
         <v>466</v>
       </c>
       <c r="B471" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
@@ -7929,7 +7940,7 @@
         <v>467</v>
       </c>
       <c r="B472" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
@@ -7937,7 +7948,7 @@
         <v>468</v>
       </c>
       <c r="B473" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -7945,7 +7956,7 @@
         <v>469</v>
       </c>
       <c r="B474" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -7961,7 +7972,7 @@
         <v>471</v>
       </c>
       <c r="B476" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -7969,7 +7980,7 @@
         <v>472</v>
       </c>
       <c r="B477" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -7977,7 +7988,7 @@
         <v>473</v>
       </c>
       <c r="B478" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -7985,7 +7996,7 @@
         <v>474</v>
       </c>
       <c r="B479" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -7993,132 +8004,135 @@
         <v>475</v>
       </c>
       <c r="B480" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>476</v>
       </c>
       <c r="B481" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>477</v>
       </c>
       <c r="B482" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>478</v>
       </c>
       <c r="B483" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>479</v>
       </c>
       <c r="B484" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>480</v>
       </c>
       <c r="B485" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>481</v>
       </c>
       <c r="B486" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>482</v>
       </c>
       <c r="B487" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>483</v>
       </c>
       <c r="B488" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>484</v>
       </c>
       <c r="B489" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>485</v>
       </c>
       <c r="B490" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C491" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>487</v>
       </c>
       <c r="B492" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>488</v>
       </c>
       <c r="B493" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>489</v>
       </c>
       <c r="B494" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>490</v>
       </c>
       <c r="B495" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>491</v>
       </c>
       <c r="B496" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
@@ -8126,7 +8140,7 @@
         <v>492</v>
       </c>
       <c r="B497" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
@@ -8134,7 +8148,7 @@
         <v>493</v>
       </c>
       <c r="B498" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -8142,7 +8156,7 @@
         <v>494</v>
       </c>
       <c r="B499" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -8150,7 +8164,7 @@
         <v>495</v>
       </c>
       <c r="B500" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
@@ -8158,7 +8172,7 @@
         <v>496</v>
       </c>
       <c r="B501" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
@@ -8166,7 +8180,7 @@
         <v>497</v>
       </c>
       <c r="B502" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
@@ -8174,7 +8188,7 @@
         <v>498</v>
       </c>
       <c r="B503" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -8182,7 +8196,7 @@
         <v>499</v>
       </c>
       <c r="B504" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
@@ -8190,7 +8204,7 @@
         <v>500</v>
       </c>
       <c r="B505" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -8198,7 +8212,7 @@
         <v>501</v>
       </c>
       <c r="B506" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -8206,7 +8220,7 @@
         <v>502</v>
       </c>
       <c r="B507" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -8214,7 +8228,7 @@
         <v>503</v>
       </c>
       <c r="B508" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -8222,7 +8236,7 @@
         <v>504</v>
       </c>
       <c r="B509" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -8230,7 +8244,7 @@
         <v>505</v>
       </c>
       <c r="B510" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -8238,7 +8252,7 @@
         <v>506</v>
       </c>
       <c r="B511" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -8246,7 +8260,7 @@
         <v>507</v>
       </c>
       <c r="B512" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -8254,7 +8268,7 @@
         <v>508</v>
       </c>
       <c r="B513" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
@@ -8262,7 +8276,7 @@
         <v>509</v>
       </c>
       <c r="B514" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
@@ -8270,7 +8284,7 @@
         <v>510</v>
       </c>
       <c r="B515" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
@@ -8278,7 +8292,7 @@
         <v>511</v>
       </c>
       <c r="B516" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -8286,7 +8300,7 @@
         <v>512</v>
       </c>
       <c r="B517" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -8294,7 +8308,7 @@
         <v>513</v>
       </c>
       <c r="B518" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -8302,7 +8316,7 @@
         <v>514</v>
       </c>
       <c r="B519" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
   </sheetData>

--- a/국가 태그 리스트.xlsx
+++ b/국가 태그 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Paradox Interactive\Hearts of Iron IV\mod\Megrez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D79147E-5B01-4983-90BF-C8A3A942C285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A6CA69-A0A6-4D9F-9830-BF24125A3813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5BB7CF9C-8FCF-4629-9068-6E760912229D}"/>
   </bookViews>
@@ -2221,10 +2221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>갈리시아 공화국</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2953,10 +2949,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필리핀 제2공화국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신프랑스국 (피카르디)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3673,11 +3665,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오몰론 무정부지대 -&gt; 신성 러시아 제국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>빌류이 무정부 지대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오몰론 무정부지대 -&gt; 시베리아 신성통치령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전필리핀 혁명 사회주의 공화국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3773,7 +3773,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{92A16AB3-A802-4E8F-A40D-85409951C4EF}" uniqueName="1" name="국가태그" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F5989B7D-5E1C-41A7-8237-E942747AAB4E}" uniqueName="2" name="국가명" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BF5EF6D5-061B-406A-8F3A-19D9179F521D}" uniqueName="3" name="설명" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{BF5EF6D5-061B-406A-8F3A-19D9179F521D}" uniqueName="3" name="지역" queryTableFieldId="3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4078,8 +4078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368E7840-401F-403C-8D0A-776BF9C3D7E0}">
   <dimension ref="A1:C519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4097,7 +4097,7 @@
         <v>516</v>
       </c>
       <c r="C1" t="s">
-        <v>672</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5161,7 +5161,7 @@
         <v>128</v>
       </c>
       <c r="B134" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -5289,7 +5289,7 @@
         <v>144</v>
       </c>
       <c r="B150" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -5313,7 +5313,7 @@
         <v>147</v>
       </c>
       <c r="B153" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -5321,7 +5321,7 @@
         <v>148</v>
       </c>
       <c r="B154" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -5329,7 +5329,7 @@
         <v>149</v>
       </c>
       <c r="B155" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -5337,7 +5337,7 @@
         <v>150</v>
       </c>
       <c r="B156" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -5345,7 +5345,7 @@
         <v>151</v>
       </c>
       <c r="B157" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -5353,7 +5353,7 @@
         <v>152</v>
       </c>
       <c r="B158" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -5361,7 +5361,7 @@
         <v>153</v>
       </c>
       <c r="B159" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -5369,7 +5369,7 @@
         <v>154</v>
       </c>
       <c r="B160" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -5377,7 +5377,7 @@
         <v>155</v>
       </c>
       <c r="B161" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -5385,7 +5385,7 @@
         <v>156</v>
       </c>
       <c r="B162" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -5393,7 +5393,7 @@
         <v>157</v>
       </c>
       <c r="B163" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -5401,7 +5401,7 @@
         <v>158</v>
       </c>
       <c r="B164" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -5409,7 +5409,7 @@
         <v>159</v>
       </c>
       <c r="B165" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -5417,7 +5417,7 @@
         <v>160</v>
       </c>
       <c r="B166" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -5425,7 +5425,7 @@
         <v>161</v>
       </c>
       <c r="B167" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -5433,7 +5433,7 @@
         <v>162</v>
       </c>
       <c r="B168" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -5441,7 +5441,7 @@
         <v>163</v>
       </c>
       <c r="B169" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -5449,7 +5449,7 @@
         <v>164</v>
       </c>
       <c r="B170" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -5457,7 +5457,7 @@
         <v>165</v>
       </c>
       <c r="B171" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -5465,7 +5465,7 @@
         <v>166</v>
       </c>
       <c r="B172" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -5473,7 +5473,7 @@
         <v>167</v>
       </c>
       <c r="B173" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -5481,7 +5481,7 @@
         <v>168</v>
       </c>
       <c r="B174" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -5489,7 +5489,7 @@
         <v>169</v>
       </c>
       <c r="B175" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -5497,7 +5497,7 @@
         <v>170</v>
       </c>
       <c r="B176" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -5505,7 +5505,7 @@
         <v>171</v>
       </c>
       <c r="B177" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -5513,7 +5513,7 @@
         <v>172</v>
       </c>
       <c r="B178" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -5521,7 +5521,7 @@
         <v>173</v>
       </c>
       <c r="B179" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -5529,7 +5529,7 @@
         <v>174</v>
       </c>
       <c r="B180" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -5537,7 +5537,7 @@
         <v>175</v>
       </c>
       <c r="B181" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -5545,7 +5545,7 @@
         <v>176</v>
       </c>
       <c r="B182" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -5553,7 +5553,7 @@
         <v>177</v>
       </c>
       <c r="B183" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -5561,7 +5561,7 @@
         <v>178</v>
       </c>
       <c r="B184" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -5569,7 +5569,7 @@
         <v>179</v>
       </c>
       <c r="B185" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -5577,7 +5577,7 @@
         <v>180</v>
       </c>
       <c r="B186" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -5585,7 +5585,7 @@
         <v>181</v>
       </c>
       <c r="B187" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -5593,7 +5593,7 @@
         <v>182</v>
       </c>
       <c r="B188" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -5601,7 +5601,7 @@
         <v>183</v>
       </c>
       <c r="B189" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -5609,7 +5609,7 @@
         <v>184</v>
       </c>
       <c r="B190" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -5617,7 +5617,7 @@
         <v>185</v>
       </c>
       <c r="B191" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -5625,7 +5625,7 @@
         <v>186</v>
       </c>
       <c r="B192" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -5633,7 +5633,7 @@
         <v>187</v>
       </c>
       <c r="B193" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -5641,7 +5641,7 @@
         <v>188</v>
       </c>
       <c r="B194" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -5649,7 +5649,7 @@
         <v>189</v>
       </c>
       <c r="B195" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -5657,7 +5657,7 @@
         <v>190</v>
       </c>
       <c r="B196" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -5665,7 +5665,7 @@
         <v>191</v>
       </c>
       <c r="B197" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -5673,7 +5673,7 @@
         <v>192</v>
       </c>
       <c r="B198" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -5681,7 +5681,7 @@
         <v>193</v>
       </c>
       <c r="B199" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -5689,7 +5689,7 @@
         <v>194</v>
       </c>
       <c r="B200" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -5697,7 +5697,7 @@
         <v>195</v>
       </c>
       <c r="B201" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -5705,7 +5705,7 @@
         <v>196</v>
       </c>
       <c r="B202" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -5713,7 +5713,7 @@
         <v>197</v>
       </c>
       <c r="B203" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -5721,7 +5721,7 @@
         <v>198</v>
       </c>
       <c r="B204" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -5729,7 +5729,7 @@
         <v>199</v>
       </c>
       <c r="B205" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -5737,7 +5737,7 @@
         <v>200</v>
       </c>
       <c r="B206" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -5745,7 +5745,7 @@
         <v>201</v>
       </c>
       <c r="B207" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -5753,7 +5753,7 @@
         <v>202</v>
       </c>
       <c r="B208" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -5761,7 +5761,7 @@
         <v>203</v>
       </c>
       <c r="B209" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -5769,7 +5769,7 @@
         <v>204</v>
       </c>
       <c r="B210" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -5777,7 +5777,7 @@
         <v>205</v>
       </c>
       <c r="B211" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -5785,7 +5785,7 @@
         <v>206</v>
       </c>
       <c r="B212" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -5793,7 +5793,7 @@
         <v>207</v>
       </c>
       <c r="B213" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -5801,7 +5801,7 @@
         <v>208</v>
       </c>
       <c r="B214" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -5809,7 +5809,7 @@
         <v>209</v>
       </c>
       <c r="B215" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -5817,7 +5817,7 @@
         <v>210</v>
       </c>
       <c r="B216" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -5825,7 +5825,7 @@
         <v>211</v>
       </c>
       <c r="B217" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -5833,7 +5833,7 @@
         <v>212</v>
       </c>
       <c r="B218" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -5841,7 +5841,7 @@
         <v>213</v>
       </c>
       <c r="B219" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -5849,7 +5849,7 @@
         <v>214</v>
       </c>
       <c r="B220" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -5857,7 +5857,7 @@
         <v>215</v>
       </c>
       <c r="B221" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -5865,7 +5865,7 @@
         <v>216</v>
       </c>
       <c r="B222" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -5873,7 +5873,7 @@
         <v>217</v>
       </c>
       <c r="B223" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -5881,7 +5881,7 @@
         <v>218</v>
       </c>
       <c r="B224" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -5889,7 +5889,7 @@
         <v>219</v>
       </c>
       <c r="B225" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -5897,7 +5897,7 @@
         <v>220</v>
       </c>
       <c r="B226" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -5905,7 +5905,7 @@
         <v>221</v>
       </c>
       <c r="B227" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -5913,7 +5913,7 @@
         <v>222</v>
       </c>
       <c r="B228" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -5921,7 +5921,7 @@
         <v>223</v>
       </c>
       <c r="B229" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -5929,7 +5929,7 @@
         <v>224</v>
       </c>
       <c r="B230" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -5937,7 +5937,7 @@
         <v>225</v>
       </c>
       <c r="B231" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -5945,7 +5945,7 @@
         <v>226</v>
       </c>
       <c r="B232" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -5953,7 +5953,7 @@
         <v>227</v>
       </c>
       <c r="B233" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -5961,7 +5961,7 @@
         <v>228</v>
       </c>
       <c r="B234" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -5969,7 +5969,7 @@
         <v>229</v>
       </c>
       <c r="B235" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -5977,7 +5977,7 @@
         <v>230</v>
       </c>
       <c r="B236" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -5985,7 +5985,7 @@
         <v>231</v>
       </c>
       <c r="B237" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -5993,7 +5993,7 @@
         <v>232</v>
       </c>
       <c r="B238" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -6001,7 +6001,7 @@
         <v>233</v>
       </c>
       <c r="B239" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -6009,7 +6009,7 @@
         <v>234</v>
       </c>
       <c r="B240" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -6017,7 +6017,7 @@
         <v>235</v>
       </c>
       <c r="B241" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -6025,7 +6025,7 @@
         <v>236</v>
       </c>
       <c r="B242" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -6033,7 +6033,7 @@
         <v>237</v>
       </c>
       <c r="B243" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -6041,7 +6041,7 @@
         <v>238</v>
       </c>
       <c r="B244" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -6049,7 +6049,7 @@
         <v>239</v>
       </c>
       <c r="B245" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -6057,7 +6057,7 @@
         <v>240</v>
       </c>
       <c r="B246" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -6065,7 +6065,7 @@
         <v>241</v>
       </c>
       <c r="B247" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -6073,7 +6073,7 @@
         <v>242</v>
       </c>
       <c r="B248" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -6081,7 +6081,7 @@
         <v>243</v>
       </c>
       <c r="B249" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -6089,7 +6089,7 @@
         <v>244</v>
       </c>
       <c r="B250" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -6097,7 +6097,7 @@
         <v>245</v>
       </c>
       <c r="B251" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -6105,7 +6105,7 @@
         <v>246</v>
       </c>
       <c r="B252" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -6113,7 +6113,7 @@
         <v>247</v>
       </c>
       <c r="B253" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -6121,7 +6121,7 @@
         <v>248</v>
       </c>
       <c r="B254" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -6129,7 +6129,7 @@
         <v>249</v>
       </c>
       <c r="B255" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -6137,7 +6137,7 @@
         <v>250</v>
       </c>
       <c r="B256" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -6145,7 +6145,7 @@
         <v>251</v>
       </c>
       <c r="B257" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -6153,7 +6153,7 @@
         <v>252</v>
       </c>
       <c r="B258" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -6161,7 +6161,7 @@
         <v>253</v>
       </c>
       <c r="B259" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -6169,7 +6169,7 @@
         <v>254</v>
       </c>
       <c r="B260" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -6177,7 +6177,7 @@
         <v>255</v>
       </c>
       <c r="B261" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -6185,7 +6185,7 @@
         <v>256</v>
       </c>
       <c r="B262" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -6193,7 +6193,7 @@
         <v>257</v>
       </c>
       <c r="B263" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -6201,7 +6201,7 @@
         <v>258</v>
       </c>
       <c r="B264" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -6209,7 +6209,7 @@
         <v>259</v>
       </c>
       <c r="B265" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -6217,7 +6217,7 @@
         <v>260</v>
       </c>
       <c r="B266" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -6225,7 +6225,7 @@
         <v>261</v>
       </c>
       <c r="B267" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -6233,7 +6233,7 @@
         <v>262</v>
       </c>
       <c r="B268" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -6241,7 +6241,7 @@
         <v>263</v>
       </c>
       <c r="B269" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -6249,7 +6249,7 @@
         <v>264</v>
       </c>
       <c r="B270" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -6257,7 +6257,7 @@
         <v>265</v>
       </c>
       <c r="B271" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -6265,7 +6265,7 @@
         <v>266</v>
       </c>
       <c r="B272" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -6273,7 +6273,7 @@
         <v>267</v>
       </c>
       <c r="B273" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -6281,7 +6281,7 @@
         <v>268</v>
       </c>
       <c r="B274" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -6289,7 +6289,7 @@
         <v>269</v>
       </c>
       <c r="B275" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -6297,7 +6297,7 @@
         <v>270</v>
       </c>
       <c r="B276" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -6305,7 +6305,7 @@
         <v>271</v>
       </c>
       <c r="B277" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -6313,7 +6313,7 @@
         <v>272</v>
       </c>
       <c r="B278" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -6321,7 +6321,7 @@
         <v>273</v>
       </c>
       <c r="B279" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -6329,7 +6329,7 @@
         <v>274</v>
       </c>
       <c r="B280" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -6337,7 +6337,7 @@
         <v>275</v>
       </c>
       <c r="B281" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -6345,7 +6345,7 @@
         <v>276</v>
       </c>
       <c r="B282" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -6353,7 +6353,7 @@
         <v>277</v>
       </c>
       <c r="B283" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -6361,7 +6361,7 @@
         <v>278</v>
       </c>
       <c r="B284" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -6369,7 +6369,7 @@
         <v>279</v>
       </c>
       <c r="B285" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -6377,7 +6377,7 @@
         <v>280</v>
       </c>
       <c r="B286" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -6385,7 +6385,7 @@
         <v>281</v>
       </c>
       <c r="B287" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -6393,7 +6393,7 @@
         <v>282</v>
       </c>
       <c r="B288" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -6401,7 +6401,7 @@
         <v>283</v>
       </c>
       <c r="B289" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -6409,7 +6409,7 @@
         <v>284</v>
       </c>
       <c r="B290" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -6417,7 +6417,7 @@
         <v>285</v>
       </c>
       <c r="B291" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -6425,7 +6425,7 @@
         <v>286</v>
       </c>
       <c r="B292" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -6433,7 +6433,7 @@
         <v>287</v>
       </c>
       <c r="B293" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -6441,7 +6441,7 @@
         <v>288</v>
       </c>
       <c r="B294" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -6449,7 +6449,7 @@
         <v>289</v>
       </c>
       <c r="B295" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -6457,7 +6457,7 @@
         <v>290</v>
       </c>
       <c r="B296" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -6465,7 +6465,7 @@
         <v>291</v>
       </c>
       <c r="B297" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -6473,7 +6473,7 @@
         <v>292</v>
       </c>
       <c r="C298" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -6481,7 +6481,7 @@
         <v>293</v>
       </c>
       <c r="B299" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -6489,7 +6489,7 @@
         <v>294</v>
       </c>
       <c r="B300" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -6497,7 +6497,7 @@
         <v>295</v>
       </c>
       <c r="B301" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -6505,7 +6505,7 @@
         <v>296</v>
       </c>
       <c r="B302" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -6513,7 +6513,7 @@
         <v>297</v>
       </c>
       <c r="B303" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -6521,7 +6521,7 @@
         <v>298</v>
       </c>
       <c r="B304" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -6529,7 +6529,7 @@
         <v>299</v>
       </c>
       <c r="B305" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -6537,7 +6537,7 @@
         <v>300</v>
       </c>
       <c r="B306" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -6545,7 +6545,7 @@
         <v>301</v>
       </c>
       <c r="B307" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -6553,7 +6553,7 @@
         <v>302</v>
       </c>
       <c r="B308" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -6561,7 +6561,7 @@
         <v>303</v>
       </c>
       <c r="B309" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -6569,7 +6569,7 @@
         <v>304</v>
       </c>
       <c r="B310" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -6577,7 +6577,7 @@
         <v>305</v>
       </c>
       <c r="C311" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -6585,7 +6585,7 @@
         <v>306</v>
       </c>
       <c r="B312" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -6593,7 +6593,7 @@
         <v>307</v>
       </c>
       <c r="B313" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -6601,7 +6601,7 @@
         <v>308</v>
       </c>
       <c r="B314" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -6609,7 +6609,7 @@
         <v>309</v>
       </c>
       <c r="B315" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -6617,7 +6617,7 @@
         <v>310</v>
       </c>
       <c r="B316" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -6625,7 +6625,7 @@
         <v>311</v>
       </c>
       <c r="B317" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -6633,7 +6633,7 @@
         <v>312</v>
       </c>
       <c r="B318" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -6641,7 +6641,7 @@
         <v>313</v>
       </c>
       <c r="B319" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -6649,7 +6649,7 @@
         <v>314</v>
       </c>
       <c r="B320" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -6657,7 +6657,7 @@
         <v>315</v>
       </c>
       <c r="B321" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -6665,7 +6665,7 @@
         <v>316</v>
       </c>
       <c r="B322" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -6673,7 +6673,7 @@
         <v>317</v>
       </c>
       <c r="B323" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -6681,7 +6681,7 @@
         <v>318</v>
       </c>
       <c r="B324" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -6689,7 +6689,7 @@
         <v>319</v>
       </c>
       <c r="B325" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -6697,7 +6697,7 @@
         <v>320</v>
       </c>
       <c r="B326" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -6705,7 +6705,7 @@
         <v>321</v>
       </c>
       <c r="B327" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -6713,7 +6713,7 @@
         <v>322</v>
       </c>
       <c r="B328" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -6721,7 +6721,7 @@
         <v>323</v>
       </c>
       <c r="B329" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -6729,7 +6729,7 @@
         <v>324</v>
       </c>
       <c r="B330" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -6737,7 +6737,7 @@
         <v>325</v>
       </c>
       <c r="B331" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -6745,7 +6745,7 @@
         <v>326</v>
       </c>
       <c r="B332" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -6753,7 +6753,7 @@
         <v>327</v>
       </c>
       <c r="B333" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -6761,7 +6761,7 @@
         <v>328</v>
       </c>
       <c r="B334" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -6769,7 +6769,7 @@
         <v>329</v>
       </c>
       <c r="B335" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -6777,7 +6777,7 @@
         <v>330</v>
       </c>
       <c r="B336" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -6785,7 +6785,7 @@
         <v>331</v>
       </c>
       <c r="B337" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -6793,7 +6793,7 @@
         <v>332</v>
       </c>
       <c r="B338" t="s">
-        <v>855</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -6801,7 +6801,7 @@
         <v>333</v>
       </c>
       <c r="B339" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -6809,7 +6809,7 @@
         <v>334</v>
       </c>
       <c r="B340" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -6817,7 +6817,7 @@
         <v>335</v>
       </c>
       <c r="B341" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -6825,7 +6825,7 @@
         <v>336</v>
       </c>
       <c r="B342" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -6833,7 +6833,7 @@
         <v>337</v>
       </c>
       <c r="B343" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -6841,7 +6841,7 @@
         <v>338</v>
       </c>
       <c r="B344" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -6849,7 +6849,7 @@
         <v>339</v>
       </c>
       <c r="B345" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -6857,7 +6857,7 @@
         <v>340</v>
       </c>
       <c r="B346" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -6865,7 +6865,7 @@
         <v>341</v>
       </c>
       <c r="B347" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -6873,7 +6873,7 @@
         <v>342</v>
       </c>
       <c r="B348" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -6881,7 +6881,7 @@
         <v>343</v>
       </c>
       <c r="B349" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -6889,7 +6889,7 @@
         <v>344</v>
       </c>
       <c r="B350" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -6897,7 +6897,7 @@
         <v>345</v>
       </c>
       <c r="B351" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -6905,7 +6905,7 @@
         <v>346</v>
       </c>
       <c r="B352" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -6913,7 +6913,7 @@
         <v>347</v>
       </c>
       <c r="B353" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -6921,7 +6921,7 @@
         <v>348</v>
       </c>
       <c r="B354" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -6929,7 +6929,7 @@
         <v>349</v>
       </c>
       <c r="B355" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -6937,7 +6937,7 @@
         <v>350</v>
       </c>
       <c r="B356" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -6945,7 +6945,7 @@
         <v>351</v>
       </c>
       <c r="B357" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -6953,7 +6953,7 @@
         <v>352</v>
       </c>
       <c r="B358" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -6961,7 +6961,7 @@
         <v>353</v>
       </c>
       <c r="B359" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -6969,7 +6969,7 @@
         <v>354</v>
       </c>
       <c r="B360" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -6977,7 +6977,7 @@
         <v>355</v>
       </c>
       <c r="B361" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -6985,7 +6985,7 @@
         <v>356</v>
       </c>
       <c r="B362" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -6993,7 +6993,7 @@
         <v>357</v>
       </c>
       <c r="B363" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -7001,7 +7001,7 @@
         <v>358</v>
       </c>
       <c r="B364" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -7017,7 +7017,7 @@
         <v>359</v>
       </c>
       <c r="B366" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -7025,7 +7025,7 @@
         <v>360</v>
       </c>
       <c r="B367" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -7033,7 +7033,7 @@
         <v>361</v>
       </c>
       <c r="B368" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -7041,7 +7041,7 @@
         <v>362</v>
       </c>
       <c r="B369" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -7049,7 +7049,7 @@
         <v>363</v>
       </c>
       <c r="B370" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -7057,7 +7057,7 @@
         <v>364</v>
       </c>
       <c r="B371" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -7065,7 +7065,7 @@
         <v>365</v>
       </c>
       <c r="B372" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -7089,7 +7089,7 @@
         <v>370</v>
       </c>
       <c r="B375" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -7097,7 +7097,7 @@
         <v>371</v>
       </c>
       <c r="B376" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -7105,7 +7105,7 @@
         <v>372</v>
       </c>
       <c r="B377" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -7113,7 +7113,7 @@
         <v>373</v>
       </c>
       <c r="B378" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -7121,7 +7121,7 @@
         <v>374</v>
       </c>
       <c r="B379" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -7129,7 +7129,7 @@
         <v>375</v>
       </c>
       <c r="B380" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -7137,7 +7137,7 @@
         <v>376</v>
       </c>
       <c r="B381" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -7145,7 +7145,7 @@
         <v>377</v>
       </c>
       <c r="B382" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -7153,7 +7153,7 @@
         <v>378</v>
       </c>
       <c r="B383" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -7161,7 +7161,7 @@
         <v>379</v>
       </c>
       <c r="B384" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -7169,7 +7169,7 @@
         <v>380</v>
       </c>
       <c r="B385" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -7177,7 +7177,7 @@
         <v>381</v>
       </c>
       <c r="B386" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -7185,7 +7185,7 @@
         <v>382</v>
       </c>
       <c r="B387" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -7193,7 +7193,7 @@
         <v>383</v>
       </c>
       <c r="B388" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -7201,7 +7201,7 @@
         <v>384</v>
       </c>
       <c r="B389" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -7209,7 +7209,7 @@
         <v>385</v>
       </c>
       <c r="B390" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -7217,7 +7217,7 @@
         <v>386</v>
       </c>
       <c r="B391" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -7225,7 +7225,7 @@
         <v>387</v>
       </c>
       <c r="B392" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -7233,7 +7233,7 @@
         <v>388</v>
       </c>
       <c r="B393" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -7241,7 +7241,7 @@
         <v>389</v>
       </c>
       <c r="B394" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -7249,7 +7249,7 @@
         <v>390</v>
       </c>
       <c r="B395" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -7257,7 +7257,7 @@
         <v>391</v>
       </c>
       <c r="B396" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -7265,7 +7265,7 @@
         <v>392</v>
       </c>
       <c r="B397" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -7273,7 +7273,7 @@
         <v>393</v>
       </c>
       <c r="B398" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -7281,7 +7281,7 @@
         <v>394</v>
       </c>
       <c r="B399" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -7289,7 +7289,7 @@
         <v>395</v>
       </c>
       <c r="B400" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -7297,7 +7297,7 @@
         <v>396</v>
       </c>
       <c r="B401" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -7305,7 +7305,7 @@
         <v>397</v>
       </c>
       <c r="B402" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -7313,7 +7313,7 @@
         <v>398</v>
       </c>
       <c r="B403" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -7321,7 +7321,7 @@
         <v>399</v>
       </c>
       <c r="B404" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -7329,7 +7329,7 @@
         <v>400</v>
       </c>
       <c r="B405" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -7337,7 +7337,7 @@
         <v>401</v>
       </c>
       <c r="B406" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -7345,7 +7345,7 @@
         <v>402</v>
       </c>
       <c r="B407" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -7353,7 +7353,7 @@
         <v>403</v>
       </c>
       <c r="B408" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -7361,7 +7361,7 @@
         <v>404</v>
       </c>
       <c r="B409" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -7369,7 +7369,7 @@
         <v>405</v>
       </c>
       <c r="B410" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -7377,7 +7377,7 @@
         <v>406</v>
       </c>
       <c r="B411" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -7385,7 +7385,7 @@
         <v>407</v>
       </c>
       <c r="B412" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -7393,7 +7393,7 @@
         <v>408</v>
       </c>
       <c r="B413" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -7401,7 +7401,7 @@
         <v>409</v>
       </c>
       <c r="B414" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -7409,7 +7409,7 @@
         <v>410</v>
       </c>
       <c r="B415" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -7417,7 +7417,7 @@
         <v>411</v>
       </c>
       <c r="B416" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -7425,7 +7425,7 @@
         <v>412</v>
       </c>
       <c r="B417" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -7433,7 +7433,7 @@
         <v>413</v>
       </c>
       <c r="B418" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -7441,7 +7441,7 @@
         <v>414</v>
       </c>
       <c r="B419" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -7449,7 +7449,7 @@
         <v>415</v>
       </c>
       <c r="B420" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -7457,7 +7457,7 @@
         <v>416</v>
       </c>
       <c r="B421" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -7465,7 +7465,7 @@
         <v>417</v>
       </c>
       <c r="B422" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -7473,7 +7473,7 @@
         <v>418</v>
       </c>
       <c r="B423" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -7481,7 +7481,7 @@
         <v>419</v>
       </c>
       <c r="B424" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -7489,7 +7489,7 @@
         <v>420</v>
       </c>
       <c r="B425" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -7497,7 +7497,7 @@
         <v>421</v>
       </c>
       <c r="B426" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -7505,7 +7505,7 @@
         <v>422</v>
       </c>
       <c r="B427" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -7513,7 +7513,7 @@
         <v>423</v>
       </c>
       <c r="B428" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -7521,7 +7521,7 @@
         <v>424</v>
       </c>
       <c r="B429" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -7529,7 +7529,7 @@
         <v>425</v>
       </c>
       <c r="B430" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -7537,7 +7537,7 @@
         <v>426</v>
       </c>
       <c r="B431" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -7545,7 +7545,7 @@
         <v>427</v>
       </c>
       <c r="B432" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
@@ -7553,7 +7553,7 @@
         <v>428</v>
       </c>
       <c r="B433" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
@@ -7561,7 +7561,7 @@
         <v>429</v>
       </c>
       <c r="B434" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
@@ -7569,10 +7569,10 @@
         <v>430</v>
       </c>
       <c r="B435" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C435" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
@@ -7580,10 +7580,10 @@
         <v>431</v>
       </c>
       <c r="B436" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C436" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
@@ -7591,10 +7591,10 @@
         <v>432</v>
       </c>
       <c r="B437" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C437" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
@@ -7602,10 +7602,10 @@
         <v>433</v>
       </c>
       <c r="B438" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C438" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
@@ -7613,10 +7613,10 @@
         <v>434</v>
       </c>
       <c r="B439" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C439" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
@@ -7624,10 +7624,10 @@
         <v>435</v>
       </c>
       <c r="B440" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C440" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -7635,10 +7635,10 @@
         <v>436</v>
       </c>
       <c r="B441" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C441" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -7646,10 +7646,10 @@
         <v>437</v>
       </c>
       <c r="B442" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C442" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -7657,10 +7657,10 @@
         <v>438</v>
       </c>
       <c r="B443" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C443" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
@@ -7668,10 +7668,10 @@
         <v>439</v>
       </c>
       <c r="B444" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C444" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
@@ -7679,10 +7679,10 @@
         <v>440</v>
       </c>
       <c r="B445" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C445" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -7690,10 +7690,10 @@
         <v>441</v>
       </c>
       <c r="B446" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C446" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -7701,10 +7701,10 @@
         <v>442</v>
       </c>
       <c r="B447" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C447" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -7712,10 +7712,10 @@
         <v>443</v>
       </c>
       <c r="B448" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C448" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -7723,10 +7723,10 @@
         <v>444</v>
       </c>
       <c r="B449" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C449" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -7734,10 +7734,10 @@
         <v>445</v>
       </c>
       <c r="B450" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C450" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -7745,10 +7745,10 @@
         <v>446</v>
       </c>
       <c r="B451" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C451" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
@@ -7756,10 +7756,10 @@
         <v>447</v>
       </c>
       <c r="B452" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C452" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -7767,10 +7767,10 @@
         <v>448</v>
       </c>
       <c r="B453" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C453" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
@@ -7778,10 +7778,10 @@
         <v>449</v>
       </c>
       <c r="B454" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C454" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
@@ -7789,10 +7789,10 @@
         <v>450</v>
       </c>
       <c r="B455" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C455" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
@@ -7800,10 +7800,10 @@
         <v>451</v>
       </c>
       <c r="B456" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C456" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
@@ -7811,10 +7811,10 @@
         <v>452</v>
       </c>
       <c r="B457" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C457" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
@@ -7822,10 +7822,10 @@
         <v>453</v>
       </c>
       <c r="B458" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C458" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -7833,10 +7833,10 @@
         <v>454</v>
       </c>
       <c r="B459" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C459" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
@@ -7844,7 +7844,7 @@
         <v>455</v>
       </c>
       <c r="B460" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
@@ -7852,7 +7852,7 @@
         <v>456</v>
       </c>
       <c r="B461" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
@@ -7860,7 +7860,7 @@
         <v>457</v>
       </c>
       <c r="B462" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -7868,7 +7868,7 @@
         <v>458</v>
       </c>
       <c r="B463" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
@@ -7876,7 +7876,7 @@
         <v>459</v>
       </c>
       <c r="B464" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -7884,7 +7884,7 @@
         <v>460</v>
       </c>
       <c r="B465" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -7892,7 +7892,7 @@
         <v>461</v>
       </c>
       <c r="B466" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -7900,7 +7900,7 @@
         <v>462</v>
       </c>
       <c r="B467" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -7908,7 +7908,7 @@
         <v>463</v>
       </c>
       <c r="B468" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -7916,7 +7916,7 @@
         <v>464</v>
       </c>
       <c r="B469" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -7924,7 +7924,7 @@
         <v>465</v>
       </c>
       <c r="B470" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
@@ -7932,7 +7932,7 @@
         <v>466</v>
       </c>
       <c r="B471" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
@@ -7940,7 +7940,7 @@
         <v>467</v>
       </c>
       <c r="B472" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
@@ -7948,7 +7948,7 @@
         <v>468</v>
       </c>
       <c r="B473" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -7956,7 +7956,7 @@
         <v>469</v>
       </c>
       <c r="B474" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -7972,7 +7972,7 @@
         <v>471</v>
       </c>
       <c r="B476" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -7980,7 +7980,7 @@
         <v>472</v>
       </c>
       <c r="B477" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -7988,7 +7988,7 @@
         <v>473</v>
       </c>
       <c r="B478" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -7996,7 +7996,7 @@
         <v>474</v>
       </c>
       <c r="B479" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -8004,7 +8004,7 @@
         <v>475</v>
       </c>
       <c r="B480" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
@@ -8012,7 +8012,7 @@
         <v>476</v>
       </c>
       <c r="B481" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
@@ -8020,7 +8020,7 @@
         <v>477</v>
       </c>
       <c r="B482" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
@@ -8028,7 +8028,7 @@
         <v>478</v>
       </c>
       <c r="B483" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
@@ -8036,7 +8036,7 @@
         <v>479</v>
       </c>
       <c r="B484" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
@@ -8044,7 +8044,7 @@
         <v>480</v>
       </c>
       <c r="B485" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
@@ -8052,7 +8052,7 @@
         <v>481</v>
       </c>
       <c r="B486" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
@@ -8060,7 +8060,7 @@
         <v>482</v>
       </c>
       <c r="B487" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
@@ -8068,7 +8068,7 @@
         <v>483</v>
       </c>
       <c r="B488" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
@@ -8076,7 +8076,7 @@
         <v>484</v>
       </c>
       <c r="B489" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
@@ -8084,7 +8084,7 @@
         <v>485</v>
       </c>
       <c r="B490" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
@@ -8092,7 +8092,7 @@
         <v>486</v>
       </c>
       <c r="C491" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
@@ -8100,7 +8100,7 @@
         <v>487</v>
       </c>
       <c r="B492" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
@@ -8108,7 +8108,7 @@
         <v>488</v>
       </c>
       <c r="B493" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
@@ -8116,7 +8116,7 @@
         <v>489</v>
       </c>
       <c r="B494" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
@@ -8124,7 +8124,7 @@
         <v>490</v>
       </c>
       <c r="B495" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
@@ -8132,7 +8132,7 @@
         <v>491</v>
       </c>
       <c r="B496" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
@@ -8140,7 +8140,7 @@
         <v>492</v>
       </c>
       <c r="B497" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
@@ -8148,7 +8148,7 @@
         <v>493</v>
       </c>
       <c r="B498" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -8156,7 +8156,7 @@
         <v>494</v>
       </c>
       <c r="B499" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -8164,7 +8164,7 @@
         <v>495</v>
       </c>
       <c r="B500" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
@@ -8172,7 +8172,7 @@
         <v>496</v>
       </c>
       <c r="B501" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
@@ -8180,7 +8180,7 @@
         <v>497</v>
       </c>
       <c r="B502" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
@@ -8188,7 +8188,7 @@
         <v>498</v>
       </c>
       <c r="B503" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -8196,7 +8196,7 @@
         <v>499</v>
       </c>
       <c r="B504" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
@@ -8204,7 +8204,7 @@
         <v>500</v>
       </c>
       <c r="B505" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -8212,7 +8212,7 @@
         <v>501</v>
       </c>
       <c r="B506" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -8220,7 +8220,7 @@
         <v>502</v>
       </c>
       <c r="B507" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -8228,7 +8228,7 @@
         <v>503</v>
       </c>
       <c r="B508" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -8236,7 +8236,7 @@
         <v>504</v>
       </c>
       <c r="B509" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -8244,7 +8244,7 @@
         <v>505</v>
       </c>
       <c r="B510" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -8252,7 +8252,7 @@
         <v>506</v>
       </c>
       <c r="B511" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -8260,7 +8260,7 @@
         <v>507</v>
       </c>
       <c r="B512" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -8268,7 +8268,7 @@
         <v>508</v>
       </c>
       <c r="B513" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
@@ -8276,7 +8276,7 @@
         <v>509</v>
       </c>
       <c r="B514" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
@@ -8284,7 +8284,7 @@
         <v>510</v>
       </c>
       <c r="B515" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
@@ -8292,7 +8292,7 @@
         <v>511</v>
       </c>
       <c r="B516" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -8300,7 +8300,7 @@
         <v>512</v>
       </c>
       <c r="B517" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -8308,7 +8308,7 @@
         <v>513</v>
       </c>
       <c r="B518" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -8316,7 +8316,7 @@
         <v>514</v>
       </c>
       <c r="B519" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
